--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563C5FC5-8D5F-4490-8711-A98A45B59E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D79B41-37B8-44B5-B27F-BE5F7112A3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Index of sentence</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>word</t>
   </si>
@@ -59,6 +56,33 @@
   </si>
   <si>
     <t>[b'are']</t>
+  </si>
+  <si>
+    <t>Index of sentence (total sentences = 15290)</t>
+  </si>
+  <si>
+    <t>[b'that']</t>
+  </si>
+  <si>
+    <t>[b'is']</t>
+  </si>
+  <si>
+    <t>[b'our']</t>
+  </si>
+  <si>
+    <t>[b'what']</t>
+  </si>
+  <si>
+    <t>[b'in']</t>
+  </si>
+  <si>
+    <t>This means just for noting purposes</t>
+  </si>
+  <si>
+    <t>"-3g5yACwYnA"</t>
+  </si>
+  <si>
+    <t>[b'we']</t>
   </si>
 </sst>
 </file>
@@ -74,12 +98,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,8 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,46 +407,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>183</v>
       </c>
       <c r="C2">
@@ -425,25 +457,168 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>435</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D79B41-37B8-44B5-B27F-BE5F7112A3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96528603-2090-46A4-9C4B-F61065500D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>word</t>
   </si>
@@ -83,6 +83,33 @@
   </si>
   <si>
     <t>[b'we']</t>
+  </si>
+  <si>
+    <t>"-3nNcZdcdvU"</t>
+  </si>
+  <si>
+    <t>"-571d8cVauQ"</t>
+  </si>
+  <si>
+    <t>"-6rXp3zJ3kc"</t>
+  </si>
+  <si>
+    <t>[b'apply']</t>
+  </si>
+  <si>
+    <t>[b'independence']</t>
+  </si>
+  <si>
+    <t>[b'only']</t>
+  </si>
+  <si>
+    <t>[b'bound']</t>
+  </si>
+  <si>
+    <t>[b'by']</t>
+  </si>
+  <si>
+    <t>[b'human']</t>
   </si>
 </sst>
 </file>
@@ -407,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +446,7 @@
     <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
   </cols>
@@ -456,6 +484,12 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -475,6 +509,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>125</v>
+      </c>
       <c r="D4">
         <v>2</v>
       </c>
@@ -486,24 +526,60 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>341</v>
+      </c>
       <c r="D5">
         <v>3</v>
       </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>225</v>
+      </c>
       <c r="D6">
         <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>5</v>
       </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>6</v>
       </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9">
@@ -578,12 +654,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>16</v>
       </c>
@@ -594,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>17</v>
       </c>
@@ -605,12 +687,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>19</v>
       </c>
@@ -619,6 +701,109 @@
       </c>
       <c r="F21">
         <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96528603-2090-46A4-9C4B-F61065500D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF817E4-29A0-4F08-8B9F-E9A9A7B14501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>word</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>[b'human']</t>
+  </si>
+  <si>
+    <t>[b'rights']</t>
+  </si>
+  <si>
+    <t>[b'standard']</t>
+  </si>
+  <si>
+    <t>[b'work']</t>
+  </si>
+  <si>
+    <t>sentence</t>
+  </si>
+  <si>
+    <t>independence we are only bound by human rights that is our standard __________ what we apply in our work we</t>
   </si>
 </sst>
 </file>
@@ -125,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +150,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,9 +172,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +470,7 @@
     <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -470,6 +493,9 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -490,6 +516,9 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -585,6 +614,12 @@
       <c r="D9">
         <v>7</v>
       </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>13</v>
       </c>
@@ -626,11 +661,19 @@
       <c r="D13">
         <v>11</v>
       </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14">
+      <c r="D14" s="2">
         <v>12</v>
       </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15">
@@ -690,6 +733,12 @@
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF817E4-29A0-4F08-8B9F-E9A9A7B14501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3221D70E-305D-4157-8CA9-EF681D3DDE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,14 +756,18 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>0</v>
       </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>1</v>
-      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D25">

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3221D70E-305D-4157-8CA9-EF681D3DDE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8747A260-8C79-4D62-9160-B247C7875385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,14 +770,18 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D25">
+      <c r="D25" s="2">
         <v>2</v>
       </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D26">
+      <c r="D26" s="2">
         <v>3</v>
       </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D27">

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8747A260-8C79-4D62-9160-B247C7875385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E4CE53-3127-487C-91C2-84D11ED23B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>word</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>independence we are only bound by human rights that is our standard __________ what we apply in our work we</t>
+  </si>
+  <si>
+    <t>[b'scrutinize']</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,15 +790,33 @@
       <c r="D27">
         <v>4</v>
       </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>5</v>
       </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E4CE53-3127-487C-91C2-84D11ED23B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26654503-ED77-4F77-A2A3-6F8E75815DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>word</t>
   </si>
@@ -128,16 +128,46 @@
   </si>
   <si>
     <t>[b'scrutinize']</t>
+  </si>
+  <si>
+    <t>[b'governments']</t>
+  </si>
+  <si>
+    <t>[b'parliaments']</t>
+  </si>
+  <si>
+    <t>[b'do']</t>
+  </si>
+  <si>
+    <t>[b'and']</t>
+  </si>
+  <si>
+    <t>[b'for']</t>
+  </si>
+  <si>
+    <t>[b'you']</t>
+  </si>
+  <si>
+    <t>[b'need']</t>
+  </si>
+  <si>
+    <t>_____ ______ _______ ________ we scrutinize what governments what parliaments do and for that you need independence we are only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,10 +205,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +504,7 @@
     <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="103.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="123.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -700,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>15</v>
       </c>
@@ -711,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>16</v>
       </c>
@@ -722,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>17</v>
       </c>
@@ -733,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>18</v>
       </c>
@@ -744,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>19</v>
       </c>
@@ -755,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1</v>
       </c>
@@ -764,29 +795,32 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
         <v>2</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D26" s="2">
         <v>3</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>4</v>
       </c>
@@ -797,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>5</v>
       </c>
@@ -808,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>6</v>
       </c>
@@ -819,72 +853,278 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>19</v>
       </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="2">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="2">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="2">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="2">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="2">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="2">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="2">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="2">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26654503-ED77-4F77-A2A3-6F8E75815DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A57CED-3444-47AC-92CD-19907336497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>word</t>
   </si>
@@ -152,6 +152,105 @@
   </si>
   <si>
     <t>_____ ______ _______ ________ we scrutinize what governments what parliaments do and for that you need independence we are only</t>
+  </si>
+  <si>
+    <t>[b'essential']</t>
+  </si>
+  <si>
+    <t>[b'to']</t>
+  </si>
+  <si>
+    <t>[b'legitimacy']</t>
+  </si>
+  <si>
+    <t>[b'help']</t>
+  </si>
+  <si>
+    <t>[b'the']</t>
+  </si>
+  <si>
+    <t>[b'states']</t>
+  </si>
+  <si>
+    <t>[b'implement']</t>
+  </si>
+  <si>
+    <t>[b'their']</t>
+  </si>
+  <si>
+    <t>[b'obligations']</t>
+  </si>
+  <si>
+    <t>[b'towards']</t>
+  </si>
+  <si>
+    <t>[b'all']</t>
+  </si>
+  <si>
+    <t>[b'beings']</t>
+  </si>
+  <si>
+    <t>[b'countries']</t>
+  </si>
+  <si>
+    <t>[b'us']</t>
+  </si>
+  <si>
+    <t>[b'effectively']</t>
+  </si>
+  <si>
+    <t>[b'be']</t>
+  </si>
+  <si>
+    <t>[b'independent']</t>
+  </si>
+  <si>
+    <t>[b'perceived']</t>
+  </si>
+  <si>
+    <t>[b'institutions']</t>
+  </si>
+  <si>
+    <t>[b'was']</t>
+  </si>
+  <si>
+    <t>[b'conceived']</t>
+  </si>
+  <si>
+    <t>[b'as']</t>
+  </si>
+  <si>
+    <t>[b'part']</t>
+  </si>
+  <si>
+    <t>[b'of']</t>
+  </si>
+  <si>
+    <t>[b'copenhagen']</t>
+  </si>
+  <si>
+    <t>[b'document']</t>
+  </si>
+  <si>
+    <t>[b'back']</t>
+  </si>
+  <si>
+    <t>[b'has']</t>
+  </si>
+  <si>
+    <t>[b'played']</t>
+  </si>
+  <si>
+    <t>[b'a']</t>
+  </si>
+  <si>
+    <t>[b'strong']</t>
+  </si>
+  <si>
+    <t>[b'role']</t>
+  </si>
+  <si>
+    <t>[b'supporting']</t>
   </si>
 </sst>
 </file>
@@ -173,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +291,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -205,11 +310,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,42 +1190,840 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D56">
+      <c r="D56" s="2">
         <v>12</v>
       </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D57">
+      <c r="D57" s="2">
         <v>13</v>
       </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>14</v>
       </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59">
         <v>15</v>
       </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>16</v>
       </c>
+      <c r="E60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>17</v>
       </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>18</v>
       </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="2">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>50</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>19</v>
+      </c>
+      <c r="E84" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="4">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>52</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>53</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>55</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>54</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>15</v>
+      </c>
+      <c r="E101" t="s">
+        <v>56</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>16</v>
+      </c>
+      <c r="E102" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>17</v>
+      </c>
+      <c r="E103" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>18</v>
+      </c>
+      <c r="E104" t="s">
+        <v>55</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C107" s="4">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>58</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>59</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>61</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
+        <v>62</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s">
+        <v>64</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>10</v>
+      </c>
+      <c r="E117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>11</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
+        <v>66</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
+        <v>67</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>15</v>
+      </c>
+      <c r="E122" t="s">
+        <v>68</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>16</v>
+      </c>
+      <c r="E123" t="s">
+        <v>69</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>17</v>
+      </c>
+      <c r="E124" t="s">
+        <v>70</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>18</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>19</v>
+      </c>
+      <c r="E126" t="s">
+        <v>71</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>6</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A57CED-3444-47AC-92CD-19907336497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34794066-3B74-4219-B515-18EE71A64540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t>word</t>
   </si>
@@ -251,6 +251,24 @@
   </si>
   <si>
     <t>[b'supporting']</t>
+  </si>
+  <si>
+    <t>[b'reviews']</t>
+  </si>
+  <si>
+    <t>[b'report']</t>
+  </si>
+  <si>
+    <t>[b'closed']</t>
+  </si>
+  <si>
+    <t>[b'meeting']</t>
+  </si>
+  <si>
+    <t>[b'then']</t>
+  </si>
+  <si>
+    <t>[b'forwards']</t>
   </si>
 </sst>
 </file>
@@ -310,12 +328,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +618,7 @@
   <dimension ref="A1:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,82 +1951,152 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D130">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D130" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D131">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D132">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>72</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D133">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D134">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>73</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D136">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>68</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D137">
         <v>9</v>
       </c>
-    </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>74</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D138">
         <v>10</v>
       </c>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>75</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D139">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D140">
         <v>12</v>
       </c>
-    </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D141">
+      <c r="E140" t="s">
+        <v>76</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D141" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F141" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D142">
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D143">
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D144">
         <v>16</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34794066-3B74-4219-B515-18EE71A64540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD259908-03C7-4118-A61D-1964107A0AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>word</t>
   </si>
@@ -269,6 +269,30 @@
   </si>
   <si>
     <t>[b'forwards']</t>
+  </si>
+  <si>
+    <t>[b'recommendations']</t>
+  </si>
+  <si>
+    <t>[b'chief']</t>
+  </si>
+  <si>
+    <t>[b'police']</t>
+  </si>
+  <si>
+    <t>_____ ______ _______ _______ _______ _______ _______ _______ _______ _______ _______ _______ _______ _______ independence is essential to our legitimacy</t>
+  </si>
+  <si>
+    <t>_____ ______ _______ ________ work we help the states to implement their obligations towards all human beings and their countries</t>
+  </si>
+  <si>
+    <t>us to do that effectively we need to be independent and we need to be perceived to be independent work</t>
+  </si>
+  <si>
+    <t>rights institutions was conceived as part of the copenhagen document back in and has played a strong role in supporting</t>
+  </si>
+  <si>
+    <t>_____ _____ _____ the reviews the report in a closed meeting and then forwards recommendations to the chief of police</t>
   </si>
 </sst>
 </file>
@@ -615,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K147"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" topLeftCell="C133" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,9 +651,9 @@
     <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="123.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="145" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1011,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>10</v>
       </c>
@@ -1022,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>11</v>
       </c>
@@ -1033,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>12</v>
       </c>
@@ -1044,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>13</v>
       </c>
@@ -1055,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>14</v>
       </c>
@@ -1066,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>15</v>
       </c>
@@ -1077,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>16</v>
       </c>
@@ -1088,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>17</v>
       </c>
@@ -1099,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>18</v>
       </c>
@@ -1110,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>19</v>
       </c>
@@ -1121,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>2</v>
       </c>
@@ -1130,29 +1154,32 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D45" s="2">
         <v>1</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D46" s="2">
         <v>2</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D47" s="2">
         <v>3</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D48" s="2">
         <v>4</v>
       </c>
@@ -1288,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>3</v>
       </c>
@@ -1297,29 +1324,32 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D66" s="2">
         <v>1</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D67" s="2">
         <v>2</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D68" s="2">
         <v>3</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>4</v>
       </c>
@@ -1330,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>5</v>
       </c>
@@ -1341,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>6</v>
       </c>
@@ -1352,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>7</v>
       </c>
@@ -1363,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>8</v>
       </c>
@@ -1374,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>9</v>
       </c>
@@ -1385,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>10</v>
       </c>
@@ -1396,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>11</v>
       </c>
@@ -1407,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>12</v>
       </c>
@@ -1418,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>13</v>
       </c>
@@ -1429,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>14</v>
       </c>
@@ -1440,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>15</v>
       </c>
@@ -1451,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>16</v>
       </c>
@@ -1462,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>17</v>
       </c>
@@ -1473,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>18</v>
       </c>
@@ -1484,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>19</v>
       </c>
@@ -1495,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C86" s="4">
         <v>4</v>
       </c>
@@ -1508,8 +1538,11 @@
       <c r="F86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>1</v>
       </c>
@@ -1520,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>2</v>
       </c>
@@ -1531,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>3</v>
       </c>
@@ -1542,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>4</v>
       </c>
@@ -1553,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>5</v>
       </c>
@@ -1564,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>6</v>
       </c>
@@ -1575,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>7</v>
       </c>
@@ -1586,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>8</v>
       </c>
@@ -1597,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>9</v>
       </c>
@@ -1608,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>10</v>
       </c>
@@ -1619,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>11</v>
       </c>
@@ -1630,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>12</v>
       </c>
@@ -1641,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>13</v>
       </c>
@@ -1652,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>14</v>
       </c>
@@ -1663,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>15</v>
       </c>
@@ -1674,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>16</v>
       </c>
@@ -1685,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>17</v>
       </c>
@@ -1696,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>18</v>
       </c>
@@ -1707,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D105">
         <v>19</v>
       </c>
@@ -1718,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C107" s="4">
         <v>5</v>
       </c>
@@ -1731,8 +1764,11 @@
       <c r="F107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D108">
         <v>1</v>
       </c>
@@ -1743,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>2</v>
       </c>
@@ -1754,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D110">
         <v>3</v>
       </c>
@@ -1765,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D111">
         <v>4</v>
       </c>
@@ -1776,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>5</v>
       </c>
@@ -1787,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D113">
         <v>6</v>
       </c>
@@ -1798,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>7</v>
       </c>
@@ -1809,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>8</v>
       </c>
@@ -1820,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>9</v>
       </c>
@@ -1831,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>10</v>
       </c>
@@ -1842,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D118">
         <v>11</v>
       </c>
@@ -1853,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>12</v>
       </c>
@@ -1864,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>13</v>
       </c>
@@ -1875,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>14</v>
       </c>
@@ -1886,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>15</v>
       </c>
@@ -1897,7 +1933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>16</v>
       </c>
@@ -1908,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>17</v>
       </c>
@@ -1919,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>18</v>
       </c>
@@ -1930,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>19</v>
       </c>
@@ -1941,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>6</v>
       </c>
@@ -1950,6 +1986,9 @@
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
+      <c r="G128" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="129" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D129" s="2">
@@ -2090,29 +2129,170 @@
       <c r="D142">
         <v>14</v>
       </c>
+      <c r="E142" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F142" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D143">
         <v>15</v>
       </c>
+      <c r="E143" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F143" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D144">
         <v>16</v>
       </c>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F144" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D145">
         <v>17</v>
       </c>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F145" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D146">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F146" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D147">
+        <v>19</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F147" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>7</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD259908-03C7-4118-A61D-1964107A0AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7488BE-A4C6-4B7F-A3C8-B93C2D6B18D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C133" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView tabSelected="1" topLeftCell="C142" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156:F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,39 +2202,53 @@
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D150">
-        <v>1</v>
-      </c>
+      <c r="D150" s="2">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D151">
+      <c r="D151" s="2">
         <v>2</v>
       </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D152">
+      <c r="D152" s="2">
         <v>3</v>
       </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D153">
+      <c r="D153" s="2">
         <v>4</v>
       </c>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D154">
+      <c r="D154" s="2">
         <v>5</v>
       </c>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D155">
+      <c r="D155" s="2">
         <v>6</v>
       </c>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D156">
+      <c r="D156" s="2">
         <v>7</v>
       </c>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D157">

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7488BE-A4C6-4B7F-A3C8-B93C2D6B18D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5945C7B7-F5B3-45B1-8B89-A12A1E52ED03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
   <si>
     <t>word</t>
   </si>
@@ -293,6 +293,18 @@
   </si>
   <si>
     <t>_____ _____ _____ the reviews the report in a closed meeting and then forwards recommendations to the chief of police</t>
+  </si>
+  <si>
+    <t>[b'investigation']</t>
+  </si>
+  <si>
+    <t>[b'submits']</t>
+  </si>
+  <si>
+    <t>[b'accountability']</t>
+  </si>
+  <si>
+    <t>[b'board']</t>
   </si>
 </sst>
 </file>
@@ -641,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C142" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156:F156"/>
+    <sheetView tabSelected="1" topLeftCell="C139" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,63 +2263,127 @@
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D157">
+      <c r="D157" s="2">
         <v>8</v>
       </c>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D158">
+      <c r="D158" s="2">
         <v>9</v>
       </c>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D159">
         <v>10</v>
       </c>
+      <c r="E159" t="s">
+        <v>86</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D160">
         <v>11</v>
       </c>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>34</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161">
         <v>12</v>
       </c>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>87</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162">
         <v>13</v>
       </c>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163">
         <v>14</v>
       </c>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>73</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164">
         <v>15</v>
       </c>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>40</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D165">
         <v>16</v>
       </c>
-    </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>43</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D166">
         <v>17</v>
       </c>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>80</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D167">
         <v>18</v>
       </c>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>88</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D168">
         <v>19</v>
+      </c>
+      <c r="E168" t="s">
+        <v>89</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5945C7B7-F5B3-45B1-8B89-A12A1E52ED03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B891D9C-FC87-4D76-823B-D2918FF05DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
   <si>
     <t>word</t>
   </si>
@@ -305,6 +305,24 @@
   </si>
   <si>
     <t>[b'board']</t>
+  </si>
+  <si>
+    <t>[b'at']</t>
+  </si>
+  <si>
+    <t>[b'times']</t>
+  </si>
+  <si>
+    <t>[b'retains']</t>
+  </si>
+  <si>
+    <t>[b'both']</t>
+  </si>
+  <si>
+    <t>[b'responsibility']</t>
+  </si>
+  <si>
+    <t>[b'discretion']</t>
   </si>
 </sst>
 </file>
@@ -651,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K168"/>
+  <dimension ref="A1:K189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C139" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D161">
         <v>12</v>
       </c>
@@ -2309,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D162">
         <v>13</v>
       </c>
@@ -2320,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D163">
         <v>14</v>
       </c>
@@ -2331,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D164">
         <v>15</v>
       </c>
@@ -2342,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D165">
         <v>16</v>
       </c>
@@ -2353,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D166">
         <v>17</v>
       </c>
@@ -2364,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D167">
         <v>18</v>
       </c>
@@ -2375,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D168">
         <v>19</v>
       </c>
@@ -2384,6 +2402,201 @@
       </c>
       <c r="F168">
         <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>8</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>90</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172" t="s">
+        <v>49</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>91</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>4</v>
+      </c>
+      <c r="E174" t="s">
+        <v>43</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>79</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>6</v>
+      </c>
+      <c r="E176" t="s">
+        <v>62</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>7</v>
+      </c>
+      <c r="E177" t="s">
+        <v>80</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>8</v>
+      </c>
+      <c r="E178" t="s">
+        <v>92</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>9</v>
+      </c>
+      <c r="E179" t="s">
+        <v>93</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>10</v>
+      </c>
+      <c r="E180" t="s">
+        <v>43</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>11</v>
+      </c>
+      <c r="E181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>12</v>
+      </c>
+      <c r="E182" t="s">
+        <v>34</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>13</v>
+      </c>
+      <c r="E183" t="s">
+        <v>43</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>14</v>
+      </c>
+      <c r="E184" t="s">
+        <v>95</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>15</v>
+      </c>
+      <c r="E185" t="s">
+        <v>40</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B891D9C-FC87-4D76-823B-D2918FF05DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF14CA7-5201-4A00-99B0-A1285AF856E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
   <si>
     <t>word</t>
   </si>
@@ -323,6 +323,18 @@
   </si>
   <si>
     <t>[b'discretion']</t>
+  </si>
+  <si>
+    <t>[b'make']</t>
+  </si>
+  <si>
+    <t>[b'any']</t>
+  </si>
+  <si>
+    <t>[b'disciplinary']</t>
+  </si>
+  <si>
+    <t>[b'decisions']</t>
   </si>
 </sst>
 </file>
@@ -669,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K189"/>
+  <dimension ref="A1:K210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D177">
         <v>7</v>
       </c>
@@ -2491,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D178">
         <v>8</v>
       </c>
@@ -2502,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D179">
         <v>9</v>
       </c>
@@ -2513,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D180">
         <v>10</v>
       </c>
@@ -2524,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D181">
         <v>11</v>
       </c>
@@ -2535,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D182">
         <v>12</v>
       </c>
@@ -2546,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D183">
         <v>13</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D184">
         <v>14</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D185">
         <v>15</v>
       </c>
@@ -2579,23 +2591,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D186">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>96</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D187">
         <v>17</v>
       </c>
-    </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>97</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D188">
         <v>18</v>
       </c>
-    </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>98</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D189">
+        <v>19</v>
+      </c>
+      <c r="E189" t="s">
+        <v>99</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>9</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF14CA7-5201-4A00-99B0-A1285AF856E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED54CD9-E71A-4983-9C08-1B2354DBBA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="109">
   <si>
     <t>word</t>
   </si>
@@ -335,6 +335,33 @@
   </si>
   <si>
     <t>[b'decisions']</t>
+  </si>
+  <si>
+    <t>[b'makes']</t>
+  </si>
+  <si>
+    <t>[b'ultimate']</t>
+  </si>
+  <si>
+    <t>[b'decision']</t>
+  </si>
+  <si>
+    <t>[b'about']</t>
+  </si>
+  <si>
+    <t>_______ _______ _______ _______ _______ _______ _______ _______ _______ _______ investigation and submits that report to the police accountability board</t>
+  </si>
+  <si>
+    <t>[b'conclusion']</t>
+  </si>
+  <si>
+    <t>[b'process']</t>
+  </si>
+  <si>
+    <t>______ at all times the chief of police retains both the responsibility and the discretion to make any disciplinary decisions</t>
+  </si>
+  <si>
+    <t>______ ______ ______ ______ ______ ______ the chief of police makes the ultimate decision about the conclusion of the process</t>
   </si>
 </sst>
 </file>
@@ -681,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K210"/>
+  <dimension ref="A1:K231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D145">
         <v>17</v>
       </c>
@@ -2211,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D146">
         <v>18</v>
       </c>
@@ -2222,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D147">
         <v>19</v>
       </c>
@@ -2233,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C149">
         <v>7</v>
       </c>
@@ -2242,71 +2269,74 @@
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D150" s="2">
         <v>1</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D151" s="2">
         <v>2</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D152" s="2">
         <v>3</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D153" s="2">
         <v>4</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D154" s="2">
         <v>5</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D155" s="2">
         <v>6</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D156" s="2">
         <v>7</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D157" s="2">
         <v>8</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D158" s="2">
         <v>9</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D159">
         <v>10</v>
       </c>
@@ -2317,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D160">
         <v>11</v>
       </c>
@@ -2328,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D161">
         <v>12</v>
       </c>
@@ -2339,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D162">
         <v>13</v>
       </c>
@@ -2350,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D163">
         <v>14</v>
       </c>
@@ -2361,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D164">
         <v>15</v>
       </c>
@@ -2372,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D165">
         <v>16</v>
       </c>
@@ -2383,7 +2413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D166">
         <v>17</v>
       </c>
@@ -2394,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D167">
         <v>18</v>
       </c>
@@ -2405,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D168">
         <v>19</v>
       </c>
@@ -2416,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C170">
         <v>8</v>
       </c>
@@ -2425,8 +2455,11 @@
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D171">
         <v>1</v>
       </c>
@@ -2437,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D172">
         <v>2</v>
       </c>
@@ -2448,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D173">
         <v>3</v>
       </c>
@@ -2459,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D174">
         <v>4</v>
       </c>
@@ -2470,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D175">
         <v>5</v>
       </c>
@@ -2481,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D176">
         <v>6</v>
       </c>
@@ -2492,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D177">
         <v>7</v>
       </c>
@@ -2503,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D178">
         <v>8</v>
       </c>
@@ -2514,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D179">
         <v>9</v>
       </c>
@@ -2525,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D180">
         <v>10</v>
       </c>
@@ -2536,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D181">
         <v>11</v>
       </c>
@@ -2547,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D182">
         <v>12</v>
       </c>
@@ -2558,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D183">
         <v>13</v>
       </c>
@@ -2569,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D184">
         <v>14</v>
       </c>
@@ -2580,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D185">
         <v>15</v>
       </c>
@@ -2591,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D186">
         <v>16</v>
       </c>
@@ -2602,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D187">
         <v>17</v>
       </c>
@@ -2613,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D188">
         <v>18</v>
       </c>
@@ -2624,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D189">
         <v>19</v>
       </c>
@@ -2635,106 +2668,324 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C191">
         <v>9</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D193">
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="192" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D192" s="2">
+        <v>1</v>
+      </c>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D193" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D194">
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D194" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D195">
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D195" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D196">
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D196" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D197">
         <v>6</v>
       </c>
-    </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>43</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D198">
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>79</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D199">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>62</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D200">
         <v>9</v>
       </c>
-    </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>80</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D201">
         <v>10</v>
       </c>
-    </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>100</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D202">
         <v>11</v>
       </c>
-    </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>43</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D203">
         <v>12</v>
       </c>
-    </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>101</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D204">
         <v>13</v>
       </c>
-    </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>102</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D205">
         <v>14</v>
       </c>
-    </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>103</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D206">
         <v>15</v>
       </c>
-    </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>43</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D207">
         <v>16</v>
       </c>
-    </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>105</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D208">
         <v>17</v>
       </c>
-    </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>62</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D209">
         <v>18</v>
       </c>
-    </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>43</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D210">
+        <v>19</v>
+      </c>
+      <c r="E210" t="s">
+        <v>106</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>10</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0</v>
+      </c>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D213" s="2">
+        <v>1</v>
+      </c>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D214" s="2">
+        <v>2</v>
+      </c>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D215" s="2">
+        <v>3</v>
+      </c>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+    </row>
+    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D216" s="2">
+        <v>4</v>
+      </c>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+    </row>
+    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D217" s="2">
+        <v>5</v>
+      </c>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+    </row>
+    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D218" s="2">
+        <v>6</v>
+      </c>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+    </row>
+    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D219" s="2">
+        <v>7</v>
+      </c>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED54CD9-E71A-4983-9C08-1B2354DBBA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14AC816-64AC-43EE-AF39-EB61017FF31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="132">
   <si>
     <t>word</t>
   </si>
@@ -362,6 +362,75 @@
   </si>
   <si>
     <t>______ ______ ______ ______ ______ ______ the chief of police makes the ultimate decision about the conclusion of the process</t>
+  </si>
+  <si>
+    <t>[b'learn']</t>
+  </si>
+  <si>
+    <t>[b'more']</t>
+  </si>
+  <si>
+    <t>[b'please']</t>
+  </si>
+  <si>
+    <t>[b'visit']</t>
+  </si>
+  <si>
+    <t>[b'website']</t>
+  </si>
+  <si>
+    <t>[b'there']</t>
+  </si>
+  <si>
+    <t>[b'however']</t>
+  </si>
+  <si>
+    <t>[b'individual']</t>
+  </si>
+  <si>
+    <t>[b'receive']</t>
+  </si>
+  <si>
+    <t>[b'specific']</t>
+  </si>
+  <si>
+    <t>[b'outcome']</t>
+  </si>
+  <si>
+    <t>[b'if']</t>
+  </si>
+  <si>
+    <t>[b'but']</t>
+  </si>
+  <si>
+    <t>[b'people']</t>
+  </si>
+  <si>
+    <t>[b'around']</t>
+  </si>
+  <si>
+    <t>[b'world']</t>
+  </si>
+  <si>
+    <t>[b'think']</t>
+  </si>
+  <si>
+    <t>[b'great']</t>
+  </si>
+  <si>
+    <t>[b'moment']</t>
+  </si>
+  <si>
+    <t>[b'history']</t>
+  </si>
+  <si>
+    <t>[b'this']</t>
+  </si>
+  <si>
+    <t>[b'planet']</t>
+  </si>
+  <si>
+    <t>[b'basically']</t>
   </si>
 </sst>
 </file>
@@ -708,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K231"/>
+  <dimension ref="A1:K294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="G199" sqref="G199"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="G286" sqref="G286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2930,62 +2999,675 @@
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D220">
+      <c r="D220" s="2">
         <v>8</v>
       </c>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
     </row>
     <row r="221" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D221">
+      <c r="D221" s="2">
         <v>9</v>
       </c>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
     </row>
     <row r="222" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D222">
+      <c r="D222" s="2">
         <v>10</v>
       </c>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
     </row>
     <row r="223" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D223">
         <v>11</v>
       </c>
+      <c r="E223" t="s">
+        <v>40</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D224">
         <v>12</v>
       </c>
-    </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>109</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D225">
         <v>13</v>
       </c>
-    </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>110</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D226">
         <v>14</v>
       </c>
-    </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>111</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D227">
         <v>15</v>
       </c>
-    </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>112</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D228">
         <v>16</v>
       </c>
-    </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>10</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D229">
         <v>17</v>
       </c>
-    </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>113</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D230">
         <v>18</v>
       </c>
-    </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>90</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D231">
+        <v>19</v>
+      </c>
+      <c r="E231" t="s">
+        <v>114</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <v>11</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233" t="s">
+        <v>43</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>105</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="E235" t="s">
+        <v>62</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>3</v>
+      </c>
+      <c r="E236" t="s">
+        <v>43</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>4</v>
+      </c>
+      <c r="E237" t="s">
+        <v>106</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>5</v>
+      </c>
+      <c r="E238" t="s">
+        <v>115</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>6</v>
+      </c>
+      <c r="E239" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>7</v>
+      </c>
+      <c r="E240" t="s">
+        <v>116</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D241" s="2">
+        <v>8</v>
+      </c>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>9</v>
+      </c>
+      <c r="E242" t="s">
+        <v>117</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>10</v>
+      </c>
+      <c r="E243" t="s">
+        <v>43</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>11</v>
+      </c>
+      <c r="E244" t="s">
+        <v>118</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>12</v>
+      </c>
+      <c r="E245" t="s">
+        <v>98</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <v>13</v>
+      </c>
+      <c r="E246" t="s">
+        <v>119</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>14</v>
+      </c>
+      <c r="E247" t="s">
+        <v>120</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <v>15</v>
+      </c>
+      <c r="E248" t="s">
+        <v>97</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>16</v>
+      </c>
+      <c r="E249" t="s">
+        <v>62</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>17</v>
+      </c>
+      <c r="E250" t="s">
+        <v>43</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>18</v>
+      </c>
+      <c r="E251" t="s">
+        <v>86</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>19</v>
+      </c>
+      <c r="E252" t="s">
+        <v>40</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <v>12</v>
+      </c>
+      <c r="D254" s="2">
+        <v>0</v>
+      </c>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+    </row>
+    <row r="255" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
+        <v>52</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256" t="s">
+        <v>121</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <v>3</v>
+      </c>
+      <c r="E257" t="s">
+        <v>122</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <v>4</v>
+      </c>
+      <c r="E258" t="s">
+        <v>123</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <v>5</v>
+      </c>
+      <c r="E259" t="s">
+        <v>43</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <v>6</v>
+      </c>
+      <c r="E260" t="s">
+        <v>124</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <v>7</v>
+      </c>
+      <c r="E261" t="s">
+        <v>34</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <v>8</v>
+      </c>
+      <c r="E262" t="s">
+        <v>125</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D263" s="2">
+        <v>9</v>
+      </c>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <v>10</v>
+      </c>
+      <c r="E264" t="s">
+        <v>68</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <v>11</v>
+      </c>
+      <c r="E265" t="s">
+        <v>126</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <v>12</v>
+      </c>
+      <c r="E266" t="s">
+        <v>127</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <v>13</v>
+      </c>
+      <c r="E267" t="s">
+        <v>12</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D268">
+        <v>14</v>
+      </c>
+      <c r="E268" t="s">
+        <v>43</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D269">
+        <v>15</v>
+      </c>
+      <c r="E269" t="s">
+        <v>128</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <v>16</v>
+      </c>
+      <c r="E270" t="s">
+        <v>62</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <v>17</v>
+      </c>
+      <c r="E271" t="s">
+        <v>129</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D272">
+        <v>18</v>
+      </c>
+      <c r="E272" t="s">
+        <v>130</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D273">
+        <v>19</v>
+      </c>
+      <c r="E273" t="s">
+        <v>131</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <v>13</v>
+      </c>
+      <c r="D275" s="2">
+        <v>0</v>
+      </c>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+    </row>
+    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D276" s="2">
+        <v>1</v>
+      </c>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D277" s="2">
+        <v>2</v>
+      </c>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D278" s="2">
+        <v>3</v>
+      </c>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+    </row>
+    <row r="279" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D279" s="2">
+        <v>4</v>
+      </c>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+    </row>
+    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D280" s="2">
+        <v>5</v>
+      </c>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+    </row>
+    <row r="281" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D281" s="2">
+        <v>6</v>
+      </c>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+    </row>
+    <row r="282" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D282" s="2">
+        <v>7</v>
+      </c>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+    </row>
+    <row r="283" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D286">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D287">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D288">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D289">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D290">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D291">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D292">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D293">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D294">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14AC816-64AC-43EE-AF39-EB61017FF31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346975B6-8ECE-4FFB-8D5B-939259B4371A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="147">
   <si>
     <t>word</t>
   </si>
@@ -431,6 +431,51 @@
   </si>
   <si>
     <t>[b'basically']</t>
+  </si>
+  <si>
+    <t>[b'complete']</t>
+  </si>
+  <si>
+    <t>[b'article']</t>
+  </si>
+  <si>
+    <t>[b'go']</t>
+  </si>
+  <si>
+    <t>[b'fame']</t>
+  </si>
+  <si>
+    <t>[b'demonstrating']</t>
+  </si>
+  <si>
+    <t>[b'continued']</t>
+  </si>
+  <si>
+    <t>[b'commitment']</t>
+  </si>
+  <si>
+    <t>[b'advancement']</t>
+  </si>
+  <si>
+    <t>[b'showcasing']</t>
+  </si>
+  <si>
+    <t>[b'its']</t>
+  </si>
+  <si>
+    <t>[b'programs']</t>
+  </si>
+  <si>
+    <t>[b'policies']</t>
+  </si>
+  <si>
+    <t>[b'benefit']</t>
+  </si>
+  <si>
+    <t>[b'working']</t>
+  </si>
+  <si>
+    <t>[b'parents']</t>
   </si>
 </sst>
 </file>
@@ -777,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K294"/>
+  <dimension ref="A1:K336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="G286" sqref="G286"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="D317" sqref="D317:F317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3612,62 +3657,434 @@
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D283">
+      <c r="D283" s="2">
         <v>8</v>
       </c>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
     </row>
     <row r="284" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D284">
+      <c r="D284" s="2">
         <v>9</v>
       </c>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
     </row>
     <row r="285" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D285">
+      <c r="D285" s="2">
         <v>10</v>
       </c>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
     </row>
     <row r="286" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D286">
+      <c r="D286" s="2">
         <v>11</v>
       </c>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
     </row>
     <row r="287" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D287">
+      <c r="D287" s="2">
         <v>12</v>
       </c>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
     </row>
     <row r="288" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D288">
         <v>13</v>
       </c>
-    </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>35</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D289">
         <v>14</v>
       </c>
-    </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>43</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D290">
         <v>15</v>
       </c>
-    </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>132</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D291">
         <v>16</v>
       </c>
-    </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
+        <v>133</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D292">
         <v>17</v>
       </c>
-    </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>111</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D293">
         <v>18</v>
       </c>
-    </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>134</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D294">
+        <v>19</v>
+      </c>
+      <c r="E294" t="s">
+        <v>40</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C296">
+        <v>14</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296" t="s">
+        <v>62</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297" t="s">
+        <v>135</v>
+      </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D298">
+        <v>2</v>
+      </c>
+      <c r="E298" t="s">
+        <v>136</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D299">
+        <v>3</v>
+      </c>
+      <c r="E299" t="s">
+        <v>43</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D300" s="2">
+        <v>4</v>
+      </c>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+    </row>
+    <row r="301" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D301">
+        <v>5</v>
+      </c>
+      <c r="E301" t="s">
+        <v>137</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D302">
+        <v>6</v>
+      </c>
+      <c r="E302" t="s">
+        <v>138</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D303">
+        <v>7</v>
+      </c>
+      <c r="E303" t="s">
+        <v>40</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D304" s="2">
+        <v>8</v>
+      </c>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+    </row>
+    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D305">
+        <v>9</v>
+      </c>
+      <c r="E305" t="s">
+        <v>139</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <v>10</v>
+      </c>
+      <c r="E306" t="s">
+        <v>34</v>
+      </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D307">
+        <v>11</v>
+      </c>
+      <c r="E307" t="s">
+        <v>140</v>
+      </c>
+      <c r="F307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D308">
+        <v>12</v>
+      </c>
+      <c r="E308" t="s">
+        <v>141</v>
+      </c>
+      <c r="F308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D309">
+        <v>13</v>
+      </c>
+      <c r="E309" t="s">
+        <v>142</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D310">
+        <v>14</v>
+      </c>
+      <c r="E310" t="s">
+        <v>34</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D311">
+        <v>15</v>
+      </c>
+      <c r="E311" t="s">
+        <v>143</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D312">
+        <v>16</v>
+      </c>
+      <c r="E312" t="s">
+        <v>8</v>
+      </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D313">
+        <v>17</v>
+      </c>
+      <c r="E313" t="s">
+        <v>144</v>
+      </c>
+      <c r="F313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D314">
+        <v>18</v>
+      </c>
+      <c r="E314" t="s">
+        <v>145</v>
+      </c>
+      <c r="F314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D315">
+        <v>19</v>
+      </c>
+      <c r="E315" t="s">
+        <v>146</v>
+      </c>
+      <c r="F315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C317">
+        <v>15</v>
+      </c>
+      <c r="D317" s="2">
+        <v>0</v>
+      </c>
+      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
+    </row>
+    <row r="318" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D324">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D325">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D326">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D327">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D328">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D329">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D330">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D331">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D332">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D333">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D334">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D335">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D336">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346975B6-8ECE-4FFB-8D5B-939259B4371A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093198DA-CBD4-4A92-A7C3-7E67E84620C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="171">
   <si>
     <t>word</t>
   </si>
@@ -476,6 +476,78 @@
   </si>
   <si>
     <t>[b'parents']</t>
+  </si>
+  <si>
+    <t>[b'i']</t>
+  </si>
+  <si>
+    <t>[b'love']</t>
+  </si>
+  <si>
+    <t>[b'writing']</t>
+  </si>
+  <si>
+    <t>[b'let']</t>
+  </si>
+  <si>
+    <t>[b'me']</t>
+  </si>
+  <si>
+    <t>[b'an']</t>
+  </si>
+  <si>
+    <t>[b'opportunity']</t>
+  </si>
+  <si>
+    <t>[b'move']</t>
+  </si>
+  <si>
+    <t>[b'new']</t>
+  </si>
+  <si>
+    <t>[b'york']</t>
+  </si>
+  <si>
+    <t>[b'also']</t>
+  </si>
+  <si>
+    <t>[b'did']</t>
+  </si>
+  <si>
+    <t>[b'supplemental']</t>
+  </si>
+  <si>
+    <t>[b'magazines']</t>
+  </si>
+  <si>
+    <t>[b'now']</t>
+  </si>
+  <si>
+    <t>[b'on']</t>
+  </si>
+  <si>
+    <t>[b'doing']</t>
+  </si>
+  <si>
+    <t>[b'innovative']</t>
+  </si>
+  <si>
+    <t>[b'library']</t>
+  </si>
+  <si>
+    <t>[b'books']</t>
+  </si>
+  <si>
+    <t>[b'online']</t>
+  </si>
+  <si>
+    <t>[b'products']</t>
+  </si>
+  <si>
+    <t>[b'librarians']</t>
+  </si>
+  <si>
+    <t>[b'scholastic']</t>
   </si>
 </sst>
 </file>
@@ -822,22 +894,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K336"/>
+  <dimension ref="A1:K378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="D317" sqref="D317:F317"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="E359" sqref="E359"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="145" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3994,97 +4060,517 @@
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D318">
-        <v>1</v>
-      </c>
+      <c r="D318" s="2">
+        <v>1</v>
+      </c>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
     </row>
     <row r="319" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D319">
         <v>2</v>
       </c>
+      <c r="E319" t="s">
+        <v>147</v>
+      </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
     </row>
     <row r="320" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D320">
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D321">
+      <c r="E320" t="s">
+        <v>148</v>
+      </c>
+      <c r="F320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D321" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
+    </row>
+    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D322">
         <v>5</v>
       </c>
-    </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E322" t="s">
+        <v>149</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D323">
         <v>6</v>
       </c>
-    </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E323" t="s">
+        <v>34</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D324">
         <v>7</v>
       </c>
-    </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D325">
+      <c r="E324" t="s">
+        <v>120</v>
+      </c>
+      <c r="F324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D325" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
+    </row>
+    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D326">
         <v>9</v>
       </c>
-    </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E326" t="s">
+        <v>150</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D327">
         <v>10</v>
       </c>
-    </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D328">
+      <c r="E327" t="s">
+        <v>151</v>
+      </c>
+      <c r="F327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D328" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
+    </row>
+    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D329">
         <v>12</v>
       </c>
-    </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>54</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D330">
         <v>13</v>
       </c>
-    </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E330" t="s">
+        <v>152</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D331">
         <v>14</v>
       </c>
-    </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E331" t="s">
+        <v>153</v>
+      </c>
+      <c r="F331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D332">
         <v>15</v>
       </c>
-    </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E332" t="s">
+        <v>40</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D333">
         <v>16</v>
       </c>
-    </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E333" t="s">
+        <v>154</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D334">
         <v>17</v>
       </c>
-    </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E334" t="s">
+        <v>40</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D335">
         <v>18</v>
       </c>
-    </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E335" t="s">
+        <v>155</v>
+      </c>
+      <c r="F335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D336">
+        <v>19</v>
+      </c>
+      <c r="E336" t="s">
+        <v>156</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C338">
+        <v>16</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338" t="s">
+        <v>157</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="E339" t="s">
+        <v>158</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D340">
+        <v>2</v>
+      </c>
+      <c r="E340" t="s">
+        <v>159</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D341">
+        <v>3</v>
+      </c>
+      <c r="E341" t="s">
+        <v>160</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D342">
+        <v>4</v>
+      </c>
+      <c r="E342" t="s">
+        <v>34</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D343">
+        <v>5</v>
+      </c>
+      <c r="E343" t="s">
+        <v>161</v>
+      </c>
+      <c r="F343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D344" s="2">
+        <v>6</v>
+      </c>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
+    </row>
+    <row r="345" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D345">
+        <v>7</v>
+      </c>
+      <c r="E345" t="s">
+        <v>145</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D346">
+        <v>8</v>
+      </c>
+      <c r="E346" t="s">
+        <v>162</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D347">
+        <v>9</v>
+      </c>
+      <c r="E347" t="s">
+        <v>163</v>
+      </c>
+      <c r="F347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D348">
+        <v>10</v>
+      </c>
+      <c r="E348" t="s">
+        <v>164</v>
+      </c>
+      <c r="F348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D349">
+        <v>11</v>
+      </c>
+      <c r="E349" t="s">
+        <v>165</v>
+      </c>
+      <c r="F349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D350">
+        <v>12</v>
+      </c>
+      <c r="E350" t="s">
+        <v>166</v>
+      </c>
+      <c r="F350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D351">
+        <v>13</v>
+      </c>
+      <c r="E351" t="s">
+        <v>34</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D352">
+        <v>14</v>
+      </c>
+      <c r="E352" t="s">
+        <v>167</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D353">
+        <v>15</v>
+      </c>
+      <c r="E353" t="s">
+        <v>168</v>
+      </c>
+      <c r="F353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D354">
+        <v>16</v>
+      </c>
+      <c r="E354" t="s">
+        <v>35</v>
+      </c>
+      <c r="F354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D355">
+        <v>17</v>
+      </c>
+      <c r="E355" t="s">
+        <v>169</v>
+      </c>
+      <c r="F355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D356">
+        <v>18</v>
+      </c>
+      <c r="E356" t="s">
+        <v>90</v>
+      </c>
+      <c r="F356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D357">
+        <v>19</v>
+      </c>
+      <c r="E357" t="s">
+        <v>170</v>
+      </c>
+      <c r="F357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C359">
+        <v>17</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D363">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D364">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D365">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D366">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D367">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D368">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D369">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D370">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D371">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D372">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D373">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D374">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D375">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D376">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D377">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D378">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093198DA-CBD4-4A92-A7C3-7E67E84620C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DD7517-D19F-4422-9826-0253ECE0D03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="207">
   <si>
     <t>word</t>
   </si>
@@ -548,6 +548,114 @@
   </si>
   <si>
     <t>[b'scholastic']</t>
+  </si>
+  <si>
+    <t>[b'another']</t>
+  </si>
+  <si>
+    <t>[b'friend']</t>
+  </si>
+  <si>
+    <t>[b'mine']</t>
+  </si>
+  <si>
+    <t>[b'from']</t>
+  </si>
+  <si>
+    <t>[b'workshop']</t>
+  </si>
+  <si>
+    <t>[b'columbia']</t>
+  </si>
+  <si>
+    <t>[b'recommended']</t>
+  </si>
+  <si>
+    <t>[b'job']</t>
+  </si>
+  <si>
+    <t>[b'into']</t>
+  </si>
+  <si>
+    <t>[b'taking']</t>
+  </si>
+  <si>
+    <t>[b'extraordinary']</t>
+  </si>
+  <si>
+    <t>[b'with']</t>
+  </si>
+  <si>
+    <t>[b'teacher']</t>
+  </si>
+  <si>
+    <t>[b'editor']</t>
+  </si>
+  <si>
+    <t>[b'well']</t>
+  </si>
+  <si>
+    <t>[b'known']</t>
+  </si>
+  <si>
+    <t>[b'professor']</t>
+  </si>
+  <si>
+    <t>[b'named']</t>
+  </si>
+  <si>
+    <t>[b'gordon']</t>
+  </si>
+  <si>
+    <t>[b'lish']</t>
+  </si>
+  <si>
+    <t>[b'golden']</t>
+  </si>
+  <si>
+    <t>[b'would']</t>
+  </si>
+  <si>
+    <t>[b'like']</t>
+  </si>
+  <si>
+    <t>[b'time']</t>
+  </si>
+  <si>
+    <t>[b'assistant']</t>
+  </si>
+  <si>
+    <t>[b'following']</t>
+  </si>
+  <si>
+    <t>[b'took']</t>
+  </si>
+  <si>
+    <t>[b'had']</t>
+  </si>
+  <si>
+    <t>[b'most']</t>
+  </si>
+  <si>
+    <t>[b'glorious']</t>
+  </si>
+  <si>
+    <t>[b'experience']</t>
+  </si>
+  <si>
+    <t>[b'my']</t>
+  </si>
+  <si>
+    <t>[b'life']</t>
+  </si>
+  <si>
+    <t>[b'which']</t>
+  </si>
+  <si>
+    <t>[b'have']</t>
+  </si>
+  <si>
+    <t>[b'daughter']</t>
   </si>
 </sst>
 </file>
@@ -894,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K378"/>
+  <dimension ref="A1:K462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="E359" sqref="E359"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="E448" sqref="E448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4475,102 +4583,986 @@
       <c r="C359">
         <v>17</v>
       </c>
-      <c r="D359">
+      <c r="D359" s="2">
         <v>0</v>
       </c>
+      <c r="E359" s="2"/>
+      <c r="F359" s="2"/>
     </row>
     <row r="360" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D360">
-        <v>1</v>
-      </c>
+      <c r="D360" s="2">
+        <v>1</v>
+      </c>
+      <c r="E360" s="2"/>
+      <c r="F360" s="2"/>
     </row>
     <row r="361" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D361">
         <v>2</v>
       </c>
+      <c r="E361" t="s">
+        <v>34</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
     </row>
     <row r="362" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D362">
         <v>3</v>
       </c>
+      <c r="E362" t="s">
+        <v>76</v>
+      </c>
+      <c r="F362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D363">
         <v>4</v>
       </c>
+      <c r="E363" t="s">
+        <v>171</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
     </row>
     <row r="364" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D364">
         <v>5</v>
       </c>
+      <c r="E364" t="s">
+        <v>172</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
     </row>
     <row r="365" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D365">
         <v>6</v>
       </c>
+      <c r="E365" t="s">
+        <v>62</v>
+      </c>
+      <c r="F365">
+        <v>1</v>
+      </c>
     </row>
     <row r="366" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D366">
         <v>7</v>
       </c>
+      <c r="E366" t="s">
+        <v>173</v>
+      </c>
+      <c r="F366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D367">
         <v>8</v>
       </c>
+      <c r="E367" t="s">
+        <v>174</v>
+      </c>
+      <c r="F367">
+        <v>1</v>
+      </c>
     </row>
     <row r="368" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D368">
         <v>9</v>
       </c>
-    </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E368" t="s">
+        <v>43</v>
+      </c>
+      <c r="F368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D369">
         <v>10</v>
       </c>
-    </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E369" t="s">
+        <v>175</v>
+      </c>
+      <c r="F369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D370">
         <v>11</v>
       </c>
-    </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E370" t="s">
+        <v>90</v>
+      </c>
+      <c r="F370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D371">
         <v>12</v>
       </c>
-    </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E371" t="s">
+        <v>176</v>
+      </c>
+      <c r="F371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D372">
         <v>13</v>
       </c>
-    </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E372" t="s">
+        <v>177</v>
+      </c>
+      <c r="F372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D373">
         <v>14</v>
       </c>
-    </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E373" t="s">
+        <v>151</v>
+      </c>
+      <c r="F373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D374">
         <v>15</v>
       </c>
-    </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E374" t="s">
+        <v>35</v>
+      </c>
+      <c r="F374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D375">
         <v>16</v>
       </c>
-    </row>
-    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E375" t="s">
+        <v>43</v>
+      </c>
+      <c r="F375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D376">
         <v>17</v>
       </c>
-    </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E376" t="s">
+        <v>178</v>
+      </c>
+      <c r="F376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D377">
         <v>18</v>
       </c>
-    </row>
-    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E377" t="s">
+        <v>90</v>
+      </c>
+      <c r="F377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D378">
+        <v>19</v>
+      </c>
+      <c r="E378" t="s">
+        <v>170</v>
+      </c>
+      <c r="F378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C380" s="4">
+        <v>18</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380" t="s">
+        <v>179</v>
+      </c>
+      <c r="F380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381" t="s">
+        <v>149</v>
+      </c>
+      <c r="F381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D382">
+        <v>2</v>
+      </c>
+      <c r="E382" t="s">
+        <v>23</v>
+      </c>
+      <c r="F382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D383">
+        <v>3</v>
+      </c>
+      <c r="E383" t="s">
+        <v>180</v>
+      </c>
+      <c r="F383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D384">
+        <v>4</v>
+      </c>
+      <c r="E384" t="s">
+        <v>129</v>
+      </c>
+      <c r="F384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D385">
+        <v>5</v>
+      </c>
+      <c r="E385" t="s">
+        <v>181</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D386">
+        <v>6</v>
+      </c>
+      <c r="E386" t="s">
+        <v>175</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D387">
+        <v>7</v>
+      </c>
+      <c r="E387" t="s">
+        <v>182</v>
+      </c>
+      <c r="F387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D388">
+        <v>8</v>
+      </c>
+      <c r="E388" t="s">
+        <v>68</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D389">
+        <v>9</v>
+      </c>
+      <c r="E389" t="s">
+        <v>183</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D390">
+        <v>10</v>
+      </c>
+      <c r="E390" t="s">
+        <v>184</v>
+      </c>
+      <c r="F390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D391">
+        <v>11</v>
+      </c>
+      <c r="E391" t="s">
+        <v>34</v>
+      </c>
+      <c r="F391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D392">
+        <v>12</v>
+      </c>
+      <c r="E392" t="s">
+        <v>185</v>
+      </c>
+      <c r="F392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D393">
+        <v>13</v>
+      </c>
+      <c r="E393" t="s">
+        <v>186</v>
+      </c>
+      <c r="F393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D394">
+        <v>14</v>
+      </c>
+      <c r="E394" t="s">
+        <v>187</v>
+      </c>
+      <c r="F394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D395">
+        <v>15</v>
+      </c>
+      <c r="E395" t="s">
+        <v>90</v>
+      </c>
+      <c r="F395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D396">
+        <v>16</v>
+      </c>
+      <c r="E396" t="s">
+        <v>176</v>
+      </c>
+      <c r="F396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D397">
+        <v>17</v>
+      </c>
+      <c r="E397" t="s">
+        <v>188</v>
+      </c>
+      <c r="F397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D398">
+        <v>18</v>
+      </c>
+      <c r="E398" t="s">
+        <v>189</v>
+      </c>
+      <c r="F398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D399">
+        <v>19</v>
+      </c>
+      <c r="E399" t="s">
+        <v>190</v>
+      </c>
+      <c r="F399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C401" s="4">
+        <v>19</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+      <c r="E401" t="s">
+        <v>58</v>
+      </c>
+      <c r="F401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402" t="s">
+        <v>152</v>
+      </c>
+      <c r="F402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403" t="s">
+        <v>153</v>
+      </c>
+      <c r="F403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D404">
+        <v>3</v>
+      </c>
+      <c r="E404" t="s">
+        <v>90</v>
+      </c>
+      <c r="F404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D405">
+        <v>4</v>
+      </c>
+      <c r="E405" t="s">
+        <v>191</v>
+      </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D406">
+        <v>5</v>
+      </c>
+      <c r="E406" t="s">
+        <v>166</v>
+      </c>
+      <c r="F406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D407">
+        <v>6</v>
+      </c>
+      <c r="E407" t="s">
+        <v>34</v>
+      </c>
+      <c r="F407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D408">
+        <v>7</v>
+      </c>
+      <c r="E408" t="s">
+        <v>192</v>
+      </c>
+      <c r="F408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D409">
+        <v>8</v>
+      </c>
+      <c r="E409" t="s">
+        <v>147</v>
+      </c>
+      <c r="F409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D410">
+        <v>9</v>
+      </c>
+      <c r="E410" t="s">
+        <v>193</v>
+      </c>
+      <c r="F410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D411">
+        <v>10</v>
+      </c>
+      <c r="E411" t="s">
+        <v>40</v>
+      </c>
+      <c r="F411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D412">
+        <v>11</v>
+      </c>
+      <c r="E412" t="s">
+        <v>134</v>
+      </c>
+      <c r="F412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D413">
+        <v>12</v>
+      </c>
+      <c r="E413" t="s">
+        <v>114</v>
+      </c>
+      <c r="F413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D414">
+        <v>13</v>
+      </c>
+      <c r="E414" t="s">
+        <v>34</v>
+      </c>
+      <c r="F414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D415">
+        <v>14</v>
+      </c>
+      <c r="E415" t="s">
+        <v>54</v>
+      </c>
+      <c r="F415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D416">
+        <v>15</v>
+      </c>
+      <c r="E416" t="s">
+        <v>68</v>
+      </c>
+      <c r="F416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D417">
+        <v>16</v>
+      </c>
+      <c r="E417" t="s">
+        <v>61</v>
+      </c>
+      <c r="F417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D418">
+        <v>17</v>
+      </c>
+      <c r="E418" t="s">
+        <v>194</v>
+      </c>
+      <c r="F418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D419">
+        <v>18</v>
+      </c>
+      <c r="E419" t="s">
+        <v>195</v>
+      </c>
+      <c r="F419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D420">
+        <v>19</v>
+      </c>
+      <c r="E420" t="s">
+        <v>184</v>
+      </c>
+      <c r="F420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C422" s="4">
+        <v>20</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+      <c r="E422" t="s">
+        <v>196</v>
+      </c>
+      <c r="F422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423" t="s">
+        <v>8</v>
+      </c>
+      <c r="F423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D424">
+        <v>2</v>
+      </c>
+      <c r="E424" t="s">
+        <v>147</v>
+      </c>
+      <c r="F424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D425">
+        <v>3</v>
+      </c>
+      <c r="E425" t="s">
+        <v>197</v>
+      </c>
+      <c r="F425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D426">
+        <v>4</v>
+      </c>
+      <c r="E426" t="s">
+        <v>194</v>
+      </c>
+      <c r="F426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D427">
+        <v>5</v>
+      </c>
+      <c r="E427" t="s">
+        <v>34</v>
+      </c>
+      <c r="F427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D428">
+        <v>6</v>
+      </c>
+      <c r="E428" t="s">
+        <v>198</v>
+      </c>
+      <c r="F428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D429">
+        <v>7</v>
+      </c>
+      <c r="E429" t="s">
+        <v>43</v>
+      </c>
+      <c r="F429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D430">
+        <v>8</v>
+      </c>
+      <c r="E430" t="s">
+        <v>199</v>
+      </c>
+      <c r="F430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D431">
+        <v>9</v>
+      </c>
+      <c r="E431" t="s">
+        <v>200</v>
+      </c>
+      <c r="F431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D432">
+        <v>10</v>
+      </c>
+      <c r="E432" t="s">
+        <v>201</v>
+      </c>
+      <c r="F432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D433">
+        <v>11</v>
+      </c>
+      <c r="E433" t="s">
+        <v>62</v>
+      </c>
+      <c r="F433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D434">
+        <v>12</v>
+      </c>
+      <c r="E434" t="s">
+        <v>202</v>
+      </c>
+      <c r="F434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D435">
+        <v>13</v>
+      </c>
+      <c r="E435" t="s">
+        <v>203</v>
+      </c>
+      <c r="F435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D436">
+        <v>14</v>
+      </c>
+      <c r="E436" t="s">
+        <v>204</v>
+      </c>
+      <c r="F436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D437">
+        <v>15</v>
+      </c>
+      <c r="E437" t="s">
+        <v>58</v>
+      </c>
+      <c r="F437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D438">
+        <v>16</v>
+      </c>
+      <c r="E438" t="s">
+        <v>40</v>
+      </c>
+      <c r="F438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D439">
+        <v>17</v>
+      </c>
+      <c r="E439" t="s">
+        <v>205</v>
+      </c>
+      <c r="F439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D440">
+        <v>18</v>
+      </c>
+      <c r="E440" t="s">
+        <v>10</v>
+      </c>
+      <c r="F440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D441">
+        <v>19</v>
+      </c>
+      <c r="E441" t="s">
+        <v>206</v>
+      </c>
+      <c r="F441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C443">
+        <v>21</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D448">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D449">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D450">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D451">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D452">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D453">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D454">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D455">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D456">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D457">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D458">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D459">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D460">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D461">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D462">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DD7517-D19F-4422-9826-0253ECE0D03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4231D8A-44DC-450E-A6DA-BB4A22FBC9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="226">
   <si>
     <t>word</t>
   </si>
@@ -656,6 +656,63 @@
   </si>
   <si>
     <t>[b'daughter']</t>
+  </si>
+  <si>
+    <t>[b'wrote']</t>
+  </si>
+  <si>
+    <t>[b'licensed']</t>
+  </si>
+  <si>
+    <t>[b'characters']</t>
+  </si>
+  <si>
+    <t>[b'chip']</t>
+  </si>
+  <si>
+    <t>[b'teacup']</t>
+  </si>
+  <si>
+    <t>[b'frosty']</t>
+  </si>
+  <si>
+    <t>[b'snowman']</t>
+  </si>
+  <si>
+    <t>[b'those']</t>
+  </si>
+  <si>
+    <t>[b'types']</t>
+  </si>
+  <si>
+    <t>[b'jim']</t>
+  </si>
+  <si>
+    <t>[b'henson']</t>
+  </si>
+  <si>
+    <t>[b'workshops']</t>
+  </si>
+  <si>
+    <t>[b'worked']</t>
+  </si>
+  <si>
+    <t>[b'muppets']</t>
+  </si>
+  <si>
+    <t>[b'take']</t>
+  </si>
+  <si>
+    <t>[b'manhattan']</t>
+  </si>
+  <si>
+    <t>[b'one']</t>
+  </si>
+  <si>
+    <t>[b'background']</t>
+  </si>
+  <si>
+    <t>[b'puppeteers']</t>
   </si>
 </sst>
 </file>
@@ -1002,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K462"/>
+  <dimension ref="A1:K504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="E448" sqref="E448"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="E500" sqref="E500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5470,99 +5527,541 @@
       <c r="D443">
         <v>0</v>
       </c>
+      <c r="E443" t="s">
+        <v>207</v>
+      </c>
+      <c r="F443">
+        <v>1</v>
+      </c>
     </row>
     <row r="444" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D444">
-        <v>1</v>
-      </c>
+      <c r="D444" s="2">
+        <v>1</v>
+      </c>
+      <c r="E444" s="2"/>
+      <c r="F444" s="2"/>
     </row>
     <row r="445" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D445">
         <v>2</v>
       </c>
+      <c r="E445" t="s">
+        <v>166</v>
+      </c>
+      <c r="F445">
+        <v>1</v>
+      </c>
     </row>
     <row r="446" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D446">
         <v>3</v>
       </c>
+      <c r="E446" t="s">
+        <v>35</v>
+      </c>
+      <c r="F446">
+        <v>1</v>
+      </c>
     </row>
     <row r="447" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D447">
         <v>4</v>
       </c>
+      <c r="E447" t="s">
+        <v>46</v>
+      </c>
+      <c r="F447">
+        <v>1</v>
+      </c>
     </row>
     <row r="448" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D448">
         <v>5</v>
       </c>
-    </row>
-    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E448" t="s">
+        <v>208</v>
+      </c>
+      <c r="F448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D449">
         <v>6</v>
       </c>
-    </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E449" t="s">
+        <v>209</v>
+      </c>
+      <c r="F449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D450">
         <v>7</v>
       </c>
-    </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E450" t="s">
+        <v>193</v>
+      </c>
+      <c r="F450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D451">
         <v>8</v>
       </c>
-    </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E451" t="s">
+        <v>210</v>
+      </c>
+      <c r="F451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D452">
         <v>9</v>
       </c>
-    </row>
-    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E452" t="s">
+        <v>43</v>
+      </c>
+      <c r="F452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D453">
         <v>10</v>
       </c>
-    </row>
-    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E453" t="s">
+        <v>211</v>
+      </c>
+      <c r="F453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D454">
         <v>11</v>
       </c>
-    </row>
-    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E454" t="s">
+        <v>34</v>
+      </c>
+      <c r="F454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D455">
         <v>12</v>
       </c>
-    </row>
-    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E455" t="s">
+        <v>212</v>
+      </c>
+      <c r="F455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D456">
         <v>13</v>
       </c>
-    </row>
-    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E456" t="s">
+        <v>43</v>
+      </c>
+      <c r="F456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D457">
         <v>14</v>
       </c>
-    </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E457" t="s">
+        <v>213</v>
+      </c>
+      <c r="F457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D458">
         <v>15</v>
       </c>
-    </row>
-    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E458" t="s">
+        <v>34</v>
+      </c>
+      <c r="F458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D459">
         <v>16</v>
       </c>
-    </row>
-    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E459" t="s">
+        <v>214</v>
+      </c>
+      <c r="F459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D460">
         <v>17</v>
       </c>
-    </row>
-    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E460" t="s">
+        <v>215</v>
+      </c>
+      <c r="F460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D461">
         <v>18</v>
       </c>
-    </row>
-    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E461" t="s">
+        <v>62</v>
+      </c>
+      <c r="F461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D462">
+        <v>19</v>
+      </c>
+      <c r="E462" t="s">
+        <v>166</v>
+      </c>
+      <c r="F462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C464" s="4">
+        <v>22</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+      <c r="E464" t="s">
+        <v>216</v>
+      </c>
+      <c r="F464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465" t="s">
+        <v>217</v>
+      </c>
+      <c r="F465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D466">
+        <v>2</v>
+      </c>
+      <c r="E466" t="s">
+        <v>218</v>
+      </c>
+      <c r="F466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D467">
+        <v>3</v>
+      </c>
+      <c r="E467" t="s">
+        <v>34</v>
+      </c>
+      <c r="F467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D468">
+        <v>4</v>
+      </c>
+      <c r="E468" t="s">
+        <v>147</v>
+      </c>
+      <c r="F468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D469">
+        <v>5</v>
+      </c>
+      <c r="E469" t="s">
+        <v>219</v>
+      </c>
+      <c r="F469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D470">
+        <v>6</v>
+      </c>
+      <c r="E470" t="s">
+        <v>182</v>
+      </c>
+      <c r="F470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D471">
+        <v>7</v>
+      </c>
+      <c r="E471" t="s">
+        <v>43</v>
+      </c>
+      <c r="F471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D472">
+        <v>8</v>
+      </c>
+      <c r="E472" t="s">
+        <v>220</v>
+      </c>
+      <c r="F472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D473">
+        <v>9</v>
+      </c>
+      <c r="E473" t="s">
+        <v>162</v>
+      </c>
+      <c r="F473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D474">
+        <v>10</v>
+      </c>
+      <c r="E474" t="s">
+        <v>43</v>
+      </c>
+      <c r="F474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D475">
+        <v>11</v>
+      </c>
+      <c r="E475" t="s">
+        <v>220</v>
+      </c>
+      <c r="F475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D476">
+        <v>12</v>
+      </c>
+      <c r="E476" t="s">
+        <v>221</v>
+      </c>
+      <c r="F476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D477">
+        <v>13</v>
+      </c>
+      <c r="E477" t="s">
+        <v>222</v>
+      </c>
+      <c r="F477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D478">
+        <v>14</v>
+      </c>
+      <c r="E478" t="s">
+        <v>60</v>
+      </c>
+      <c r="F478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D479">
+        <v>15</v>
+      </c>
+      <c r="E479" t="s">
+        <v>223</v>
+      </c>
+      <c r="F479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D480">
+        <v>16</v>
+      </c>
+      <c r="E480" t="s">
+        <v>62</v>
+      </c>
+      <c r="F480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D481">
+        <v>17</v>
+      </c>
+      <c r="E481" t="s">
+        <v>43</v>
+      </c>
+      <c r="F481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D482">
+        <v>18</v>
+      </c>
+      <c r="E482" t="s">
+        <v>224</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D483">
+        <v>19</v>
+      </c>
+      <c r="E483" t="s">
+        <v>225</v>
+      </c>
+      <c r="F483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C485">
+        <v>23</v>
+      </c>
+      <c r="D485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D488">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D489">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D490">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D491">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="492" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D492">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D493">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="494" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D494">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="495" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D495">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="496" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D496">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D497">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D498">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D499">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D500">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D501">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D502">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D503">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D504">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4231D8A-44DC-450E-A6DA-BB4A22FBC9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596901FA-254E-4505-96F7-3F0A59572CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="251">
   <si>
     <t>word</t>
   </si>
@@ -713,6 +713,81 @@
   </si>
   <si>
     <t>[b'puppeteers']</t>
+  </si>
+  <si>
+    <t>[b'so']</t>
+  </si>
+  <si>
+    <t>[b'she']</t>
+  </si>
+  <si>
+    <t>[b'said']</t>
+  </si>
+  <si>
+    <t>[b'why']</t>
+  </si>
+  <si>
+    <t>[b'partner']</t>
+  </si>
+  <si>
+    <t>[b'theatre']</t>
+  </si>
+  <si>
+    <t>[b'department']</t>
+  </si>
+  <si>
+    <t>[b'stuff']</t>
+  </si>
+  <si>
+    <t>[b'own']</t>
+  </si>
+  <si>
+    <t>[b'expense']</t>
+  </si>
+  <si>
+    <t>[b'could']</t>
+  </si>
+  <si>
+    <t>[b'them']</t>
+  </si>
+  <si>
+    <t>[b'tour']</t>
+  </si>
+  <si>
+    <t>[b'schools']</t>
+  </si>
+  <si>
+    <t>[b"company's"]</t>
+  </si>
+  <si>
+    <t>[b'it']</t>
+  </si>
+  <si>
+    <t>[b'gave']</t>
+  </si>
+  <si>
+    <t>[b'confidence']</t>
+  </si>
+  <si>
+    <t>[b'write']</t>
+  </si>
+  <si>
+    <t>[b'puppeteer']</t>
+  </si>
+  <si>
+    <t>[b'companies']</t>
+  </si>
+  <si>
+    <t>[b'were']</t>
+  </si>
+  <si>
+    <t>[b'listed']</t>
+  </si>
+  <si>
+    <t>[b'yorker']</t>
+  </si>
+  <si>
+    <t>[b'magazine']</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K504"/>
+  <dimension ref="A1:K588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="E500" sqref="E500"/>
+    <sheetView tabSelected="1" topLeftCell="A555" workbookViewId="0">
+      <selection activeCell="D569" sqref="D569:D588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5966,102 +6041,958 @@
       <c r="C485">
         <v>23</v>
       </c>
-      <c r="D485">
+      <c r="D485" s="2">
         <v>0</v>
       </c>
+      <c r="E485" s="2"/>
+      <c r="F485" s="2"/>
     </row>
     <row r="486" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D486">
-        <v>1</v>
-      </c>
+      <c r="D486" s="2">
+        <v>1</v>
+      </c>
+      <c r="E486" s="2"/>
+      <c r="F486" s="2"/>
     </row>
     <row r="487" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D487">
+      <c r="D487" s="2">
         <v>2</v>
       </c>
+      <c r="E487" s="2"/>
+      <c r="F487" s="2"/>
     </row>
     <row r="488" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D488">
+      <c r="D488" s="2">
         <v>3</v>
       </c>
+      <c r="E488" s="2"/>
+      <c r="F488" s="2"/>
     </row>
     <row r="489" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D489">
+      <c r="D489" s="2">
         <v>4</v>
       </c>
+      <c r="E489" s="2"/>
+      <c r="F489" s="2"/>
     </row>
     <row r="490" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D490">
+      <c r="D490" s="2">
         <v>5</v>
       </c>
+      <c r="E490" s="2"/>
+      <c r="F490" s="2"/>
     </row>
     <row r="491" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D491">
+      <c r="D491" s="2">
         <v>6</v>
       </c>
+      <c r="E491" s="2"/>
+      <c r="F491" s="2"/>
     </row>
     <row r="492" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D492">
         <v>7</v>
       </c>
+      <c r="E492" t="s">
+        <v>226</v>
+      </c>
+      <c r="F492">
+        <v>1</v>
+      </c>
     </row>
     <row r="493" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D493">
         <v>8</v>
       </c>
+      <c r="E493" t="s">
+        <v>227</v>
+      </c>
+      <c r="F493">
+        <v>1</v>
+      </c>
     </row>
     <row r="494" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D494">
         <v>9</v>
       </c>
+      <c r="E494" t="s">
+        <v>228</v>
+      </c>
+      <c r="F494">
+        <v>1</v>
+      </c>
     </row>
     <row r="495" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D495">
         <v>10</v>
       </c>
+      <c r="E495" t="s">
+        <v>229</v>
+      </c>
+      <c r="F495">
+        <v>1</v>
+      </c>
     </row>
     <row r="496" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D496">
+      <c r="D496" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E496" s="2"/>
+      <c r="F496" s="2"/>
+    </row>
+    <row r="497" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D497">
         <v>12</v>
       </c>
-    </row>
-    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E497" t="s">
+        <v>36</v>
+      </c>
+      <c r="F497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D498">
         <v>13</v>
       </c>
-    </row>
-    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E498" t="s">
+        <v>230</v>
+      </c>
+      <c r="F498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D499">
         <v>14</v>
       </c>
-    </row>
-    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E499" t="s">
+        <v>182</v>
+      </c>
+      <c r="F499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D500">
         <v>15</v>
       </c>
-    </row>
-    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E500" t="s">
+        <v>122</v>
+      </c>
+      <c r="F500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D501">
         <v>16</v>
       </c>
-    </row>
-    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E501" t="s">
+        <v>12</v>
+      </c>
+      <c r="F501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D502">
         <v>17</v>
       </c>
-    </row>
-    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E502" t="s">
+        <v>43</v>
+      </c>
+      <c r="F502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D503">
         <v>18</v>
       </c>
-    </row>
-    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E503" t="s">
+        <v>231</v>
+      </c>
+      <c r="F503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D504">
+        <v>19</v>
+      </c>
+      <c r="E504" t="s">
+        <v>232</v>
+      </c>
+      <c r="F504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C506">
+        <v>24</v>
+      </c>
+      <c r="D506">
+        <v>0</v>
+      </c>
+      <c r="E506" t="s">
+        <v>157</v>
+      </c>
+      <c r="F506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D507">
+        <v>1</v>
+      </c>
+      <c r="E507" t="s">
+        <v>158</v>
+      </c>
+      <c r="F507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D508">
+        <v>2</v>
+      </c>
+      <c r="E508" t="s">
+        <v>159</v>
+      </c>
+      <c r="F508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D509">
+        <v>3</v>
+      </c>
+      <c r="E509" t="s">
+        <v>160</v>
+      </c>
+      <c r="F509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D510">
+        <v>4</v>
+      </c>
+      <c r="E510" t="s">
+        <v>34</v>
+      </c>
+      <c r="F510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D511">
+        <v>5</v>
+      </c>
+      <c r="E511" t="s">
+        <v>161</v>
+      </c>
+      <c r="F511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D512" s="2">
+        <v>6</v>
+      </c>
+      <c r="E512" s="2"/>
+      <c r="F512" s="2"/>
+    </row>
+    <row r="513" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D513">
+        <v>7</v>
+      </c>
+      <c r="E513" t="s">
+        <v>145</v>
+      </c>
+      <c r="F513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D514">
+        <v>8</v>
+      </c>
+      <c r="E514" t="s">
+        <v>162</v>
+      </c>
+      <c r="F514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D515">
+        <v>9</v>
+      </c>
+      <c r="E515" t="s">
+        <v>163</v>
+      </c>
+      <c r="F515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D516">
+        <v>10</v>
+      </c>
+      <c r="E516" t="s">
+        <v>164</v>
+      </c>
+      <c r="F516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D517">
+        <v>11</v>
+      </c>
+      <c r="E517" t="s">
+        <v>165</v>
+      </c>
+      <c r="F517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D518">
+        <v>12</v>
+      </c>
+      <c r="E518" t="s">
+        <v>166</v>
+      </c>
+      <c r="F518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D519">
+        <v>13</v>
+      </c>
+      <c r="E519" t="s">
+        <v>34</v>
+      </c>
+      <c r="F519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D520">
+        <v>14</v>
+      </c>
+      <c r="E520" t="s">
+        <v>167</v>
+      </c>
+      <c r="F520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D521">
+        <v>15</v>
+      </c>
+      <c r="E521" t="s">
+        <v>168</v>
+      </c>
+      <c r="F521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D522">
+        <v>16</v>
+      </c>
+      <c r="E522" t="s">
+        <v>35</v>
+      </c>
+      <c r="F522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D523">
+        <v>17</v>
+      </c>
+      <c r="E523" t="s">
+        <v>169</v>
+      </c>
+      <c r="F523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D524">
+        <v>18</v>
+      </c>
+      <c r="E524" t="s">
+        <v>90</v>
+      </c>
+      <c r="F524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D525">
+        <v>19</v>
+      </c>
+      <c r="E525" t="s">
+        <v>170</v>
+      </c>
+      <c r="F525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C527" s="4">
+        <v>25</v>
+      </c>
+      <c r="D527">
+        <v>0</v>
+      </c>
+      <c r="E527" t="s">
+        <v>233</v>
+      </c>
+      <c r="F527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D528">
+        <v>1</v>
+      </c>
+      <c r="E528" t="s">
+        <v>40</v>
+      </c>
+      <c r="F528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D529">
+        <v>2</v>
+      </c>
+      <c r="E529" t="s">
+        <v>155</v>
+      </c>
+      <c r="F529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D530">
+        <v>3</v>
+      </c>
+      <c r="E530" t="s">
+        <v>156</v>
+      </c>
+      <c r="F530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D531">
+        <v>4</v>
+      </c>
+      <c r="E531" t="s">
+        <v>90</v>
+      </c>
+      <c r="F531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D532">
+        <v>5</v>
+      </c>
+      <c r="E532" t="s">
+        <v>202</v>
+      </c>
+      <c r="F532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D533">
+        <v>6</v>
+      </c>
+      <c r="E533" t="s">
+        <v>234</v>
+      </c>
+      <c r="F533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D534">
+        <v>7</v>
+      </c>
+      <c r="E534" t="s">
+        <v>235</v>
+      </c>
+      <c r="F534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D535">
+        <v>8</v>
+      </c>
+      <c r="E535" t="s">
+        <v>147</v>
+      </c>
+      <c r="F535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D536">
+        <v>9</v>
+      </c>
+      <c r="E536" t="s">
+        <v>236</v>
+      </c>
+      <c r="F536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D537">
+        <v>10</v>
+      </c>
+      <c r="E537" t="s">
+        <v>27</v>
+      </c>
+      <c r="F537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D538">
+        <v>11</v>
+      </c>
+      <c r="E538" t="s">
+        <v>35</v>
+      </c>
+      <c r="F538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D539">
+        <v>12</v>
+      </c>
+      <c r="E539" t="s">
+        <v>237</v>
+      </c>
+      <c r="F539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D540">
+        <v>13</v>
+      </c>
+      <c r="E540" t="s">
+        <v>34</v>
+      </c>
+      <c r="F540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D541">
+        <v>14</v>
+      </c>
+      <c r="E541" t="s">
+        <v>238</v>
+      </c>
+      <c r="F541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D542">
+        <v>15</v>
+      </c>
+      <c r="E542" t="s">
+        <v>43</v>
+      </c>
+      <c r="F542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D543">
+        <v>16</v>
+      </c>
+      <c r="E543" t="s">
+        <v>239</v>
+      </c>
+      <c r="F543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D544">
+        <v>17</v>
+      </c>
+      <c r="E544" t="s">
+        <v>182</v>
+      </c>
+      <c r="F544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D545">
+        <v>18</v>
+      </c>
+      <c r="E545" t="s">
+        <v>46</v>
+      </c>
+      <c r="F545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D546">
+        <v>19</v>
+      </c>
+      <c r="E546" t="s">
+        <v>240</v>
+      </c>
+      <c r="F546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C548" s="4">
+        <v>26</v>
+      </c>
+      <c r="D548">
+        <v>0</v>
+      </c>
+      <c r="E548" t="s">
+        <v>241</v>
+      </c>
+      <c r="F548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D549">
+        <v>1</v>
+      </c>
+      <c r="E549" t="s">
+        <v>242</v>
+      </c>
+      <c r="F549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D550">
+        <v>2</v>
+      </c>
+      <c r="E550" t="s">
+        <v>151</v>
+      </c>
+      <c r="F550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D551">
+        <v>3</v>
+      </c>
+      <c r="E551" t="s">
+        <v>43</v>
+      </c>
+      <c r="F551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D552">
+        <v>4</v>
+      </c>
+      <c r="E552" t="s">
+        <v>243</v>
+      </c>
+      <c r="F552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D553">
+        <v>5</v>
+      </c>
+      <c r="E553" t="s">
+        <v>40</v>
+      </c>
+      <c r="F553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D554">
+        <v>6</v>
+      </c>
+      <c r="E554" t="s">
+        <v>244</v>
+      </c>
+      <c r="F554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D555">
+        <v>7</v>
+      </c>
+      <c r="E555" t="s">
+        <v>49</v>
+      </c>
+      <c r="F555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D556">
+        <v>8</v>
+      </c>
+      <c r="E556" t="s">
+        <v>62</v>
+      </c>
+      <c r="F556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D557">
+        <v>9</v>
+      </c>
+      <c r="E557" t="s">
+        <v>43</v>
+      </c>
+      <c r="F557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D558">
+        <v>10</v>
+      </c>
+      <c r="E558" t="s">
+        <v>245</v>
+      </c>
+      <c r="F558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D559">
+        <v>11</v>
+      </c>
+      <c r="E559" t="s">
+        <v>246</v>
+      </c>
+      <c r="F559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D560">
+        <v>12</v>
+      </c>
+      <c r="E560" t="s">
+        <v>8</v>
+      </c>
+      <c r="F560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D561">
+        <v>13</v>
+      </c>
+      <c r="E561" t="s">
+        <v>247</v>
+      </c>
+      <c r="F561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D562">
+        <v>14</v>
+      </c>
+      <c r="E562" t="s">
+        <v>248</v>
+      </c>
+      <c r="F562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D563">
+        <v>15</v>
+      </c>
+      <c r="E563" t="s">
+        <v>12</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D564">
+        <v>16</v>
+      </c>
+      <c r="E564" t="s">
+        <v>43</v>
+      </c>
+      <c r="F564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D565">
+        <v>17</v>
+      </c>
+      <c r="E565" t="s">
+        <v>155</v>
+      </c>
+      <c r="F565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D566">
+        <v>18</v>
+      </c>
+      <c r="E566" t="s">
+        <v>249</v>
+      </c>
+      <c r="F566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D567">
+        <v>19</v>
+      </c>
+      <c r="E567" t="s">
+        <v>250</v>
+      </c>
+      <c r="F567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C569">
+        <v>27</v>
+      </c>
+      <c r="D569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D572">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D573">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D574">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D575">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="576" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D576">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D577">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D578">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D579">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D580">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D581">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D582">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D583">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D584">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D585">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D586">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D587">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D588">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596901FA-254E-4505-96F7-3F0A59572CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5701D418-471B-41F4-8AA7-43F6A3AE767C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="295">
   <si>
     <t>word</t>
   </si>
@@ -788,6 +788,138 @@
   </si>
   <si>
     <t>[b'magazine']</t>
+  </si>
+  <si>
+    <t>[b'act']</t>
+  </si>
+  <si>
+    <t>[b'or']</t>
+  </si>
+  <si>
+    <t>[b'acts']</t>
+  </si>
+  <si>
+    <t>[b'desperation']</t>
+  </si>
+  <si>
+    <t>[b'targeting']</t>
+  </si>
+  <si>
+    <t>[b'baghdad']</t>
+  </si>
+  <si>
+    <t>[b'they']</t>
+  </si>
+  <si>
+    <t>[b'sow']</t>
+  </si>
+  <si>
+    <t>[b'fear']</t>
+  </si>
+  <si>
+    <t>[b'after']</t>
+  </si>
+  <si>
+    <t>[b'been']</t>
+  </si>
+  <si>
+    <t>[b'largely']</t>
+  </si>
+  <si>
+    <t>[b'forced']</t>
+  </si>
+  <si>
+    <t>[b'out']</t>
+  </si>
+  <si>
+    <t>[b'want']</t>
+  </si>
+  <si>
+    <t>[b'note']</t>
+  </si>
+  <si>
+    <t>[b'bravery']</t>
+  </si>
+  <si>
+    <t>[b'iraqi']</t>
+  </si>
+  <si>
+    <t>[b'security']</t>
+  </si>
+  <si>
+    <t>[b'forces']</t>
+  </si>
+  <si>
+    <t>[b'who']</t>
+  </si>
+  <si>
+    <t>[b'responded']</t>
+  </si>
+  <si>
+    <t>[b'attacks']</t>
+  </si>
+  <si>
+    <t>[b'further']</t>
+  </si>
+  <si>
+    <t>[b'careers']</t>
+  </si>
+  <si>
+    <t>[b'actually']</t>
+  </si>
+  <si>
+    <t>[b'very']</t>
+  </si>
+  <si>
+    <t>[b'beneficial']</t>
+  </si>
+  <si>
+    <t>[b'country']</t>
+  </si>
+  <si>
+    <t>[b'bottom']</t>
+  </si>
+  <si>
+    <t>[b'line']</t>
+  </si>
+  <si>
+    <t>[b'get']</t>
+  </si>
+  <si>
+    <t>[b'voice']</t>
+  </si>
+  <si>
+    <t>[b'girls']</t>
+  </si>
+  <si>
+    <t>[b'really']</t>
+  </si>
+  <si>
+    <t>[b'heard']</t>
+  </si>
+  <si>
+    <t>[b'happy']</t>
+  </si>
+  <si>
+    <t>[b'can']</t>
+  </si>
+  <si>
+    <t>[b'play']</t>
+  </si>
+  <si>
+    <t>[b'listen']</t>
+  </si>
+  <si>
+    <t>[b'craft']</t>
+  </si>
+  <si>
+    <t>[b'message']</t>
+  </si>
+  <si>
+    <t>[b'will']</t>
+  </si>
+  <si>
+    <t>[b'ideas']</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K588"/>
+  <dimension ref="A1:K693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A555" workbookViewId="0">
-      <selection activeCell="D569" sqref="D569:D588"/>
+    <sheetView tabSelected="1" topLeftCell="A666" workbookViewId="0">
+      <selection activeCell="F687" sqref="F687:F693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6894,15 +7026,27 @@
       </c>
     </row>
     <row r="569" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C569">
+      <c r="C569" s="4">
         <v>27</v>
       </c>
       <c r="D569">
         <v>0</v>
       </c>
+      <c r="E569" t="s">
+        <v>251</v>
+      </c>
+      <c r="F569">
+        <v>1</v>
+      </c>
     </row>
     <row r="570" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570" t="s">
+        <v>252</v>
+      </c>
+      <c r="F570">
         <v>1</v>
       </c>
     </row>
@@ -6910,90 +7054,1293 @@
       <c r="D571">
         <v>2</v>
       </c>
+      <c r="E571" t="s">
+        <v>253</v>
+      </c>
+      <c r="F571">
+        <v>1</v>
+      </c>
     </row>
     <row r="572" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D572">
         <v>3</v>
       </c>
+      <c r="E572" t="s">
+        <v>62</v>
+      </c>
+      <c r="F572">
+        <v>1</v>
+      </c>
     </row>
     <row r="573" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D573">
         <v>4</v>
       </c>
+      <c r="E573" t="s">
+        <v>254</v>
+      </c>
+      <c r="F573">
+        <v>1</v>
+      </c>
     </row>
     <row r="574" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D574">
         <v>5</v>
       </c>
+      <c r="E574" t="s">
+        <v>23</v>
+      </c>
+      <c r="F574">
+        <v>1</v>
+      </c>
     </row>
     <row r="575" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D575">
         <v>6</v>
       </c>
+      <c r="E575" t="s">
+        <v>255</v>
+      </c>
+      <c r="F575">
+        <v>1</v>
+      </c>
     </row>
     <row r="576" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D576">
         <v>7</v>
       </c>
-    </row>
-    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E576" t="s">
+        <v>256</v>
+      </c>
+      <c r="F576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D577">
         <v>8</v>
       </c>
-    </row>
-    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E577" t="s">
+        <v>60</v>
+      </c>
+      <c r="F577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D578">
         <v>9</v>
       </c>
-    </row>
-    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E578" t="s">
+        <v>257</v>
+      </c>
+      <c r="F578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D579">
         <v>10</v>
       </c>
-    </row>
-    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E579" t="s">
+        <v>6</v>
+      </c>
+      <c r="F579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D580">
         <v>11</v>
       </c>
-    </row>
-    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E580" t="s">
+        <v>40</v>
+      </c>
+      <c r="F580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D581">
         <v>12</v>
       </c>
-    </row>
-    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E581" t="s">
+        <v>258</v>
+      </c>
+      <c r="F581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D582">
         <v>13</v>
       </c>
-    </row>
-    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E582" t="s">
+        <v>259</v>
+      </c>
+      <c r="F582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D583">
         <v>14</v>
       </c>
-    </row>
-    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E583" t="s">
+        <v>260</v>
+      </c>
+      <c r="F583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D584">
         <v>15</v>
       </c>
-    </row>
-    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E584" t="s">
+        <v>261</v>
+      </c>
+      <c r="F584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D585">
         <v>16</v>
       </c>
-    </row>
-    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E585" t="s">
+        <v>262</v>
+      </c>
+      <c r="F585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D586">
         <v>17</v>
       </c>
-    </row>
-    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E586" t="s">
+        <v>263</v>
+      </c>
+      <c r="F586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D587">
         <v>18</v>
       </c>
-    </row>
-    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E587" t="s">
+        <v>264</v>
+      </c>
+      <c r="F587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D588">
         <v>19</v>
+      </c>
+      <c r="E588" t="s">
+        <v>62</v>
+      </c>
+      <c r="F588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C590">
+        <v>28</v>
+      </c>
+      <c r="D590" s="2">
+        <v>0</v>
+      </c>
+      <c r="E590" s="2"/>
+      <c r="F590" s="2"/>
+    </row>
+    <row r="591" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D591" s="2">
+        <v>1</v>
+      </c>
+      <c r="E591" s="2"/>
+      <c r="F591" s="2"/>
+    </row>
+    <row r="592" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D592" s="2">
+        <v>2</v>
+      </c>
+      <c r="E592" s="2"/>
+      <c r="F592" s="2"/>
+    </row>
+    <row r="593" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D593">
+        <v>3</v>
+      </c>
+      <c r="E593" t="s">
+        <v>147</v>
+      </c>
+      <c r="F593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D594">
+        <v>4</v>
+      </c>
+      <c r="E594" t="s">
+        <v>157</v>
+      </c>
+      <c r="F594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D595">
+        <v>5</v>
+      </c>
+      <c r="E595" t="s">
+        <v>265</v>
+      </c>
+      <c r="F595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D596">
+        <v>6</v>
+      </c>
+      <c r="E596" t="s">
+        <v>40</v>
+      </c>
+      <c r="F596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D597">
+        <v>7</v>
+      </c>
+      <c r="E597" t="s">
+        <v>266</v>
+      </c>
+      <c r="F597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D598">
+        <v>8</v>
+      </c>
+      <c r="E598" t="s">
+        <v>43</v>
+      </c>
+      <c r="F598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D599">
+        <v>9</v>
+      </c>
+      <c r="E599" t="s">
+        <v>267</v>
+      </c>
+      <c r="F599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D600">
+        <v>10</v>
+      </c>
+      <c r="E600" t="s">
+        <v>62</v>
+      </c>
+      <c r="F600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D601">
+        <v>11</v>
+      </c>
+      <c r="E601" t="s">
+        <v>43</v>
+      </c>
+      <c r="F601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D602">
+        <v>12</v>
+      </c>
+      <c r="E602" t="s">
+        <v>268</v>
+      </c>
+      <c r="F602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D603">
+        <v>13</v>
+      </c>
+      <c r="E603" t="s">
+        <v>269</v>
+      </c>
+      <c r="F603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D604">
+        <v>14</v>
+      </c>
+      <c r="E604" t="s">
+        <v>270</v>
+      </c>
+      <c r="F604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D605">
+        <v>15</v>
+      </c>
+      <c r="E605" t="s">
+        <v>271</v>
+      </c>
+      <c r="F605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D606">
+        <v>16</v>
+      </c>
+      <c r="E606" t="s">
+        <v>272</v>
+      </c>
+      <c r="F606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D607">
+        <v>17</v>
+      </c>
+      <c r="E607" t="s">
+        <v>40</v>
+      </c>
+      <c r="F607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D608">
+        <v>18</v>
+      </c>
+      <c r="E608" t="s">
+        <v>129</v>
+      </c>
+      <c r="F608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D609">
+        <v>19</v>
+      </c>
+      <c r="E609" t="s">
+        <v>273</v>
+      </c>
+      <c r="F609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C611" s="4">
+        <v>29</v>
+      </c>
+      <c r="D611">
+        <v>0</v>
+      </c>
+      <c r="E611" t="s">
+        <v>237</v>
+      </c>
+      <c r="F611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D612">
+        <v>1</v>
+      </c>
+      <c r="E612" t="s">
+        <v>134</v>
+      </c>
+      <c r="F612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D613">
+        <v>2</v>
+      </c>
+      <c r="E613" t="s">
+        <v>274</v>
+      </c>
+      <c r="F613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D614">
+        <v>3</v>
+      </c>
+      <c r="E614" t="s">
+        <v>12</v>
+      </c>
+      <c r="F614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D615">
+        <v>4</v>
+      </c>
+      <c r="E615" t="s">
+        <v>46</v>
+      </c>
+      <c r="F615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D616">
+        <v>5</v>
+      </c>
+      <c r="E616" t="s">
+        <v>275</v>
+      </c>
+      <c r="F616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D617">
+        <v>6</v>
+      </c>
+      <c r="E617" t="s">
+        <v>8</v>
+      </c>
+      <c r="F617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D618">
+        <v>7</v>
+      </c>
+      <c r="E618" t="s">
+        <v>9</v>
+      </c>
+      <c r="F618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D619">
+        <v>8</v>
+      </c>
+      <c r="E619" t="s">
+        <v>276</v>
+      </c>
+      <c r="F619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D620">
+        <v>9</v>
+      </c>
+      <c r="E620" t="s">
+        <v>277</v>
+      </c>
+      <c r="F620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D621">
+        <v>10</v>
+      </c>
+      <c r="E621" t="s">
+        <v>278</v>
+      </c>
+      <c r="F621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D622">
+        <v>11</v>
+      </c>
+      <c r="E622" t="s">
+        <v>40</v>
+      </c>
+      <c r="F622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D623">
+        <v>12</v>
+      </c>
+      <c r="E623" t="s">
+        <v>43</v>
+      </c>
+      <c r="F623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D624">
+        <v>13</v>
+      </c>
+      <c r="E624" t="s">
+        <v>279</v>
+      </c>
+      <c r="F624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D625">
+        <v>14</v>
+      </c>
+      <c r="E625" t="s">
+        <v>43</v>
+      </c>
+      <c r="F625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D626">
+        <v>15</v>
+      </c>
+      <c r="E626" t="s">
+        <v>280</v>
+      </c>
+      <c r="F626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D627">
+        <v>16</v>
+      </c>
+      <c r="E627" t="s">
+        <v>281</v>
+      </c>
+      <c r="F627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D628">
+        <v>17</v>
+      </c>
+      <c r="E628" t="s">
+        <v>62</v>
+      </c>
+      <c r="F628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D629">
+        <v>18</v>
+      </c>
+      <c r="E629" t="s">
+        <v>43</v>
+      </c>
+      <c r="F629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D630">
+        <v>19</v>
+      </c>
+      <c r="E630" t="s">
+        <v>279</v>
+      </c>
+      <c r="F630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C632">
+        <v>30</v>
+      </c>
+      <c r="D632">
+        <v>0</v>
+      </c>
+      <c r="E632" t="s">
+        <v>6</v>
+      </c>
+      <c r="F632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D633">
+        <v>1</v>
+      </c>
+      <c r="E633" t="s">
+        <v>145</v>
+      </c>
+      <c r="F633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D634">
+        <v>2</v>
+      </c>
+      <c r="E634" t="s">
+        <v>40</v>
+      </c>
+      <c r="F634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D635">
+        <v>3</v>
+      </c>
+      <c r="E635" t="s">
+        <v>282</v>
+      </c>
+      <c r="F635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D636">
+        <v>4</v>
+      </c>
+      <c r="E636" t="s">
+        <v>43</v>
+      </c>
+      <c r="F636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D637">
+        <v>5</v>
+      </c>
+      <c r="E637" t="s">
+        <v>283</v>
+      </c>
+      <c r="F637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D638">
+        <v>6</v>
+      </c>
+      <c r="E638" t="s">
+        <v>62</v>
+      </c>
+      <c r="F638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D639">
+        <v>7</v>
+      </c>
+      <c r="E639" t="s">
+        <v>214</v>
+      </c>
+      <c r="F639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D640">
+        <v>8</v>
+      </c>
+      <c r="E640" t="s">
+        <v>284</v>
+      </c>
+      <c r="F640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D641">
+        <v>9</v>
+      </c>
+      <c r="E641" t="s">
+        <v>285</v>
+      </c>
+      <c r="F641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D642">
+        <v>10</v>
+      </c>
+      <c r="E642" t="s">
+        <v>286</v>
+      </c>
+      <c r="F642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D643">
+        <v>11</v>
+      </c>
+      <c r="E643" t="s">
+        <v>226</v>
+      </c>
+      <c r="F643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D644" s="2">
+        <v>12</v>
+      </c>
+      <c r="E644" s="2"/>
+      <c r="F644" s="2"/>
+    </row>
+    <row r="645" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D645">
+        <v>13</v>
+      </c>
+      <c r="E645" t="s">
+        <v>287</v>
+      </c>
+      <c r="F645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D646">
+        <v>14</v>
+      </c>
+      <c r="E646" t="s">
+        <v>8</v>
+      </c>
+      <c r="F646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D647">
+        <v>15</v>
+      </c>
+      <c r="E647" t="s">
+        <v>15</v>
+      </c>
+      <c r="F647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D648">
+        <v>16</v>
+      </c>
+      <c r="E648" t="s">
+        <v>288</v>
+      </c>
+      <c r="F648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D649">
+        <v>17</v>
+      </c>
+      <c r="E649" t="s">
+        <v>289</v>
+      </c>
+      <c r="F649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D650">
+        <v>18</v>
+      </c>
+      <c r="E650" t="s">
+        <v>68</v>
+      </c>
+      <c r="F650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D651">
+        <v>19</v>
+      </c>
+      <c r="E651" t="s">
+        <v>70</v>
+      </c>
+      <c r="F651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C653" s="4">
+        <v>31</v>
+      </c>
+      <c r="D653">
+        <v>0</v>
+      </c>
+      <c r="E653" t="s">
+        <v>40</v>
+      </c>
+      <c r="F653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D654">
+        <v>1</v>
+      </c>
+      <c r="E654" t="s">
+        <v>290</v>
+      </c>
+      <c r="F654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D655">
+        <v>2</v>
+      </c>
+      <c r="E655" t="s">
+        <v>40</v>
+      </c>
+      <c r="F655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D656">
+        <v>3</v>
+      </c>
+      <c r="E656" t="s">
+        <v>237</v>
+      </c>
+      <c r="F656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D657">
+        <v>4</v>
+      </c>
+      <c r="E657" t="s">
+        <v>40</v>
+      </c>
+      <c r="F657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D658">
+        <v>5</v>
+      </c>
+      <c r="E658" t="s">
+        <v>285</v>
+      </c>
+      <c r="F658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D659">
+        <v>6</v>
+      </c>
+      <c r="E659" t="s">
+        <v>291</v>
+      </c>
+      <c r="F659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D660">
+        <v>7</v>
+      </c>
+      <c r="E660" t="s">
+        <v>68</v>
+      </c>
+      <c r="F660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D661">
+        <v>8</v>
+      </c>
+      <c r="E661" t="s">
+        <v>292</v>
+      </c>
+      <c r="F661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D662">
+        <v>9</v>
+      </c>
+      <c r="E662" t="s">
+        <v>8</v>
+      </c>
+      <c r="F662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D663">
+        <v>10</v>
+      </c>
+      <c r="E663" t="s">
+        <v>293</v>
+      </c>
+      <c r="F663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D664">
+        <v>11</v>
+      </c>
+      <c r="E664" t="s">
+        <v>282</v>
+      </c>
+      <c r="F664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D665">
+        <v>12</v>
+      </c>
+      <c r="E665" t="s">
+        <v>122</v>
+      </c>
+      <c r="F665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D666">
+        <v>13</v>
+      </c>
+      <c r="E666" t="s">
+        <v>40</v>
+      </c>
+      <c r="F666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D667">
+        <v>14</v>
+      </c>
+      <c r="E667" t="s">
+        <v>42</v>
+      </c>
+      <c r="F667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D668">
+        <v>15</v>
+      </c>
+      <c r="E668" t="s">
+        <v>237</v>
+      </c>
+      <c r="F668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D669">
+        <v>16</v>
+      </c>
+      <c r="E669" t="s">
+        <v>34</v>
+      </c>
+      <c r="F669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D670">
+        <v>17</v>
+      </c>
+      <c r="E670" t="s">
+        <v>274</v>
+      </c>
+      <c r="F670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D671">
+        <v>18</v>
+      </c>
+      <c r="E671" t="s">
+        <v>46</v>
+      </c>
+      <c r="F671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D672">
+        <v>19</v>
+      </c>
+      <c r="E672" t="s">
+        <v>294</v>
+      </c>
+      <c r="F672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C674">
+        <v>32</v>
+      </c>
+      <c r="D674">
+        <v>0</v>
+      </c>
+      <c r="E674" t="s">
+        <v>6</v>
+      </c>
+      <c r="F674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D675">
+        <v>1</v>
+      </c>
+      <c r="E675" t="s">
+        <v>145</v>
+      </c>
+      <c r="F675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D676">
+        <v>2</v>
+      </c>
+      <c r="E676" t="s">
+        <v>40</v>
+      </c>
+      <c r="F676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D677">
+        <v>3</v>
+      </c>
+      <c r="E677" t="s">
+        <v>282</v>
+      </c>
+      <c r="F677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D678">
+        <v>4</v>
+      </c>
+      <c r="E678" t="s">
+        <v>43</v>
+      </c>
+      <c r="F678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D679">
+        <v>5</v>
+      </c>
+      <c r="E679" t="s">
+        <v>283</v>
+      </c>
+      <c r="F679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D680">
+        <v>6</v>
+      </c>
+      <c r="E680" t="s">
+        <v>62</v>
+      </c>
+      <c r="F680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D681">
+        <v>7</v>
+      </c>
+      <c r="E681" t="s">
+        <v>214</v>
+      </c>
+      <c r="F681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D682">
+        <v>8</v>
+      </c>
+      <c r="E682" t="s">
+        <v>284</v>
+      </c>
+      <c r="F682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D683">
+        <v>9</v>
+      </c>
+      <c r="E683" t="s">
+        <v>285</v>
+      </c>
+      <c r="F683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D684">
+        <v>10</v>
+      </c>
+      <c r="E684" t="s">
+        <v>286</v>
+      </c>
+      <c r="F684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D685">
+        <v>11</v>
+      </c>
+      <c r="E685" t="s">
+        <v>226</v>
+      </c>
+      <c r="F685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D686" s="2">
+        <v>12</v>
+      </c>
+      <c r="E686" s="2"/>
+      <c r="F686" s="2"/>
+    </row>
+    <row r="687" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D687">
+        <v>13</v>
+      </c>
+      <c r="E687" t="s">
+        <v>287</v>
+      </c>
+      <c r="F687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D688">
+        <v>14</v>
+      </c>
+      <c r="E688" t="s">
+        <v>8</v>
+      </c>
+      <c r="F688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D689">
+        <v>15</v>
+      </c>
+      <c r="E689" t="s">
+        <v>15</v>
+      </c>
+      <c r="F689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D690">
+        <v>16</v>
+      </c>
+      <c r="E690" t="s">
+        <v>288</v>
+      </c>
+      <c r="F690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D691">
+        <v>17</v>
+      </c>
+      <c r="E691" t="s">
+        <v>289</v>
+      </c>
+      <c r="F691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D692">
+        <v>18</v>
+      </c>
+      <c r="E692" t="s">
+        <v>68</v>
+      </c>
+      <c r="F692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D693">
+        <v>19</v>
+      </c>
+      <c r="E693" t="s">
+        <v>70</v>
+      </c>
+      <c r="F693">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5701D418-471B-41F4-8AA7-43F6A3AE767C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6ADACD-7007-46E7-8C85-7854D9631BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="314">
   <si>
     <t>word</t>
   </si>
@@ -920,6 +920,63 @@
   </si>
   <si>
     <t>[b'ideas']</t>
+  </si>
+  <si>
+    <t>[b'changed']</t>
+  </si>
+  <si>
+    <t>[b'name']</t>
+  </si>
+  <si>
+    <t>[b'silver']</t>
+  </si>
+  <si>
+    <t>[b'close']</t>
+  </si>
+  <si>
+    <t>[b'business']</t>
+  </si>
+  <si>
+    <t>[b'february']</t>
+  </si>
+  <si>
+    <t>[b'voluntarily']</t>
+  </si>
+  <si>
+    <t>[b'de']</t>
+  </si>
+  <si>
+    <t>[b'venture']</t>
+  </si>
+  <si>
+    <t>[b'exchange']</t>
+  </si>
+  <si>
+    <t>[b'listings']</t>
+  </si>
+  <si>
+    <t>[b'canadian']</t>
+  </si>
+  <si>
+    <t>[b'securities']</t>
+  </si>
+  <si>
+    <t>[b'formerly']</t>
+  </si>
+  <si>
+    <t>[b'national']</t>
+  </si>
+  <si>
+    <t>[b'stock']</t>
+  </si>
+  <si>
+    <t>[b'trading']</t>
+  </si>
+  <si>
+    <t>[b'under']</t>
+  </si>
+  <si>
+    <t>[b'symbol']</t>
   </si>
 </sst>
 </file>
@@ -1266,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K693"/>
+  <dimension ref="A1:K735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A666" workbookViewId="0">
-      <selection activeCell="F687" sqref="F687:F693"/>
+    <sheetView tabSelected="1" topLeftCell="A702" workbookViewId="0">
+      <selection activeCell="C716" sqref="C716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8288,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D689">
         <v>15</v>
       </c>
@@ -8299,7 +8356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D690">
         <v>16</v>
       </c>
@@ -8310,7 +8367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D691">
         <v>17</v>
       </c>
@@ -8321,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D692">
         <v>18</v>
       </c>
@@ -8332,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D693">
         <v>19</v>
       </c>
@@ -8340,6 +8397,452 @@
         <v>70</v>
       </c>
       <c r="F693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C695" s="4">
+        <v>33</v>
+      </c>
+      <c r="D695">
+        <v>0</v>
+      </c>
+      <c r="E695" t="s">
+        <v>240</v>
+      </c>
+      <c r="F695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D696">
+        <v>1</v>
+      </c>
+      <c r="E696" t="s">
+        <v>295</v>
+      </c>
+      <c r="F696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D697">
+        <v>2</v>
+      </c>
+      <c r="E697" t="s">
+        <v>141</v>
+      </c>
+      <c r="F697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D698">
+        <v>3</v>
+      </c>
+      <c r="E698" t="s">
+        <v>296</v>
+      </c>
+      <c r="F698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D699">
+        <v>4</v>
+      </c>
+      <c r="E699" t="s">
+        <v>174</v>
+      </c>
+      <c r="F699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D700">
+        <v>5</v>
+      </c>
+      <c r="E700" t="s">
+        <v>297</v>
+      </c>
+      <c r="F700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D701">
+        <v>6</v>
+      </c>
+      <c r="E701" t="s">
+        <v>34</v>
+      </c>
+      <c r="F701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D702">
+        <v>7</v>
+      </c>
+      <c r="E702" t="s">
+        <v>90</v>
+      </c>
+      <c r="F702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D703">
+        <v>8</v>
+      </c>
+      <c r="E703" t="s">
+        <v>43</v>
+      </c>
+      <c r="F703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D704">
+        <v>9</v>
+      </c>
+      <c r="E704" t="s">
+        <v>298</v>
+      </c>
+      <c r="F704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D705">
+        <v>10</v>
+      </c>
+      <c r="E705" t="s">
+        <v>62</v>
+      </c>
+      <c r="F705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D706">
+        <v>11</v>
+      </c>
+      <c r="E706" t="s">
+        <v>299</v>
+      </c>
+      <c r="F706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D707">
+        <v>12</v>
+      </c>
+      <c r="E707" t="s">
+        <v>300</v>
+      </c>
+      <c r="F707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D708">
+        <v>13</v>
+      </c>
+      <c r="E708" t="s">
+        <v>301</v>
+      </c>
+      <c r="F708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D709">
+        <v>14</v>
+      </c>
+      <c r="E709" t="s">
+        <v>302</v>
+      </c>
+      <c r="F709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D710">
+        <v>15</v>
+      </c>
+      <c r="E710" t="s">
+        <v>248</v>
+      </c>
+      <c r="F710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D711">
+        <v>16</v>
+      </c>
+      <c r="E711" t="s">
+        <v>174</v>
+      </c>
+      <c r="F711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D712">
+        <v>17</v>
+      </c>
+      <c r="E712" t="s">
+        <v>43</v>
+      </c>
+      <c r="F712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D713">
+        <v>18</v>
+      </c>
+      <c r="E713" t="s">
+        <v>303</v>
+      </c>
+      <c r="F713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D714">
+        <v>19</v>
+      </c>
+      <c r="E714" t="s">
+        <v>304</v>
+      </c>
+      <c r="F714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C716" s="4">
+        <v>34</v>
+      </c>
+      <c r="D716">
+        <v>0</v>
+      </c>
+      <c r="E716" t="s">
+        <v>305</v>
+      </c>
+      <c r="F716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D717">
+        <v>1</v>
+      </c>
+      <c r="E717" t="s">
+        <v>162</v>
+      </c>
+      <c r="F717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D718">
+        <v>2</v>
+      </c>
+      <c r="E718" t="s">
+        <v>43</v>
+      </c>
+      <c r="F718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D719">
+        <v>3</v>
+      </c>
+      <c r="E719" t="s">
+        <v>306</v>
+      </c>
+      <c r="F719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D720">
+        <v>4</v>
+      </c>
+      <c r="E720" t="s">
+        <v>307</v>
+      </c>
+      <c r="F720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D721">
+        <v>5</v>
+      </c>
+      <c r="E721" t="s">
+        <v>304</v>
+      </c>
+      <c r="F721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D722">
+        <v>6</v>
+      </c>
+      <c r="E722" t="s">
+        <v>308</v>
+      </c>
+      <c r="F722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D723">
+        <v>7</v>
+      </c>
+      <c r="E723" t="s">
+        <v>186</v>
+      </c>
+      <c r="F723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D724">
+        <v>8</v>
+      </c>
+      <c r="E724" t="s">
+        <v>60</v>
+      </c>
+      <c r="F724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D725">
+        <v>9</v>
+      </c>
+      <c r="E725" t="s">
+        <v>43</v>
+      </c>
+      <c r="F725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D726">
+        <v>10</v>
+      </c>
+      <c r="E726" t="s">
+        <v>306</v>
+      </c>
+      <c r="F726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D727">
+        <v>11</v>
+      </c>
+      <c r="E727" t="s">
+        <v>309</v>
+      </c>
+      <c r="F727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D728">
+        <v>12</v>
+      </c>
+      <c r="E728" t="s">
+        <v>310</v>
+      </c>
+      <c r="F728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D729">
+        <v>13</v>
+      </c>
+      <c r="E729" t="s">
+        <v>304</v>
+      </c>
+      <c r="F729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D730">
+        <v>14</v>
+      </c>
+      <c r="E730" t="s">
+        <v>34</v>
+      </c>
+      <c r="F730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D731">
+        <v>15</v>
+      </c>
+      <c r="E731" t="s">
+        <v>9</v>
+      </c>
+      <c r="F731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D732">
+        <v>16</v>
+      </c>
+      <c r="E732" t="s">
+        <v>311</v>
+      </c>
+      <c r="F732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D733">
+        <v>17</v>
+      </c>
+      <c r="E733" t="s">
+        <v>312</v>
+      </c>
+      <c r="F733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D734">
+        <v>18</v>
+      </c>
+      <c r="E734" t="s">
+        <v>43</v>
+      </c>
+      <c r="F734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D735">
+        <v>19</v>
+      </c>
+      <c r="E735" t="s">
+        <v>313</v>
+      </c>
+      <c r="F735">
         <v>1</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6ADACD-7007-46E7-8C85-7854D9631BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E46C47-9F56-4640-BCF4-86C4C7BBBF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="355">
   <si>
     <t>word</t>
   </si>
@@ -977,6 +977,129 @@
   </si>
   <si>
     <t>[b'symbol']</t>
+  </si>
+  <si>
+    <t>[b'fly']</t>
+  </si>
+  <si>
+    <t>[b'translator']</t>
+  </si>
+  <si>
+    <t>[b'mobile']</t>
+  </si>
+  <si>
+    <t>[b'application']</t>
+  </si>
+  <si>
+    <t>[b'recognizes']</t>
+  </si>
+  <si>
+    <t>[b'speech']</t>
+  </si>
+  <si>
+    <t>[b'text']</t>
+  </si>
+  <si>
+    <t>[b'translates']</t>
+  </si>
+  <si>
+    <t>[b'than']</t>
+  </si>
+  <si>
+    <t>[b'supported']</t>
+  </si>
+  <si>
+    <t>[b'languages']</t>
+  </si>
+  <si>
+    <t>[b'acquisition']</t>
+  </si>
+  <si>
+    <t>[b'development']</t>
+  </si>
+  <si>
+    <t>[b'marketing']</t>
+  </si>
+  <si>
+    <t>[b'software']</t>
+  </si>
+  <si>
+    <t>[b'applications']</t>
+  </si>
+  <si>
+    <t>[b'computing']</t>
+  </si>
+  <si>
+    <t>[b'devices']</t>
+  </si>
+  <si>
+    <t>[b'including']</t>
+  </si>
+  <si>
+    <t>[b'smart']</t>
+  </si>
+  <si>
+    <t>[b'phones']</t>
+  </si>
+  <si>
+    <t>[b'tablets']</t>
+  </si>
+  <si>
+    <t>[b'wearable']</t>
+  </si>
+  <si>
+    <t>[b'computers']</t>
+  </si>
+  <si>
+    <t>[b'apps']</t>
+  </si>
+  <si>
+    <t>[b'established']</t>
+  </si>
+  <si>
+    <t>[b'growing']</t>
+  </si>
+  <si>
+    <t>[b'user']</t>
+  </si>
+  <si>
+    <t>[b'base']</t>
+  </si>
+  <si>
+    <t>[b'currently']</t>
+  </si>
+  <si>
+    <t>[b'generates']</t>
+  </si>
+  <si>
+    <t>[b'consistent']</t>
+  </si>
+  <si>
+    <t>[b'monthly']</t>
+  </si>
+  <si>
+    <t>[b'cash']</t>
+  </si>
+  <si>
+    <t>[b'flow']</t>
+  </si>
+  <si>
+    <t>[b'daily']</t>
+  </si>
+  <si>
+    <t>[b'app']</t>
+  </si>
+  <si>
+    <t>[b'available']</t>
+  </si>
+  <si>
+    <t>[b'purchased']</t>
+  </si>
+  <si>
+    <t>[b'apple']</t>
+  </si>
+  <si>
+    <t>[b'store']</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K735"/>
+  <dimension ref="A1:K840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A702" workbookViewId="0">
-      <selection activeCell="C716" sqref="C716"/>
+    <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
+      <selection activeCell="D821" sqref="D821:D840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8846,6 +8969,1001 @@
         <v>1</v>
       </c>
     </row>
+    <row r="737" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C737" s="4">
+        <v>35</v>
+      </c>
+      <c r="D737">
+        <v>0</v>
+      </c>
+      <c r="E737" t="s">
+        <v>43</v>
+      </c>
+      <c r="F737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D738">
+        <v>1</v>
+      </c>
+      <c r="E738" t="s">
+        <v>162</v>
+      </c>
+      <c r="F738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D739">
+        <v>2</v>
+      </c>
+      <c r="E739" t="s">
+        <v>43</v>
+      </c>
+      <c r="F739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D740">
+        <v>3</v>
+      </c>
+      <c r="E740" t="s">
+        <v>314</v>
+      </c>
+      <c r="F740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D741">
+        <v>4</v>
+      </c>
+      <c r="E741" t="s">
+        <v>283</v>
+      </c>
+      <c r="F741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D742">
+        <v>5</v>
+      </c>
+      <c r="E742" t="s">
+        <v>315</v>
+      </c>
+      <c r="F742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D743">
+        <v>6</v>
+      </c>
+      <c r="E743" t="s">
+        <v>316</v>
+      </c>
+      <c r="F743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D744">
+        <v>7</v>
+      </c>
+      <c r="E744" t="s">
+        <v>317</v>
+      </c>
+      <c r="F744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D745">
+        <v>8</v>
+      </c>
+      <c r="E745" t="s">
+        <v>8</v>
+      </c>
+      <c r="F745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D746">
+        <v>9</v>
+      </c>
+      <c r="E746" t="s">
+        <v>318</v>
+      </c>
+      <c r="F746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D747">
+        <v>10</v>
+      </c>
+      <c r="E747" t="s">
+        <v>319</v>
+      </c>
+      <c r="F747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D748">
+        <v>11</v>
+      </c>
+      <c r="E748" t="s">
+        <v>34</v>
+      </c>
+      <c r="F748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D749">
+        <v>12</v>
+      </c>
+      <c r="E749" t="s">
+        <v>320</v>
+      </c>
+      <c r="F749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D750">
+        <v>13</v>
+      </c>
+      <c r="E750" t="s">
+        <v>34</v>
+      </c>
+      <c r="F750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D751">
+        <v>14</v>
+      </c>
+      <c r="E751" t="s">
+        <v>321</v>
+      </c>
+      <c r="F751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D752">
+        <v>15</v>
+      </c>
+      <c r="E752" t="s">
+        <v>179</v>
+      </c>
+      <c r="F752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D753">
+        <v>16</v>
+      </c>
+      <c r="E753" t="s">
+        <v>110</v>
+      </c>
+      <c r="F753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D754">
+        <v>17</v>
+      </c>
+      <c r="E754" t="s">
+        <v>322</v>
+      </c>
+      <c r="F754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D755">
+        <v>18</v>
+      </c>
+      <c r="E755" t="s">
+        <v>323</v>
+      </c>
+      <c r="F755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D756">
+        <v>19</v>
+      </c>
+      <c r="E756" t="s">
+        <v>324</v>
+      </c>
+      <c r="F756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C758" s="4">
+        <v>36</v>
+      </c>
+      <c r="D758">
+        <v>0</v>
+      </c>
+      <c r="E758" t="s">
+        <v>162</v>
+      </c>
+      <c r="F758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D759">
+        <v>1</v>
+      </c>
+      <c r="E759" t="s">
+        <v>43</v>
+      </c>
+      <c r="F759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D760">
+        <v>2</v>
+      </c>
+      <c r="E760" t="s">
+        <v>325</v>
+      </c>
+      <c r="F760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D761">
+        <v>3</v>
+      </c>
+      <c r="E761" t="s">
+        <v>326</v>
+      </c>
+      <c r="F761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D762">
+        <v>4</v>
+      </c>
+      <c r="E762" t="s">
+        <v>34</v>
+      </c>
+      <c r="F762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D763">
+        <v>5</v>
+      </c>
+      <c r="E763" t="s">
+        <v>327</v>
+      </c>
+      <c r="F763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D764">
+        <v>6</v>
+      </c>
+      <c r="E764" t="s">
+        <v>62</v>
+      </c>
+      <c r="F764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D765">
+        <v>7</v>
+      </c>
+      <c r="E765" t="s">
+        <v>328</v>
+      </c>
+      <c r="F765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D766">
+        <v>8</v>
+      </c>
+      <c r="E766" t="s">
+        <v>329</v>
+      </c>
+      <c r="F766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D767">
+        <v>9</v>
+      </c>
+      <c r="E767" t="s">
+        <v>35</v>
+      </c>
+      <c r="F767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D768">
+        <v>10</v>
+      </c>
+      <c r="E768" t="s">
+        <v>316</v>
+      </c>
+      <c r="F768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D769">
+        <v>11</v>
+      </c>
+      <c r="E769" t="s">
+        <v>330</v>
+      </c>
+      <c r="F769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D770">
+        <v>12</v>
+      </c>
+      <c r="E770" t="s">
+        <v>331</v>
+      </c>
+      <c r="F770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D771">
+        <v>13</v>
+      </c>
+      <c r="E771" t="s">
+        <v>332</v>
+      </c>
+      <c r="F771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D772">
+        <v>14</v>
+      </c>
+      <c r="E772" t="s">
+        <v>333</v>
+      </c>
+      <c r="F772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D773">
+        <v>15</v>
+      </c>
+      <c r="E773" t="s">
+        <v>334</v>
+      </c>
+      <c r="F773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D774">
+        <v>16</v>
+      </c>
+      <c r="E774" t="s">
+        <v>335</v>
+      </c>
+      <c r="F774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D775">
+        <v>17</v>
+      </c>
+      <c r="E775" t="s">
+        <v>34</v>
+      </c>
+      <c r="F775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D776">
+        <v>18</v>
+      </c>
+      <c r="E776" t="s">
+        <v>336</v>
+      </c>
+      <c r="F776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D777">
+        <v>19</v>
+      </c>
+      <c r="E777" t="s">
+        <v>337</v>
+      </c>
+      <c r="F777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C779" s="4">
+        <v>37</v>
+      </c>
+      <c r="D779">
+        <v>0</v>
+      </c>
+      <c r="E779" t="s">
+        <v>338</v>
+      </c>
+      <c r="F779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D780">
+        <v>1</v>
+      </c>
+      <c r="E780" t="s">
+        <v>34</v>
+      </c>
+      <c r="F780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D781">
+        <v>2</v>
+      </c>
+      <c r="E781" t="s">
+        <v>66</v>
+      </c>
+      <c r="F781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D782">
+        <v>3</v>
+      </c>
+      <c r="E782" t="s">
+        <v>152</v>
+      </c>
+      <c r="F782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D783">
+        <v>4</v>
+      </c>
+      <c r="E783" t="s">
+        <v>339</v>
+      </c>
+      <c r="F783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D784">
+        <v>5</v>
+      </c>
+      <c r="E784" t="s">
+        <v>34</v>
+      </c>
+      <c r="F784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D785">
+        <v>6</v>
+      </c>
+      <c r="E785" t="s">
+        <v>340</v>
+      </c>
+      <c r="F785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D786">
+        <v>7</v>
+      </c>
+      <c r="E786" t="s">
+        <v>341</v>
+      </c>
+      <c r="F786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D787">
+        <v>8</v>
+      </c>
+      <c r="E787" t="s">
+        <v>342</v>
+      </c>
+      <c r="F787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D788">
+        <v>9</v>
+      </c>
+      <c r="E788" t="s">
+        <v>204</v>
+      </c>
+      <c r="F788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D789">
+        <v>10</v>
+      </c>
+      <c r="E789" t="s">
+        <v>343</v>
+      </c>
+      <c r="F789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D790">
+        <v>11</v>
+      </c>
+      <c r="E790" t="s">
+        <v>344</v>
+      </c>
+      <c r="F790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D791">
+        <v>12</v>
+      </c>
+      <c r="E791" t="s">
+        <v>345</v>
+      </c>
+      <c r="F791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D792">
+        <v>13</v>
+      </c>
+      <c r="E792" t="s">
+        <v>346</v>
+      </c>
+      <c r="F792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D793">
+        <v>14</v>
+      </c>
+      <c r="E793" t="s">
+        <v>347</v>
+      </c>
+      <c r="F793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D794">
+        <v>15</v>
+      </c>
+      <c r="E794" t="s">
+        <v>348</v>
+      </c>
+      <c r="F794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D795">
+        <v>16</v>
+      </c>
+      <c r="E795" t="s">
+        <v>174</v>
+      </c>
+      <c r="F795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D796">
+        <v>17</v>
+      </c>
+      <c r="E796" t="s">
+        <v>43</v>
+      </c>
+      <c r="F796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D797">
+        <v>18</v>
+      </c>
+      <c r="E797" t="s">
+        <v>40</v>
+      </c>
+      <c r="F797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D798">
+        <v>19</v>
+      </c>
+      <c r="E798" t="s">
+        <v>349</v>
+      </c>
+      <c r="F798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C800" s="4">
+        <v>38</v>
+      </c>
+      <c r="D800">
+        <v>0</v>
+      </c>
+      <c r="E800" t="s">
+        <v>350</v>
+      </c>
+      <c r="F800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D801">
+        <v>1</v>
+      </c>
+      <c r="E801" t="s">
+        <v>9</v>
+      </c>
+      <c r="F801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D802">
+        <v>2</v>
+      </c>
+      <c r="E802" t="s">
+        <v>351</v>
+      </c>
+      <c r="F802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D803">
+        <v>3</v>
+      </c>
+      <c r="E803" t="s">
+        <v>35</v>
+      </c>
+      <c r="F803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D804">
+        <v>4</v>
+      </c>
+      <c r="E804" t="s">
+        <v>34</v>
+      </c>
+      <c r="F804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D805">
+        <v>5</v>
+      </c>
+      <c r="E805" t="s">
+        <v>34</v>
+      </c>
+      <c r="F805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D806">
+        <v>6</v>
+      </c>
+      <c r="E806" t="s">
+        <v>288</v>
+      </c>
+      <c r="F806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D807">
+        <v>7</v>
+      </c>
+      <c r="E807" t="s">
+        <v>54</v>
+      </c>
+      <c r="F807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D808">
+        <v>8</v>
+      </c>
+      <c r="E808" t="s">
+        <v>352</v>
+      </c>
+      <c r="F808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D809">
+        <v>9</v>
+      </c>
+      <c r="E809" t="s">
+        <v>162</v>
+      </c>
+      <c r="F809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D810">
+        <v>10</v>
+      </c>
+      <c r="E810" t="s">
+        <v>34</v>
+      </c>
+      <c r="F810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D811">
+        <v>11</v>
+      </c>
+      <c r="E811" t="s">
+        <v>43</v>
+      </c>
+      <c r="F811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D812">
+        <v>12</v>
+      </c>
+      <c r="E812" t="s">
+        <v>353</v>
+      </c>
+      <c r="F812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D813">
+        <v>13</v>
+      </c>
+      <c r="E813" t="s">
+        <v>350</v>
+      </c>
+      <c r="F813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D814">
+        <v>14</v>
+      </c>
+      <c r="E814" t="s">
+        <v>354</v>
+      </c>
+      <c r="F814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D815">
+        <v>15</v>
+      </c>
+      <c r="E815" t="s">
+        <v>35</v>
+      </c>
+      <c r="F815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D816">
+        <v>16</v>
+      </c>
+      <c r="E816" t="s">
+        <v>34</v>
+      </c>
+      <c r="F816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D817">
+        <v>17</v>
+      </c>
+      <c r="E817" t="s">
+        <v>9</v>
+      </c>
+      <c r="F817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D818">
+        <v>18</v>
+      </c>
+      <c r="E818" t="s">
+        <v>351</v>
+      </c>
+      <c r="F818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D819">
+        <v>19</v>
+      </c>
+      <c r="E819" t="s">
+        <v>90</v>
+      </c>
+      <c r="F819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C821">
+        <v>39</v>
+      </c>
+      <c r="D821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D823">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D824">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="825" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D825">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="826" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D826">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="827" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D827">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="828" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D828">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="829" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D829">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="830" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D830">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="831" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D831">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="832" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D832">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="833" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D833">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="834" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D834">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="835" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D835">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="836" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D836">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="837" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D837">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="838" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D838">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="839" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D839">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="840" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D840">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E46C47-9F56-4640-BCF4-86C4C7BBBF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB063440-88E3-4DC9-8DB2-1EEA561131AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="401">
   <si>
     <t>word</t>
   </si>
@@ -1100,6 +1100,144 @@
   </si>
   <si>
     <t>[b'store']</t>
+  </si>
+  <si>
+    <t>[b'latest']</t>
+  </si>
+  <si>
+    <t>[b'grows']</t>
+  </si>
+  <si>
+    <t>[b'install']</t>
+  </si>
+  <si>
+    <t>[b'substantially']</t>
+  </si>
+  <si>
+    <t>[b'greatly']</t>
+  </si>
+  <si>
+    <t>[b'contribute']</t>
+  </si>
+  <si>
+    <t>[b'cashflow']</t>
+  </si>
+  <si>
+    <t>[b'paul']</t>
+  </si>
+  <si>
+    <t>[b'president']</t>
+  </si>
+  <si>
+    <t>[b'stated']</t>
+  </si>
+  <si>
+    <t>[b'continues']</t>
+  </si>
+  <si>
+    <t>[b'execute']</t>
+  </si>
+  <si>
+    <t>[b'model']</t>
+  </si>
+  <si>
+    <t>[b'acquiring']</t>
+  </si>
+  <si>
+    <t>[b'generate']</t>
+  </si>
+  <si>
+    <t>[b'significant']</t>
+  </si>
+  <si>
+    <t>[b'returns']</t>
+  </si>
+  <si>
+    <t>[b'video']</t>
+  </si>
+  <si>
+    <t>[b'information']</t>
+  </si>
+  <si>
+    <t>[b'purposes']</t>
+  </si>
+  <si>
+    <t>[b'not']</t>
+  </si>
+  <si>
+    <t>[b'recommendation']</t>
+  </si>
+  <si>
+    <t>[b'buy']</t>
+  </si>
+  <si>
+    <t>[b'sell']</t>
+  </si>
+  <si>
+    <t>[b'sessions']</t>
+  </si>
+  <si>
+    <t>[b'such']</t>
+  </si>
+  <si>
+    <t>[b'breadth']</t>
+  </si>
+  <si>
+    <t>[b'science']</t>
+  </si>
+  <si>
+    <t>[b'build']</t>
+  </si>
+  <si>
+    <t>[b'tap']</t>
+  </si>
+  <si>
+    <t>[b'expansive']</t>
+  </si>
+  <si>
+    <t>[b'knowledge']</t>
+  </si>
+  <si>
+    <t>[b'staying']</t>
+  </si>
+  <si>
+    <t>[b'too']</t>
+  </si>
+  <si>
+    <t>[b'long']</t>
+  </si>
+  <si>
+    <t>[b'area']</t>
+  </si>
+  <si>
+    <t>[b'being']</t>
+  </si>
+  <si>
+    <t>[b'brief']</t>
+  </si>
+  <si>
+    <t>[b'making']</t>
+  </si>
+  <si>
+    <t>[b'adequate']</t>
+  </si>
+  <si>
+    <t>[b'eye']</t>
+  </si>
+  <si>
+    <t>[b'contact']</t>
+  </si>
+  <si>
+    <t>[b'entire']</t>
+  </si>
+  <si>
+    <t>[b'crowd']</t>
+  </si>
+  <si>
+    <t>[b'appropriate']</t>
+  </si>
+  <si>
+    <t>[b'length']</t>
   </si>
 </sst>
 </file>
@@ -1446,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K840"/>
+  <dimension ref="A1:K966"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
-      <selection activeCell="D821" sqref="D821:D840"/>
+    <sheetView tabSelected="1" topLeftCell="A936" workbookViewId="0">
+      <selection activeCell="E958" sqref="E958"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9865,102 +10003,1412 @@
       <c r="C821">
         <v>39</v>
       </c>
-      <c r="D821">
+      <c r="D821" s="2">
         <v>0</v>
       </c>
+      <c r="E821" s="2"/>
+      <c r="F821" s="2"/>
     </row>
     <row r="822" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D822">
-        <v>1</v>
-      </c>
+      <c r="D822" s="2">
+        <v>1</v>
+      </c>
+      <c r="E822" s="2"/>
+      <c r="F822" s="2"/>
     </row>
     <row r="823" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D823">
+      <c r="D823" s="2">
         <v>2</v>
       </c>
+      <c r="E823" s="2"/>
+      <c r="F823" s="2"/>
     </row>
     <row r="824" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D824">
         <v>3</v>
       </c>
+      <c r="E824" t="s">
+        <v>129</v>
+      </c>
+      <c r="F824">
+        <v>1</v>
+      </c>
     </row>
     <row r="825" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D825">
         <v>4</v>
       </c>
+      <c r="E825" t="s">
+        <v>355</v>
+      </c>
+      <c r="F825">
+        <v>1</v>
+      </c>
     </row>
     <row r="826" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D826">
         <v>5</v>
       </c>
+      <c r="E826" t="s">
+        <v>325</v>
+      </c>
+      <c r="F826">
+        <v>1</v>
+      </c>
     </row>
     <row r="827" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D827">
         <v>6</v>
       </c>
+      <c r="E827" t="s">
+        <v>356</v>
+      </c>
+      <c r="F827">
+        <v>1</v>
+      </c>
     </row>
     <row r="828" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D828">
         <v>7</v>
       </c>
+      <c r="E828" t="s">
+        <v>10</v>
+      </c>
+      <c r="F828">
+        <v>1</v>
+      </c>
     </row>
     <row r="829" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D829">
         <v>8</v>
       </c>
+      <c r="E829" t="s">
+        <v>357</v>
+      </c>
+      <c r="F829">
+        <v>1</v>
+      </c>
     </row>
     <row r="830" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D830">
         <v>9</v>
       </c>
+      <c r="E830" t="s">
+        <v>342</v>
+      </c>
+      <c r="F830">
+        <v>1</v>
+      </c>
     </row>
     <row r="831" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D831">
         <v>10</v>
       </c>
+      <c r="E831" t="s">
+        <v>358</v>
+      </c>
+      <c r="F831">
+        <v>1</v>
+      </c>
     </row>
     <row r="832" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D832">
         <v>11</v>
       </c>
-    </row>
-    <row r="833" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E832" t="s">
+        <v>34</v>
+      </c>
+      <c r="F832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D833">
         <v>12</v>
       </c>
-    </row>
-    <row r="834" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E833" t="s">
+        <v>293</v>
+      </c>
+      <c r="F833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D834">
         <v>13</v>
       </c>
-    </row>
-    <row r="835" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E834" t="s">
+        <v>359</v>
+      </c>
+      <c r="F834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D835">
         <v>14</v>
       </c>
-    </row>
-    <row r="836" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E835" t="s">
+        <v>360</v>
+      </c>
+      <c r="F835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D836">
         <v>15</v>
       </c>
-    </row>
-    <row r="837" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E836" t="s">
+        <v>40</v>
+      </c>
+      <c r="F836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D837">
         <v>16</v>
       </c>
-    </row>
-    <row r="838" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D838">
+      <c r="E837" t="s">
+        <v>43</v>
+      </c>
+      <c r="F837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D838" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="839" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E838" s="2"/>
+      <c r="F838" s="2"/>
+    </row>
+    <row r="839" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D839">
         <v>18</v>
       </c>
-    </row>
-    <row r="840" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E839" t="s">
+        <v>346</v>
+      </c>
+      <c r="F839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D840">
+        <v>19</v>
+      </c>
+      <c r="E840" t="s">
+        <v>361</v>
+      </c>
+      <c r="F840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C842" s="4">
+        <v>40</v>
+      </c>
+      <c r="D842">
+        <v>0</v>
+      </c>
+      <c r="E842" t="s">
+        <v>362</v>
+      </c>
+      <c r="F842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D843">
+        <v>1</v>
+      </c>
+      <c r="E843" t="s">
+        <v>363</v>
+      </c>
+      <c r="F843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D844">
+        <v>2</v>
+      </c>
+      <c r="E844" t="s">
+        <v>364</v>
+      </c>
+      <c r="F844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D845">
+        <v>3</v>
+      </c>
+      <c r="E845" t="s">
+        <v>365</v>
+      </c>
+      <c r="F845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D846">
+        <v>4</v>
+      </c>
+      <c r="E846" t="s">
+        <v>40</v>
+      </c>
+      <c r="F846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D847">
+        <v>5</v>
+      </c>
+      <c r="E847" t="s">
+        <v>366</v>
+      </c>
+      <c r="F847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D848">
+        <v>6</v>
+      </c>
+      <c r="E848" t="s">
+        <v>141</v>
+      </c>
+      <c r="F848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D849">
+        <v>7</v>
+      </c>
+      <c r="E849" t="s">
+        <v>299</v>
+      </c>
+      <c r="F849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D850">
+        <v>8</v>
+      </c>
+      <c r="E850" t="s">
+        <v>367</v>
+      </c>
+      <c r="F850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D851">
+        <v>9</v>
+      </c>
+      <c r="E851" t="s">
+        <v>62</v>
+      </c>
+      <c r="F851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D852">
+        <v>10</v>
+      </c>
+      <c r="E852" t="s">
+        <v>368</v>
+      </c>
+      <c r="F852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D853">
+        <v>11</v>
+      </c>
+      <c r="E853" t="s">
+        <v>338</v>
+      </c>
+      <c r="F853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D854">
+        <v>12</v>
+      </c>
+      <c r="E854" t="s">
+        <v>8</v>
+      </c>
+      <c r="F854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D855">
+        <v>13</v>
+      </c>
+      <c r="E855" t="s">
+        <v>293</v>
+      </c>
+      <c r="F855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D856">
+        <v>14</v>
+      </c>
+      <c r="E856" t="s">
+        <v>369</v>
+      </c>
+      <c r="F856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D857">
+        <v>15</v>
+      </c>
+      <c r="E857" t="s">
+        <v>370</v>
+      </c>
+      <c r="F857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D858">
+        <v>16</v>
+      </c>
+      <c r="E858" t="s">
+        <v>371</v>
+      </c>
+      <c r="F858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D859">
+        <v>17</v>
+      </c>
+      <c r="E859" t="s">
+        <v>35</v>
+      </c>
+      <c r="F859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D860">
+        <v>18</v>
+      </c>
+      <c r="E860" t="s">
+        <v>43</v>
+      </c>
+      <c r="F860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D861">
+        <v>19</v>
+      </c>
+      <c r="E861" t="s">
+        <v>240</v>
+      </c>
+      <c r="F861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C863" s="4">
+        <v>41</v>
+      </c>
+      <c r="D863">
+        <v>0</v>
+      </c>
+      <c r="E863" t="s">
+        <v>113</v>
+      </c>
+      <c r="F863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D864">
+        <v>1</v>
+      </c>
+      <c r="E864" t="s">
+        <v>90</v>
+      </c>
+      <c r="F864">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D865">
+        <v>2</v>
+      </c>
+      <c r="E865" t="s">
+        <v>129</v>
+      </c>
+      <c r="F865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D866">
+        <v>3</v>
+      </c>
+      <c r="E866" t="s">
+        <v>372</v>
+      </c>
+      <c r="F866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D867">
+        <v>4</v>
+      </c>
+      <c r="E867" t="s">
+        <v>9</v>
+      </c>
+      <c r="F867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D868">
+        <v>5</v>
+      </c>
+      <c r="E868" t="s">
+        <v>35</v>
+      </c>
+      <c r="F868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D869">
+        <v>6</v>
+      </c>
+      <c r="E869" t="s">
+        <v>373</v>
+      </c>
+      <c r="F869">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D870">
+        <v>7</v>
+      </c>
+      <c r="E870" t="s">
+        <v>374</v>
+      </c>
+      <c r="F870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D871">
+        <v>8</v>
+      </c>
+      <c r="E871" t="s">
+        <v>21</v>
+      </c>
+      <c r="F871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D872">
+        <v>9</v>
+      </c>
+      <c r="E872" t="s">
+        <v>34</v>
+      </c>
+      <c r="F872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D873">
+        <v>10</v>
+      </c>
+      <c r="E873" t="s">
+        <v>241</v>
+      </c>
+      <c r="F873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D874">
+        <v>11</v>
+      </c>
+      <c r="E874" t="s">
+        <v>375</v>
+      </c>
+      <c r="F874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D875">
+        <v>12</v>
+      </c>
+      <c r="E875" t="s">
+        <v>68</v>
+      </c>
+      <c r="F875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D876">
+        <v>13</v>
+      </c>
+      <c r="E876" t="s">
+        <v>376</v>
+      </c>
+      <c r="F876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D877">
+        <v>14</v>
+      </c>
+      <c r="E877" t="s">
+        <v>40</v>
+      </c>
+      <c r="F877">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D878">
+        <v>15</v>
+      </c>
+      <c r="E878" t="s">
+        <v>377</v>
+      </c>
+      <c r="F878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D879">
+        <v>16</v>
+      </c>
+      <c r="E879" t="s">
+        <v>252</v>
+      </c>
+      <c r="F879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D880">
+        <v>17</v>
+      </c>
+      <c r="E880" t="s">
+        <v>378</v>
+      </c>
+      <c r="F880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D881">
+        <v>18</v>
+      </c>
+      <c r="E881" t="s">
+        <v>97</v>
+      </c>
+      <c r="F881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D882">
+        <v>19</v>
+      </c>
+      <c r="E882" t="s">
+        <v>307</v>
+      </c>
+      <c r="F882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C884" s="4">
+        <v>42</v>
+      </c>
+      <c r="D884">
+        <v>0</v>
+      </c>
+      <c r="E884" t="s">
+        <v>379</v>
+      </c>
+      <c r="F884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D885">
+        <v>1</v>
+      </c>
+      <c r="E885" t="s">
+        <v>36</v>
+      </c>
+      <c r="F885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D886">
+        <v>2</v>
+      </c>
+      <c r="E886" t="s">
+        <v>282</v>
+      </c>
+      <c r="F886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D887">
+        <v>3</v>
+      </c>
+      <c r="E887" t="s">
+        <v>380</v>
+      </c>
+      <c r="F887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D888">
+        <v>4</v>
+      </c>
+      <c r="E888" t="s">
+        <v>68</v>
+      </c>
+      <c r="F888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D889">
+        <v>5</v>
+      </c>
+      <c r="E889" t="s">
+        <v>381</v>
+      </c>
+      <c r="F889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D890">
+        <v>6</v>
+      </c>
+      <c r="E890" t="s">
+        <v>62</v>
+      </c>
+      <c r="F890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D891">
+        <v>7</v>
+      </c>
+      <c r="E891" t="s">
+        <v>382</v>
+      </c>
+      <c r="F891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D892">
+        <v>8</v>
+      </c>
+      <c r="E892" t="s">
+        <v>8</v>
+      </c>
+      <c r="F892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D893">
+        <v>9</v>
+      </c>
+      <c r="E893" t="s">
+        <v>36</v>
+      </c>
+      <c r="F893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D894">
+        <v>10</v>
+      </c>
+      <c r="E894" t="s">
+        <v>285</v>
+      </c>
+      <c r="F894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D895">
+        <v>11</v>
+      </c>
+      <c r="E895" t="s">
+        <v>288</v>
+      </c>
+      <c r="F895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D896">
+        <v>12</v>
+      </c>
+      <c r="E896" t="s">
+        <v>383</v>
+      </c>
+      <c r="F896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D897">
+        <v>13</v>
+      </c>
+      <c r="E897" t="s">
+        <v>34</v>
+      </c>
+      <c r="F897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D898">
+        <v>14</v>
+      </c>
+      <c r="E898" t="s">
+        <v>384</v>
+      </c>
+      <c r="F898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D899">
+        <v>15</v>
+      </c>
+      <c r="E899" t="s">
+        <v>179</v>
+      </c>
+      <c r="F899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D900">
+        <v>16</v>
+      </c>
+      <c r="E900" t="s">
+        <v>8</v>
+      </c>
+      <c r="F900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D901">
+        <v>17</v>
+      </c>
+      <c r="E901" t="s">
+        <v>285</v>
+      </c>
+      <c r="F901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D902">
+        <v>18</v>
+      </c>
+      <c r="E902" t="s">
+        <v>385</v>
+      </c>
+      <c r="F902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D903">
+        <v>19</v>
+      </c>
+      <c r="E903" t="s">
+        <v>386</v>
+      </c>
+      <c r="F903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C905" s="4">
+        <v>43</v>
+      </c>
+      <c r="D905">
+        <v>0</v>
+      </c>
+      <c r="E905" t="s">
+        <v>60</v>
+      </c>
+      <c r="F905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D906">
+        <v>1</v>
+      </c>
+      <c r="E906" t="s">
+        <v>185</v>
+      </c>
+      <c r="F906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D907">
+        <v>2</v>
+      </c>
+      <c r="E907" t="s">
+        <v>60</v>
+      </c>
+      <c r="F907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D908">
+        <v>3</v>
+      </c>
+      <c r="E908" t="s">
+        <v>375</v>
+      </c>
+      <c r="F908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D909">
+        <v>4</v>
+      </c>
+      <c r="E909" t="s">
+        <v>387</v>
+      </c>
+      <c r="F909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D910">
+        <v>5</v>
+      </c>
+      <c r="E910" t="s">
+        <v>388</v>
+      </c>
+      <c r="F910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D911">
+        <v>6</v>
+      </c>
+      <c r="E911" t="s">
+        <v>389</v>
+      </c>
+      <c r="F911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D912">
+        <v>7</v>
+      </c>
+      <c r="E912" t="s">
+        <v>12</v>
+      </c>
+      <c r="F912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D913">
+        <v>8</v>
+      </c>
+      <c r="E913" t="s">
+        <v>68</v>
+      </c>
+      <c r="F913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D914">
+        <v>9</v>
+      </c>
+      <c r="E914" t="s">
+        <v>118</v>
+      </c>
+      <c r="F914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D915">
+        <v>10</v>
+      </c>
+      <c r="E915" t="s">
+        <v>390</v>
+      </c>
+      <c r="F915">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D916">
+        <v>11</v>
+      </c>
+      <c r="E916" t="s">
+        <v>252</v>
+      </c>
+      <c r="F916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D917">
+        <v>12</v>
+      </c>
+      <c r="E917" t="s">
+        <v>375</v>
+      </c>
+      <c r="F917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D918">
+        <v>13</v>
+      </c>
+      <c r="E918" t="s">
+        <v>391</v>
+      </c>
+      <c r="F918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D919">
+        <v>14</v>
+      </c>
+      <c r="E919" t="s">
+        <v>388</v>
+      </c>
+      <c r="F919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D920">
+        <v>15</v>
+      </c>
+      <c r="E920" t="s">
+        <v>392</v>
+      </c>
+      <c r="F920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D921">
+        <v>16</v>
+      </c>
+      <c r="E921" t="s">
+        <v>12</v>
+      </c>
+      <c r="F921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D922">
+        <v>17</v>
+      </c>
+      <c r="E922" t="s">
+        <v>68</v>
+      </c>
+      <c r="F922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D923">
+        <v>18</v>
+      </c>
+      <c r="E923" t="s">
+        <v>118</v>
+      </c>
+      <c r="F923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D924">
+        <v>19</v>
+      </c>
+      <c r="E924" t="s">
+        <v>390</v>
+      </c>
+      <c r="F924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C926">
+        <v>44</v>
+      </c>
+      <c r="D926" s="2">
+        <v>0</v>
+      </c>
+      <c r="E926" s="2"/>
+      <c r="F926" s="2"/>
+    </row>
+    <row r="927" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D927" s="2">
+        <v>1</v>
+      </c>
+      <c r="E927" s="2"/>
+      <c r="F927" s="2"/>
+    </row>
+    <row r="928" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D928" s="2">
+        <v>2</v>
+      </c>
+      <c r="E928" s="2"/>
+      <c r="F928" s="2"/>
+    </row>
+    <row r="929" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D929">
+        <v>3</v>
+      </c>
+      <c r="E929" t="s">
+        <v>34</v>
+      </c>
+      <c r="F929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D930">
+        <v>4</v>
+      </c>
+      <c r="E930" t="s">
+        <v>6</v>
+      </c>
+      <c r="F930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D931">
+        <v>5</v>
+      </c>
+      <c r="E931" t="s">
+        <v>36</v>
+      </c>
+      <c r="F931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D932">
+        <v>6</v>
+      </c>
+      <c r="E932" t="s">
+        <v>393</v>
+      </c>
+      <c r="F932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D933">
+        <v>7</v>
+      </c>
+      <c r="E933" t="s">
+        <v>394</v>
+      </c>
+      <c r="F933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D934">
+        <v>8</v>
+      </c>
+      <c r="E934" t="s">
+        <v>395</v>
+      </c>
+      <c r="F934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D935">
+        <v>9</v>
+      </c>
+      <c r="E935" t="s">
+        <v>396</v>
+      </c>
+      <c r="F935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D936">
+        <v>10</v>
+      </c>
+      <c r="E936" t="s">
+        <v>182</v>
+      </c>
+      <c r="F936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D937">
+        <v>11</v>
+      </c>
+      <c r="E937" t="s">
+        <v>43</v>
+      </c>
+      <c r="F937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D938">
+        <v>12</v>
+      </c>
+      <c r="E938" t="s">
+        <v>397</v>
+      </c>
+      <c r="F938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D939">
+        <v>13</v>
+      </c>
+      <c r="E939" t="s">
+        <v>398</v>
+      </c>
+      <c r="F939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D940">
+        <v>14</v>
+      </c>
+      <c r="E940" t="s">
+        <v>35</v>
+      </c>
+      <c r="F940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D941">
+        <v>15</v>
+      </c>
+      <c r="E941" t="s">
+        <v>152</v>
+      </c>
+      <c r="F941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D942">
+        <v>16</v>
+      </c>
+      <c r="E942" t="s">
+        <v>399</v>
+      </c>
+      <c r="F942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D943">
+        <v>17</v>
+      </c>
+      <c r="E943" t="s">
+        <v>400</v>
+      </c>
+      <c r="F943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D944">
+        <v>18</v>
+      </c>
+      <c r="E944" t="s">
+        <v>62</v>
+      </c>
+      <c r="F944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D945">
+        <v>19</v>
+      </c>
+      <c r="E945" t="s">
+        <v>194</v>
+      </c>
+      <c r="F945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C947">
+        <v>45</v>
+      </c>
+      <c r="D947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D949">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="950" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D950">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="951" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D951">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="952" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D952">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="953" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D953">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="954" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D954">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="955" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D955">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="956" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D956">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="957" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D957">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="958" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D958">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="959" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D959">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="960" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D960">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="961" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D961">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="962" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D962">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="963" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D963">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="964" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D964">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="965" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D965">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="966" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D966">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB063440-88E3-4DC9-8DB2-1EEA561131AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A481F6-C296-49C1-BA0F-461948E72499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="441">
   <si>
     <t>word</t>
   </si>
@@ -1238,6 +1238,126 @@
   </si>
   <si>
     <t>[b'length']</t>
+  </si>
+  <si>
+    <t>[b'done']</t>
+  </si>
+  <si>
+    <t>[b'tape']</t>
+  </si>
+  <si>
+    <t>[b'pay']</t>
+  </si>
+  <si>
+    <t>[b'attention']</t>
+  </si>
+  <si>
+    <t>[b'your']</t>
+  </si>
+  <si>
+    <t>[b'body']</t>
+  </si>
+  <si>
+    <t>[b'leading']</t>
+  </si>
+  <si>
+    <t>[b'questions']</t>
+  </si>
+  <si>
+    <t>[b'client']</t>
+  </si>
+  <si>
+    <t>[b'admit']</t>
+  </si>
+  <si>
+    <t>[b'otherwise']</t>
+  </si>
+  <si>
+    <t>[b'might']</t>
+  </si>
+  <si>
+    <t>[b'withheld']</t>
+  </si>
+  <si>
+    <t>[b'yes']</t>
+  </si>
+  <si>
+    <t>[b'no']</t>
+  </si>
+  <si>
+    <t>[b'helped']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[b'the'] </t>
+  </si>
+  <si>
+    <t>[b'interviewer']</t>
+  </si>
+  <si>
+    <t>[b'establish']</t>
+  </si>
+  <si>
+    <t>[b'clarity']</t>
+  </si>
+  <si>
+    <t>[b'details']</t>
+  </si>
+  <si>
+    <t>[b'discussed']</t>
+  </si>
+  <si>
+    <t>____ ____ ____ ____ ____ ____ ____ ____ ____ ____ ____ to learn more please visit our website at there</t>
+  </si>
+  <si>
+    <t>the conclusion of the process however that individual ____ receive the specific disciplinary outcome if any of the investigation to</t>
+  </si>
+  <si>
+    <t>____ us but people around the world and think ____ a great moment in the history of this planet basically</t>
+  </si>
+  <si>
+    <t>____ ____ ____ ____ ____ ____ ____ ____ ____ ____ ____ ____ ____ for the complete article please go to</t>
+  </si>
+  <si>
+    <t>of fame demonstrating the ____ continued commitment to ____ advancement and showcasing its programs and policies that benefit working parents</t>
+  </si>
+  <si>
+    <t>____ ____ i love ____ writing and if ____ let me ____ be an opportunity to move to new york</t>
+  </si>
+  <si>
+    <t>also did supplemental magazines and now ____ working on doing innovative library books and online products for librarians at scholastic</t>
+  </si>
+  <si>
+    <t>____ ____ and then another friend of mine from the workshop at columbia recommended me for the job at scholastic</t>
+  </si>
+  <si>
+    <t>into writing by taking this extraordinary workshop with a teacher editor and well known professor at columbia named gordon lish</t>
+  </si>
+  <si>
+    <t>was an opportunity at golden books and would i like to go there and be a part time assistant editor</t>
+  </si>
+  <si>
+    <t>following that i took time and had the most glorious experience of my life which was to have our daughter</t>
+  </si>
+  <si>
+    <t>wrote ____ books for their licensed characters like chip the teacup and frosty the snowman and those types of books</t>
+  </si>
+  <si>
+    <t>jim henson workshops and i worked with the muppets on the muppets take manhattan as one of the background puppeteers</t>
+  </si>
+  <si>
+    <t>[b'example']</t>
+  </si>
+  <si>
+    <t>[b'reluctant']</t>
+  </si>
+  <si>
+    <t>[b'her']</t>
+  </si>
+  <si>
+    <t>[b'ex']</t>
+  </si>
+  <si>
+    <t>[b'stole']</t>
   </si>
 </sst>
 </file>
@@ -1584,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K966"/>
+  <dimension ref="A1:K1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A936" workbookViewId="0">
-      <selection activeCell="E958" sqref="E958"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="F1039" sqref="F1039"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3718,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D209">
         <v>18</v>
       </c>
@@ -3729,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D210">
         <v>19</v>
       </c>
@@ -3740,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C212">
         <v>10</v>
       </c>
@@ -3749,78 +3869,81 @@
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
-    </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D213" s="2">
         <v>1</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D214" s="2">
         <v>2</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D215" s="2">
         <v>3</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D216" s="2">
         <v>4</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D217" s="2">
         <v>5</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D218" s="2">
         <v>6</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D219" s="2">
         <v>7</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D220" s="2">
         <v>8</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D221" s="2">
         <v>9</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D222" s="2">
         <v>10</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D223">
         <v>11</v>
       </c>
@@ -3831,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D224">
         <v>12</v>
       </c>
@@ -3842,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D225">
         <v>13</v>
       </c>
@@ -3853,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D226">
         <v>14</v>
       </c>
@@ -3864,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D227">
         <v>15</v>
       </c>
@@ -3875,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D228">
         <v>16</v>
       </c>
@@ -3886,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D229">
         <v>17</v>
       </c>
@@ -3897,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D230">
         <v>18</v>
       </c>
@@ -3908,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D231">
         <v>19</v>
       </c>
@@ -3919,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C233">
         <v>11</v>
       </c>
@@ -3932,8 +4055,11 @@
       <c r="F233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="234" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D234">
         <v>1</v>
       </c>
@@ -3944,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D235">
         <v>2</v>
       </c>
@@ -3955,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D236">
         <v>3</v>
       </c>
@@ -3966,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D237">
         <v>4</v>
       </c>
@@ -3977,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D238">
         <v>5</v>
       </c>
@@ -3988,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D239">
         <v>6</v>
       </c>
@@ -3999,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D240">
         <v>7</v>
       </c>
@@ -4010,14 +4136,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D241" s="2">
         <v>8</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
     </row>
-    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D242">
         <v>9</v>
       </c>
@@ -4028,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D243">
         <v>10</v>
       </c>
@@ -4039,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D244">
         <v>11</v>
       </c>
@@ -4050,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D245">
         <v>12</v>
       </c>
@@ -4061,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D246">
         <v>13</v>
       </c>
@@ -4072,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D247">
         <v>14</v>
       </c>
@@ -4083,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D248">
         <v>15</v>
       </c>
@@ -4094,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D249">
         <v>16</v>
       </c>
@@ -4105,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D250">
         <v>17</v>
       </c>
@@ -4116,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D251">
         <v>18</v>
       </c>
@@ -4127,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D252">
         <v>19</v>
       </c>
@@ -4138,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C254">
         <v>12</v>
       </c>
@@ -4147,8 +4273,11 @@
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
-    </row>
-    <row r="255" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G254" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="255" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D255">
         <v>1</v>
       </c>
@@ -4159,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D256">
         <v>2</v>
       </c>
@@ -4342,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D273">
         <v>19</v>
       </c>
@@ -4353,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C275">
         <v>13</v>
       </c>
@@ -4362,92 +4491,95 @@
       </c>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
-    </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G275" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="276" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D276" s="2">
         <v>1</v>
       </c>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D277" s="2">
         <v>2</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D278" s="2">
         <v>3</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
     </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D279" s="2">
         <v>4</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D280" s="2">
         <v>5</v>
       </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
-    <row r="281" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D281" s="2">
         <v>6</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
     </row>
-    <row r="282" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D282" s="2">
         <v>7</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
-    <row r="283" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D283" s="2">
         <v>8</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D284" s="2">
         <v>9</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
-    <row r="285" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D285" s="2">
         <v>10</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
     </row>
-    <row r="286" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D286" s="2">
         <v>11</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D287" s="2">
         <v>12</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D288">
         <v>13</v>
       </c>
@@ -4458,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D289">
         <v>14</v>
       </c>
@@ -4469,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D290">
         <v>15</v>
       </c>
@@ -4480,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D291">
         <v>16</v>
       </c>
@@ -4491,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D292">
         <v>17</v>
       </c>
@@ -4502,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D293">
         <v>18</v>
       </c>
@@ -4513,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D294">
         <v>19</v>
       </c>
@@ -4524,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C296">
         <v>14</v>
       </c>
@@ -4537,8 +4669,11 @@
       <c r="F296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G296" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="297" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D297">
         <v>1</v>
       </c>
@@ -4549,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D298">
         <v>2</v>
       </c>
@@ -4560,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D299">
         <v>3</v>
       </c>
@@ -4571,14 +4706,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D300" s="2">
         <v>4</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
     </row>
-    <row r="301" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D301">
         <v>5</v>
       </c>
@@ -4589,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D302">
         <v>6</v>
       </c>
@@ -4600,7 +4735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D303">
         <v>7</v>
       </c>
@@ -4611,14 +4746,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D304" s="2">
         <v>8</v>
       </c>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D305">
         <v>9</v>
       </c>
@@ -4629,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D306">
         <v>10</v>
       </c>
@@ -4640,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D307">
         <v>11</v>
       </c>
@@ -4651,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D308">
         <v>12</v>
       </c>
@@ -4662,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D309">
         <v>13</v>
       </c>
@@ -4673,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D310">
         <v>14</v>
       </c>
@@ -4684,7 +4819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D311">
         <v>15</v>
       </c>
@@ -4695,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D312">
         <v>16</v>
       </c>
@@ -4706,7 +4841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D313">
         <v>17</v>
       </c>
@@ -4717,7 +4852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D314">
         <v>18</v>
       </c>
@@ -4728,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D315">
         <v>19</v>
       </c>
@@ -4739,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C317">
         <v>15</v>
       </c>
@@ -4748,15 +4883,18 @@
       </c>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
-    </row>
-    <row r="318" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G317" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="318" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D318" s="2">
         <v>1</v>
       </c>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
     </row>
-    <row r="319" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D319">
         <v>2</v>
       </c>
@@ -4767,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D320">
         <v>3</v>
       </c>
@@ -4942,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C338">
         <v>16</v>
       </c>
@@ -4955,8 +5093,11 @@
       <c r="F338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G338" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="339" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D339">
         <v>1</v>
       </c>
@@ -4967,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D340">
         <v>2</v>
       </c>
@@ -4978,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D341">
         <v>3</v>
       </c>
@@ -4989,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D342">
         <v>4</v>
       </c>
@@ -5000,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D343">
         <v>5</v>
       </c>
@@ -5011,14 +5152,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D344" s="2">
         <v>6</v>
       </c>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D345">
         <v>7</v>
       </c>
@@ -5029,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D346">
         <v>8</v>
       </c>
@@ -5040,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D347">
         <v>9</v>
       </c>
@@ -5051,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D348">
         <v>10</v>
       </c>
@@ -5062,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D349">
         <v>11</v>
       </c>
@@ -5073,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D350">
         <v>12</v>
       </c>
@@ -5084,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D351">
         <v>13</v>
       </c>
@@ -5095,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D352">
         <v>14</v>
       </c>
@@ -5106,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D353">
         <v>15</v>
       </c>
@@ -5117,7 +5258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D354">
         <v>16</v>
       </c>
@@ -5128,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D355">
         <v>17</v>
       </c>
@@ -5139,7 +5280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D356">
         <v>18</v>
       </c>
@@ -5150,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D357">
         <v>19</v>
       </c>
@@ -5161,7 +5302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C359">
         <v>17</v>
       </c>
@@ -5170,15 +5311,18 @@
       </c>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
-    </row>
-    <row r="360" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G359" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="360" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D360" s="2">
         <v>1</v>
       </c>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
     </row>
-    <row r="361" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D361">
         <v>2</v>
       </c>
@@ -5189,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D362">
         <v>3</v>
       </c>
@@ -5200,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D363">
         <v>4</v>
       </c>
@@ -5211,7 +5355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D364">
         <v>5</v>
       </c>
@@ -5222,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D365">
         <v>6</v>
       </c>
@@ -5233,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D366">
         <v>7</v>
       </c>
@@ -5244,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D367">
         <v>8</v>
       </c>
@@ -5255,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D368">
         <v>9</v>
       </c>
@@ -5266,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D369">
         <v>10</v>
       </c>
@@ -5277,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D370">
         <v>11</v>
       </c>
@@ -5288,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D371">
         <v>12</v>
       </c>
@@ -5299,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D372">
         <v>13</v>
       </c>
@@ -5310,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D373">
         <v>14</v>
       </c>
@@ -5321,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D374">
         <v>15</v>
       </c>
@@ -5332,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D375">
         <v>16</v>
       </c>
@@ -5343,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D376">
         <v>17</v>
       </c>
@@ -5354,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D377">
         <v>18</v>
       </c>
@@ -5365,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D378">
         <v>19</v>
       </c>
@@ -5376,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C380" s="4">
         <v>18</v>
       </c>
@@ -5389,8 +5533,11 @@
       <c r="F380">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G380" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="381" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D381">
         <v>1</v>
       </c>
@@ -5401,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D382">
         <v>2</v>
       </c>
@@ -5412,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D383">
         <v>3</v>
       </c>
@@ -5423,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D384">
         <v>4</v>
       </c>
@@ -5599,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C401" s="4">
         <v>19</v>
       </c>
@@ -5612,8 +5759,11 @@
       <c r="F401">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G401" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="402" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D402">
         <v>1</v>
       </c>
@@ -5624,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D403">
         <v>2</v>
       </c>
@@ -5635,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D404">
         <v>3</v>
       </c>
@@ -5646,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D405">
         <v>4</v>
       </c>
@@ -5657,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D406">
         <v>5</v>
       </c>
@@ -5668,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D407">
         <v>6</v>
       </c>
@@ -5679,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D408">
         <v>7</v>
       </c>
@@ -5690,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D409">
         <v>8</v>
       </c>
@@ -5701,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D410">
         <v>9</v>
       </c>
@@ -5712,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D411">
         <v>10</v>
       </c>
@@ -5723,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D412">
         <v>11</v>
       </c>
@@ -5734,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D413">
         <v>12</v>
       </c>
@@ -5745,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D414">
         <v>13</v>
       </c>
@@ -5756,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D415">
         <v>14</v>
       </c>
@@ -5767,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D416">
         <v>15</v>
       </c>
@@ -5778,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D417">
         <v>16</v>
       </c>
@@ -5789,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D418">
         <v>17</v>
       </c>
@@ -5800,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D419">
         <v>18</v>
       </c>
@@ -5811,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D420">
         <v>19</v>
       </c>
@@ -5822,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C422" s="4">
         <v>20</v>
       </c>
@@ -5835,8 +5985,11 @@
       <c r="F422">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G422" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="423" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D423">
         <v>1</v>
       </c>
@@ -5847,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D424">
         <v>2</v>
       </c>
@@ -5858,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D425">
         <v>3</v>
       </c>
@@ -5869,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D426">
         <v>4</v>
       </c>
@@ -5880,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D427">
         <v>5</v>
       </c>
@@ -5891,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D428">
         <v>6</v>
       </c>
@@ -5902,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D429">
         <v>7</v>
       </c>
@@ -5913,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D430">
         <v>8</v>
       </c>
@@ -5924,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D431">
         <v>9</v>
       </c>
@@ -5935,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D432">
         <v>10</v>
       </c>
@@ -5946,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D433">
         <v>11</v>
       </c>
@@ -5957,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D434">
         <v>12</v>
       </c>
@@ -5968,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D435">
         <v>13</v>
       </c>
@@ -5979,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D436">
         <v>14</v>
       </c>
@@ -5990,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D437">
         <v>15</v>
       </c>
@@ -6001,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D438">
         <v>16</v>
       </c>
@@ -6012,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D439">
         <v>17</v>
       </c>
@@ -6023,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D440">
         <v>18</v>
       </c>
@@ -6034,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D441">
         <v>19</v>
       </c>
@@ -6045,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C443">
         <v>21</v>
       </c>
@@ -6058,15 +6211,18 @@
       <c r="F443">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G443" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="444" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D444" s="2">
         <v>1</v>
       </c>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
     </row>
-    <row r="445" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D445">
         <v>2</v>
       </c>
@@ -6077,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D446">
         <v>3</v>
       </c>
@@ -6088,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D447">
         <v>4</v>
       </c>
@@ -6099,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D448">
         <v>5</v>
       </c>
@@ -6110,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D449">
         <v>6</v>
       </c>
@@ -6121,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D450">
         <v>7</v>
       </c>
@@ -6132,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D451">
         <v>8</v>
       </c>
@@ -6143,7 +6299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D452">
         <v>9</v>
       </c>
@@ -6154,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D453">
         <v>10</v>
       </c>
@@ -6165,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D454">
         <v>11</v>
       </c>
@@ -6176,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D455">
         <v>12</v>
       </c>
@@ -6187,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D456">
         <v>13</v>
       </c>
@@ -6198,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D457">
         <v>14</v>
       </c>
@@ -6209,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D458">
         <v>15</v>
       </c>
@@ -6220,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D459">
         <v>16</v>
       </c>
@@ -6231,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D460">
         <v>17</v>
       </c>
@@ -6242,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D461">
         <v>18</v>
       </c>
@@ -6253,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D462">
         <v>19</v>
       </c>
@@ -6264,7 +6420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C464" s="4">
         <v>22</v>
       </c>
@@ -6276,6 +6432,9 @@
       </c>
       <c r="F464">
         <v>1</v>
+      </c>
+      <c r="G464" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="465" spans="4:6" x14ac:dyDescent="0.25">
@@ -11313,102 +11472,906 @@
       <c r="C947">
         <v>45</v>
       </c>
-      <c r="D947">
+      <c r="D947" s="2">
         <v>0</v>
       </c>
+      <c r="E947" s="2"/>
+      <c r="F947" s="2"/>
     </row>
     <row r="948" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D948">
-        <v>1</v>
-      </c>
+      <c r="D948" s="2">
+        <v>1</v>
+      </c>
+      <c r="E948" s="2"/>
+      <c r="F948" s="2"/>
     </row>
     <row r="949" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D949">
+      <c r="D949" s="2">
         <v>2</v>
       </c>
+      <c r="E949" s="2"/>
+      <c r="F949" s="2"/>
     </row>
     <row r="950" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D950">
+      <c r="D950" s="2">
         <v>3</v>
       </c>
+      <c r="E950" s="2"/>
+      <c r="F950" s="2"/>
     </row>
     <row r="951" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D951">
         <v>4</v>
       </c>
+      <c r="E951" t="s">
+        <v>226</v>
+      </c>
+      <c r="F951">
+        <v>1</v>
+      </c>
     </row>
     <row r="952" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D952">
         <v>5</v>
       </c>
+      <c r="E952" t="s">
+        <v>120</v>
+      </c>
+      <c r="F952">
+        <v>1</v>
+      </c>
     </row>
     <row r="953" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D953">
+      <c r="D953" s="2">
         <v>6</v>
       </c>
+      <c r="E953" s="2"/>
+      <c r="F953" s="2"/>
     </row>
     <row r="954" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D954">
         <v>7</v>
       </c>
+      <c r="E954" t="s">
+        <v>401</v>
+      </c>
+      <c r="F954">
+        <v>1</v>
+      </c>
     </row>
     <row r="955" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D955">
         <v>8</v>
       </c>
+      <c r="E955" t="s">
+        <v>68</v>
+      </c>
+      <c r="F955">
+        <v>1</v>
+      </c>
     </row>
     <row r="956" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D956">
         <v>9</v>
       </c>
+      <c r="E956" t="s">
+        <v>372</v>
+      </c>
+      <c r="F956">
+        <v>1</v>
+      </c>
     </row>
     <row r="957" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D957">
         <v>10</v>
       </c>
+      <c r="E957" t="s">
+        <v>402</v>
+      </c>
+      <c r="F957">
+        <v>1</v>
+      </c>
     </row>
     <row r="958" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D958">
         <v>11</v>
       </c>
+      <c r="E958" t="s">
+        <v>403</v>
+      </c>
+      <c r="F958">
+        <v>1</v>
+      </c>
     </row>
     <row r="959" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D959">
         <v>12</v>
       </c>
+      <c r="E959" t="s">
+        <v>404</v>
+      </c>
+      <c r="F959">
+        <v>1</v>
+      </c>
     </row>
     <row r="960" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D960">
         <v>13</v>
       </c>
-    </row>
-    <row r="961" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E960" t="s">
+        <v>40</v>
+      </c>
+      <c r="F960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D961">
         <v>14</v>
       </c>
-    </row>
-    <row r="962" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D962">
+      <c r="E961" t="s">
+        <v>11</v>
+      </c>
+      <c r="F961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D962" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="963" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E962" s="2"/>
+      <c r="F962" s="2"/>
+    </row>
+    <row r="963" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D963">
         <v>16</v>
       </c>
-    </row>
-    <row r="964" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E963" t="s">
+        <v>163</v>
+      </c>
+      <c r="F963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D964">
         <v>17</v>
       </c>
-    </row>
-    <row r="965" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E964" t="s">
+        <v>182</v>
+      </c>
+      <c r="F964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D965">
         <v>18</v>
       </c>
-    </row>
-    <row r="966" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E965" t="s">
+        <v>405</v>
+      </c>
+      <c r="F965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D966">
+        <v>19</v>
+      </c>
+      <c r="E966" t="s">
+        <v>406</v>
+      </c>
+      <c r="F966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C968">
+        <v>46</v>
+      </c>
+      <c r="D968" s="2">
+        <v>0</v>
+      </c>
+      <c r="E968" s="2"/>
+      <c r="F968" s="2"/>
+    </row>
+    <row r="969" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D969" s="2">
+        <v>1</v>
+      </c>
+      <c r="E969" s="2"/>
+      <c r="F969" s="2"/>
+    </row>
+    <row r="970" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D970" s="2">
+        <v>2</v>
+      </c>
+      <c r="E970" s="2"/>
+      <c r="F970" s="2"/>
+    </row>
+    <row r="971" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D971" s="2">
+        <v>3</v>
+      </c>
+      <c r="E971" s="2"/>
+      <c r="F971" s="2"/>
+    </row>
+    <row r="972" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D972" s="2">
+        <v>4</v>
+      </c>
+      <c r="E972" s="2"/>
+      <c r="F972" s="2"/>
+    </row>
+    <row r="973" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D973" s="2">
+        <v>5</v>
+      </c>
+      <c r="E973" s="2"/>
+      <c r="F973" s="2"/>
+    </row>
+    <row r="974" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D974">
+        <v>6</v>
+      </c>
+      <c r="E974" t="s">
+        <v>407</v>
+      </c>
+      <c r="F974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D975">
+        <v>7</v>
+      </c>
+      <c r="E975" t="s">
+        <v>408</v>
+      </c>
+      <c r="F975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D976">
+        <v>8</v>
+      </c>
+      <c r="E976" t="s">
+        <v>42</v>
+      </c>
+      <c r="F976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D977">
+        <v>9</v>
+      </c>
+      <c r="E977" t="s">
+        <v>43</v>
+      </c>
+      <c r="F977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D978">
+        <v>10</v>
+      </c>
+      <c r="E978" t="s">
+        <v>409</v>
+      </c>
+      <c r="F978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D979">
+        <v>11</v>
+      </c>
+      <c r="E979" t="s">
+        <v>40</v>
+      </c>
+      <c r="F979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D980">
+        <v>12</v>
+      </c>
+      <c r="E980" t="s">
+        <v>410</v>
+      </c>
+      <c r="F980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D981">
+        <v>13</v>
+      </c>
+      <c r="E981" t="s">
+        <v>40</v>
+      </c>
+      <c r="F981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D982">
+        <v>14</v>
+      </c>
+      <c r="E982" t="s">
+        <v>373</v>
+      </c>
+      <c r="F982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D983">
+        <v>15</v>
+      </c>
+      <c r="E983" t="s">
+        <v>8</v>
+      </c>
+      <c r="F983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D984">
+        <v>16</v>
+      </c>
+      <c r="E984" t="s">
+        <v>411</v>
+      </c>
+      <c r="F984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D985">
+        <v>17</v>
+      </c>
+      <c r="E985" t="s">
+        <v>412</v>
+      </c>
+      <c r="F985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D986">
+        <v>18</v>
+      </c>
+      <c r="E986" t="s">
+        <v>54</v>
+      </c>
+      <c r="F986">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D987">
+        <v>19</v>
+      </c>
+      <c r="E987" t="s">
+        <v>413</v>
+      </c>
+      <c r="F987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C989">
+        <v>47</v>
+      </c>
+      <c r="D989" s="2">
+        <v>0</v>
+      </c>
+      <c r="E989" s="2"/>
+      <c r="F989" s="2"/>
+    </row>
+    <row r="990" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D990" s="2">
+        <v>1</v>
+      </c>
+      <c r="E990" s="2"/>
+      <c r="F990" s="2"/>
+    </row>
+    <row r="991" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D991" s="2">
+        <v>2</v>
+      </c>
+      <c r="E991" s="2"/>
+      <c r="F991" s="2"/>
+    </row>
+    <row r="992" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D992" s="2">
+        <v>3</v>
+      </c>
+      <c r="E992" s="2"/>
+      <c r="F992" s="2"/>
+    </row>
+    <row r="993" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D993" s="2">
+        <v>4</v>
+      </c>
+      <c r="E993" s="2"/>
+      <c r="F993" s="2"/>
+    </row>
+    <row r="994" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D994" s="2">
+        <v>5</v>
+      </c>
+      <c r="E994" s="2"/>
+      <c r="F994" s="2"/>
+    </row>
+    <row r="995" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D995">
+        <v>6</v>
+      </c>
+      <c r="E995" t="s">
+        <v>161</v>
+      </c>
+      <c r="F995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D996">
+        <v>7</v>
+      </c>
+      <c r="E996" t="s">
+        <v>414</v>
+      </c>
+      <c r="F996">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D997">
+        <v>8</v>
+      </c>
+      <c r="E997" t="s">
+        <v>252</v>
+      </c>
+      <c r="F997">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D998">
+        <v>9</v>
+      </c>
+      <c r="E998" t="s">
+        <v>415</v>
+      </c>
+      <c r="F998">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D999">
+        <v>10</v>
+      </c>
+      <c r="E999" t="s">
+        <v>408</v>
+      </c>
+      <c r="F999">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1000">
+        <v>11</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1000">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1001">
+        <v>12</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1001">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1002">
+        <v>13</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1002">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1003">
+        <v>14</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1004">
+        <v>15</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1005">
+        <v>16</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1006">
+        <v>17</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1006">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1007">
+        <v>18</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1008">
+        <v>19</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1010">
+        <v>48</v>
+      </c>
+      <c r="D1010" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1010" s="2"/>
+      <c r="F1010" s="2"/>
+    </row>
+    <row r="1011" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1011" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1011" s="2"/>
+      <c r="F1011" s="2"/>
+    </row>
+    <row r="1012" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1012" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1012" s="2"/>
+      <c r="F1012" s="2"/>
+    </row>
+    <row r="1013" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1013" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1013" s="2"/>
+      <c r="F1013" s="2"/>
+    </row>
+    <row r="1014" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1014">
+        <v>4</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1015">
+        <v>5</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1016">
+        <v>6</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1017">
+        <v>7</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1017">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1018">
+        <v>8</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>409</v>
+      </c>
+      <c r="F1018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1019">
+        <v>9</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1020">
+        <v>10</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1020">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1021">
+        <v>11</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1022">
+        <v>12</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1023">
+        <v>13</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1023">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1024">
+        <v>14</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1025">
+        <v>15</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1025">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1026">
+        <v>16</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1027">
+        <v>17</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1027">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1028">
+        <v>18</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1029">
+        <v>19</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1029">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1031">
+        <v>49</v>
+      </c>
+      <c r="D1031">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1032">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1033">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1034" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1034">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1035" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1035">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1036" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1036">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1037" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1037">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1038" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1038">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1039" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1039">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1040" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1040">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1041" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1041">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1042" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1042">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1043" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1043">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1044" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1044">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1045" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1045">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1046" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1046">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1047" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1047">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1048" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1049" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1049">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1050" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1050">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A481F6-C296-49C1-BA0F-461948E72499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1ABFF0-1341-4DF7-B1B2-D0A3485DD7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="453">
   <si>
     <t>word</t>
   </si>
@@ -1358,6 +1358,42 @@
   </si>
   <si>
     <t>[b'stole']</t>
+  </si>
+  <si>
+    <t>[b'articulate']</t>
+  </si>
+  <si>
+    <t>[b'cannot']</t>
+  </si>
+  <si>
+    <t>[b'express']</t>
+  </si>
+  <si>
+    <t>[b'see']</t>
+  </si>
+  <si>
+    <t>[b'relevant']</t>
+  </si>
+  <si>
+    <t>[b'asking']</t>
+  </si>
+  <si>
+    <t>[b'narrow']</t>
+  </si>
+  <si>
+    <t>[b'letting']</t>
+  </si>
+  <si>
+    <t>[b'focus']</t>
+  </si>
+  <si>
+    <t>[b'topics']</t>
+  </si>
+  <si>
+    <t>[b'elicit']</t>
+  </si>
+  <si>
+    <t>[b'required']</t>
   </si>
 </sst>
 </file>
@@ -1704,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1050"/>
+  <dimension ref="A1:K1092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="F1039" sqref="F1039"/>
+    <sheetView tabSelected="1" topLeftCell="A1062" workbookViewId="0">
+      <selection activeCell="E1084" sqref="E1084:E1085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12273,15 +12309,27 @@
       </c>
     </row>
     <row r="1031" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C1031">
+      <c r="C1031" s="4">
         <v>49</v>
       </c>
       <c r="D1031">
         <v>0</v>
       </c>
+      <c r="E1031" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1031">
+        <v>1</v>
+      </c>
     </row>
     <row r="1032" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1032">
+        <v>1</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1032">
         <v>1</v>
       </c>
     </row>
@@ -12289,89 +12337,515 @@
       <c r="D1033">
         <v>2</v>
       </c>
+      <c r="E1033" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1033">
+        <v>1</v>
+      </c>
     </row>
     <row r="1034" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1034">
         <v>3</v>
       </c>
+      <c r="E1034" t="s">
+        <v>409</v>
+      </c>
+      <c r="F1034">
+        <v>1</v>
+      </c>
     </row>
     <row r="1035" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1035">
         <v>4</v>
       </c>
+      <c r="E1035" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1035">
+        <v>1</v>
+      </c>
     </row>
     <row r="1036" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1036">
         <v>5</v>
       </c>
+      <c r="E1036" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1036">
+        <v>1</v>
+      </c>
     </row>
     <row r="1037" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1037">
         <v>6</v>
       </c>
+      <c r="E1037" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1037">
+        <v>1</v>
+      </c>
     </row>
     <row r="1038" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1038">
         <v>7</v>
       </c>
+      <c r="E1038" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1038">
+        <v>1</v>
+      </c>
     </row>
     <row r="1039" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1039">
         <v>8</v>
       </c>
+      <c r="E1039" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1039">
+        <v>1</v>
+      </c>
     </row>
     <row r="1040" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1040">
         <v>9</v>
       </c>
-    </row>
-    <row r="1041" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1040" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1041">
         <v>10</v>
       </c>
-    </row>
-    <row r="1042" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1041" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1041">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1042">
         <v>11</v>
       </c>
-    </row>
-    <row r="1043" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1042" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1043">
         <v>12</v>
       </c>
-    </row>
-    <row r="1044" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1043" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1043">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1044">
         <v>13</v>
       </c>
-    </row>
-    <row r="1045" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1044" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1045">
         <v>14</v>
       </c>
-    </row>
-    <row r="1046" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1045" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1045">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1046">
         <v>15</v>
       </c>
-    </row>
-    <row r="1047" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1046" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1046">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1047">
         <v>16</v>
       </c>
-    </row>
-    <row r="1048" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1047" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1048">
         <v>17</v>
       </c>
-    </row>
-    <row r="1049" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1048" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1048">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1049">
         <v>18</v>
       </c>
-    </row>
-    <row r="1050" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1049" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1049">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1050">
+        <v>19</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1050">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1052">
+        <v>50</v>
+      </c>
+      <c r="D1052" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1052" s="2"/>
+      <c r="F1052" s="2"/>
+    </row>
+    <row r="1053" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1053" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1053" s="2"/>
+      <c r="F1053" s="2"/>
+    </row>
+    <row r="1054" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1054">
+        <v>2</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1054">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1055" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1055">
+        <v>3</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1055">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1056">
+        <v>4</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1057">
+        <v>5</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1058">
+        <v>6</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1058">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1059">
+        <v>7</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1059">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1060">
+        <v>8</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1060">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1061">
+        <v>9</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1061">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1062">
+        <v>10</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1063">
+        <v>11</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1063">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1064">
+        <v>12</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1064">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1065">
+        <v>13</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1065">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1066">
+        <v>14</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1066">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1067">
+        <v>15</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>450</v>
+      </c>
+      <c r="F1067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1068">
+        <v>16</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1069">
+        <v>17</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1070">
+        <v>18</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1071">
+        <v>19</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1071">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1073">
+        <v>51</v>
+      </c>
+      <c r="D1073">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1075">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1076" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1076">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1077" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1077">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1078" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1078">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1079" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1079">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1080" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1080">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1081" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1081">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1082" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1082">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1083" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1083">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1084" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1084">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1085" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1085">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1086" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1086">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1087" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1087">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1088" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1088">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1089" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1089">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1090" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1090">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1091" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1091">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1092" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1092">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1ABFF0-1341-4DF7-B1B2-D0A3485DD7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0B455A-C444-43B9-A26C-DCE3819CA9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="469">
   <si>
     <t>word</t>
   </si>
@@ -1394,6 +1394,54 @@
   </si>
   <si>
     <t>[b'required']</t>
+  </si>
+  <si>
+    <t>[b'suggest']</t>
+  </si>
+  <si>
+    <t>[b'answer']</t>
+  </si>
+  <si>
+    <t>[b'potential']</t>
+  </si>
+  <si>
+    <t>[b'decrease']</t>
+  </si>
+  <si>
+    <t>[b'accuracy']</t>
+  </si>
+  <si>
+    <t>[b'made']</t>
+  </si>
+  <si>
+    <t>[b'interviewers']</t>
+  </si>
+  <si>
+    <t>[b'many']</t>
+  </si>
+  <si>
+    <t>[b'question']</t>
+  </si>
+  <si>
+    <t>[b'elicits']</t>
+  </si>
+  <si>
+    <t>[b'needs']</t>
+  </si>
+  <si>
+    <t>[b'few']</t>
+  </si>
+  <si>
+    <t>[b'moments']</t>
+  </si>
+  <si>
+    <t>[b'brochures']</t>
+  </si>
+  <si>
+    <t>[b'sample']</t>
+  </si>
+  <si>
+    <t>[b'packs']</t>
   </si>
 </sst>
 </file>
@@ -1740,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1092"/>
+  <dimension ref="A1:K1155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1062" workbookViewId="0">
-      <selection activeCell="E1084" sqref="E1084:E1085"/>
+    <sheetView tabSelected="1" topLeftCell="A1125" workbookViewId="0">
+      <selection activeCell="D1136" sqref="D1136:D1155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12746,106 +12794,763 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1073" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1073" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1073">
         <v>51</v>
       </c>
-      <c r="D1073">
+      <c r="D1073" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="1074" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D1074">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1075" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D1075">
+      <c r="E1073" s="2"/>
+      <c r="F1073" s="2"/>
+    </row>
+    <row r="1074" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1074" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1074" s="2"/>
+      <c r="F1074" s="2"/>
+    </row>
+    <row r="1075" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1075" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="1076" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1075" s="2"/>
+      <c r="F1075" s="2"/>
+    </row>
+    <row r="1076" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1076">
         <v>3</v>
       </c>
-    </row>
-    <row r="1077" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1076" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1076">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1077">
         <v>4</v>
       </c>
-    </row>
-    <row r="1078" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1077" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1077">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1078">
         <v>5</v>
       </c>
-    </row>
-    <row r="1079" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1078" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1078">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1079">
         <v>6</v>
       </c>
-    </row>
-    <row r="1080" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1079" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1079">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1080">
         <v>7</v>
       </c>
-    </row>
-    <row r="1081" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1080" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1080">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1081" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1081">
         <v>8</v>
       </c>
-    </row>
-    <row r="1082" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1081" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1081">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1082">
         <v>9</v>
       </c>
-    </row>
-    <row r="1083" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1082" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1082">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1083" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1083">
         <v>10</v>
       </c>
-    </row>
-    <row r="1084" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1083" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1083">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1084">
         <v>11</v>
       </c>
-    </row>
-    <row r="1085" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1084" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1084">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1085">
         <v>12</v>
       </c>
-    </row>
-    <row r="1086" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1085" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1085">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1086">
         <v>13</v>
       </c>
-    </row>
-    <row r="1087" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1086" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1086">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1087" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1087">
         <v>14</v>
       </c>
-    </row>
-    <row r="1088" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1087" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1087">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1088">
         <v>15</v>
       </c>
-    </row>
-    <row r="1089" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1088" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1088">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1089" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1089">
         <v>16</v>
       </c>
-    </row>
-    <row r="1090" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1089" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1089">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1090">
         <v>17</v>
       </c>
-    </row>
-    <row r="1091" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1090" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1090">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1091">
         <v>18</v>
       </c>
-    </row>
-    <row r="1092" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1091" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1091">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1092" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1092">
+        <v>19</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1092">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1094" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1094" s="4">
+        <v>52</v>
+      </c>
+      <c r="D1094">
+        <v>0</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1094">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1095">
+        <v>1</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1096">
+        <v>2</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1097">
+        <v>3</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1098">
+        <v>4</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1098">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1099">
+        <v>5</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1100">
+        <v>6</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1101">
+        <v>7</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1102">
+        <v>8</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1103">
+        <v>9</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1104">
+        <v>10</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1105">
+        <v>11</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1106">
+        <v>12</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1107">
+        <v>13</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1108">
+        <v>14</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1109">
+        <v>15</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1110">
+        <v>16</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1111">
+        <v>17</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1112">
+        <v>18</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1113">
+        <v>19</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1115" s="4">
+        <v>53</v>
+      </c>
+      <c r="D1115">
+        <v>0</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1116">
+        <v>1</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1117">
+        <v>2</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1118">
+        <v>3</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1119">
+        <v>4</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1120">
+        <v>5</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1121">
+        <v>6</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1122">
+        <v>7</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1123">
+        <v>8</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1124">
+        <v>9</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1125">
+        <v>10</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1126">
+        <v>11</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1127">
+        <v>12</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1128">
+        <v>13</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1129">
+        <v>14</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1130">
+        <v>15</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1131">
+        <v>16</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1132">
+        <v>17</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1133">
+        <v>18</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1134">
+        <v>19</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1136">
+        <v>54</v>
+      </c>
+      <c r="D1136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1149">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1150">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1153">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1154">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1155">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0B455A-C444-43B9-A26C-DCE3819CA9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ABAFA7-F93C-46EB-A068-D2329D7F290C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="485">
   <si>
     <t>word</t>
   </si>
@@ -1442,6 +1442,54 @@
   </si>
   <si>
     <t>[b'packs']</t>
+  </si>
+  <si>
+    <t>[b'again']</t>
+  </si>
+  <si>
+    <t>[b'david']</t>
+  </si>
+  <si>
+    <t>[b'kent']</t>
+  </si>
+  <si>
+    <t>[b'hope']</t>
+  </si>
+  <si>
+    <t>[b'day']</t>
+  </si>
+  <si>
+    <t>[b'encourage']</t>
+  </si>
+  <si>
+    <t>[b'place']</t>
+  </si>
+  <si>
+    <t>[b'display']</t>
+  </si>
+  <si>
+    <t>[b'either']</t>
+  </si>
+  <si>
+    <t>[b'check']</t>
+  </si>
+  <si>
+    <t>[b'checkout']</t>
+  </si>
+  <si>
+    <t>[b'counter']</t>
+  </si>
+  <si>
+    <t>[b'right']</t>
+  </si>
+  <si>
+    <t>[b'inside']</t>
+  </si>
+  <si>
+    <t>[b'treatment']</t>
+  </si>
+  <si>
+    <t>[b'room']</t>
   </si>
 </sst>
 </file>
@@ -1788,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1155"/>
+  <dimension ref="A1:K1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1125" workbookViewId="0">
-      <selection activeCell="D1136" sqref="D1136:D1155"/>
+    <sheetView tabSelected="1" topLeftCell="A1186" workbookViewId="0">
+      <selection activeCell="F1217" sqref="F1217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13455,102 +13503,723 @@
       <c r="C1136">
         <v>54</v>
       </c>
-      <c r="D1136">
+      <c r="D1136" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="1137" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1138" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1138">
+      <c r="E1136" s="2"/>
+      <c r="F1136" s="2"/>
+    </row>
+    <row r="1137" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1137" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1137" s="2"/>
+      <c r="F1137" s="2"/>
+    </row>
+    <row r="1138" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1138" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="1139" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1139">
+      <c r="E1138" s="2"/>
+      <c r="F1138" s="2"/>
+    </row>
+    <row r="1139" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1139" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="1140" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1140">
+      <c r="E1139" s="2"/>
+      <c r="F1139" s="2"/>
+    </row>
+    <row r="1140" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1140" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="1141" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1141">
+      <c r="E1140" s="2"/>
+      <c r="F1140" s="2"/>
+    </row>
+    <row r="1141" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1141" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="1142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1141" s="2"/>
+      <c r="F1141" s="2"/>
+    </row>
+    <row r="1142" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1142">
         <v>6</v>
       </c>
-    </row>
-    <row r="1143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1142" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1143">
         <v>7</v>
       </c>
-    </row>
-    <row r="1144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1143" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1144">
         <v>8</v>
       </c>
-    </row>
-    <row r="1145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1144" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1145" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1145">
         <v>9</v>
       </c>
-    </row>
-    <row r="1146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1146" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1146">
         <v>10</v>
       </c>
-    </row>
-    <row r="1147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1146" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1147" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1147">
         <v>11</v>
       </c>
-    </row>
-    <row r="1148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1147" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1148">
         <v>12</v>
       </c>
-    </row>
-    <row r="1149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1148" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1149">
         <v>13</v>
       </c>
-    </row>
-    <row r="1150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1149" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1150">
         <v>14</v>
       </c>
-    </row>
-    <row r="1151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1150" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1151">
         <v>15</v>
       </c>
-    </row>
-    <row r="1152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1151" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1152" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1152">
         <v>16</v>
       </c>
-    </row>
-    <row r="1153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1152" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1153">
         <v>17</v>
       </c>
-    </row>
-    <row r="1154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1153" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1154">
         <v>18</v>
       </c>
-    </row>
-    <row r="1155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1154" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1155">
+        <v>19</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1157" s="4">
+        <v>55</v>
+      </c>
+      <c r="D1157">
+        <v>0</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1158">
+        <v>1</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1159">
+        <v>2</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1160">
+        <v>3</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1161">
+        <v>4</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1162">
+        <v>5</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1163">
+        <v>6</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1164">
+        <v>7</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1165" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1165">
+        <v>8</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1166">
+        <v>9</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1167">
+        <v>10</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1168">
+        <v>11</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1169">
+        <v>12</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1170">
+        <v>13</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>480</v>
+      </c>
+      <c r="F1170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1171">
+        <v>14</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1172">
+        <v>15</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1173" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1173">
+        <v>16</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1174" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1174">
+        <v>17</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1175">
+        <v>18</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1176">
+        <v>19</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1178">
+        <v>56</v>
+      </c>
+      <c r="D1178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1178" s="2"/>
+      <c r="F1178" s="2"/>
+    </row>
+    <row r="1179" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1179" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1179" s="2"/>
+      <c r="F1179" s="2"/>
+    </row>
+    <row r="1180" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1180" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1180" s="2"/>
+      <c r="F1180" s="2"/>
+    </row>
+    <row r="1181" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1181" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1181" s="2"/>
+      <c r="F1181" s="2"/>
+    </row>
+    <row r="1182" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1182" s="2">
+        <v>4</v>
+      </c>
+      <c r="E1182" s="2"/>
+      <c r="F1182" s="2"/>
+    </row>
+    <row r="1183" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1183" s="2">
+        <v>5</v>
+      </c>
+      <c r="E1183" s="2"/>
+      <c r="F1183" s="2"/>
+    </row>
+    <row r="1184" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1184">
+        <v>6</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1185">
+        <v>7</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1186" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1186">
+        <v>8</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1187">
+        <v>9</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1188">
+        <v>10</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1189" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1189">
+        <v>11</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1190">
+        <v>12</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1191" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1191">
+        <v>13</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1192">
+        <v>14</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1193">
+        <v>15</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1194">
+        <v>16</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1195">
+        <v>17</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1196">
+        <v>18</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1197">
+        <v>19</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1199">
+        <v>57</v>
+      </c>
+      <c r="D1199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1206">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1208">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1210">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1211">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1212">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1213">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1214">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1215">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1216">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1217">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1218">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ABAFA7-F93C-46EB-A068-D2329D7F290C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B1718E-DC00-47A1-91A4-CAE13CBEB615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="488">
   <si>
     <t>word</t>
   </si>
@@ -1490,6 +1490,15 @@
   </si>
   <si>
     <t>[b'room']</t>
+  </si>
+  <si>
+    <t>[b'talk']</t>
+  </si>
+  <si>
+    <t>[b'audience']</t>
+  </si>
+  <si>
+    <t>[b'way']</t>
   </si>
 </sst>
 </file>
@@ -1836,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1218"/>
+  <dimension ref="A1:K1260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1186" workbookViewId="0">
-      <selection activeCell="F1217" sqref="F1217"/>
+    <sheetView tabSelected="1" topLeftCell="A1225" workbookViewId="0">
+      <selection activeCell="E1253" sqref="E1253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14124,102 +14133,372 @@
       <c r="C1199">
         <v>57</v>
       </c>
-      <c r="D1199">
+      <c r="D1199" s="2">
         <v>0</v>
       </c>
+      <c r="E1199" s="2"/>
+      <c r="F1199" s="2"/>
     </row>
     <row r="1200" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D1200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1201" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1201">
+      <c r="D1200" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1200" s="2"/>
+      <c r="F1200" s="2"/>
+    </row>
+    <row r="1201" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1201" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="1202" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1202">
+      <c r="E1201" s="2"/>
+      <c r="F1201" s="2"/>
+    </row>
+    <row r="1202" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1202" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="1203" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1203">
+      <c r="E1202" s="2"/>
+      <c r="F1202" s="2"/>
+    </row>
+    <row r="1203" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1203" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="1204" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1204">
+      <c r="E1203" s="2"/>
+      <c r="F1203" s="2"/>
+    </row>
+    <row r="1204" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1204" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="1205" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1205">
+      <c r="E1204" s="2"/>
+      <c r="F1204" s="2"/>
+    </row>
+    <row r="1205" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1205" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="1206" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1206">
+      <c r="E1205" s="2"/>
+      <c r="F1205" s="2"/>
+    </row>
+    <row r="1206" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1206" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="1207" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1207">
+      <c r="E1206" s="2"/>
+      <c r="F1206" s="2"/>
+    </row>
+    <row r="1207" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1207" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="1208" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1208">
+      <c r="E1207" s="2"/>
+      <c r="F1207" s="2"/>
+    </row>
+    <row r="1208" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1208" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="1209" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1209">
+      <c r="E1208" s="2"/>
+      <c r="F1208" s="2"/>
+    </row>
+    <row r="1209" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1209" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="1210" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1210">
+      <c r="E1209" s="2"/>
+      <c r="F1209" s="2"/>
+    </row>
+    <row r="1210" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1210" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="1211" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1211">
+      <c r="E1210" s="2"/>
+      <c r="F1210" s="2"/>
+    </row>
+    <row r="1211" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1211" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="1212" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1212">
+      <c r="E1211" s="2"/>
+      <c r="F1211" s="2"/>
+    </row>
+    <row r="1212" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1212" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="1213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1212" s="2"/>
+      <c r="F1212" s="2"/>
+    </row>
+    <row r="1213" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1213">
         <v>14</v>
       </c>
-    </row>
-    <row r="1214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1213" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1214">
         <v>15</v>
       </c>
-    </row>
-    <row r="1215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1214" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1215">
         <v>16</v>
       </c>
-    </row>
-    <row r="1216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1215" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1216">
         <v>17</v>
       </c>
-    </row>
-    <row r="1217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1216" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1217" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1217">
         <v>18</v>
       </c>
-    </row>
-    <row r="1218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E1217" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1218">
+        <v>19</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1220" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1220">
+        <v>58</v>
+      </c>
+      <c r="D1220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1223" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1224" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1225" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1226" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1226">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1227" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1227">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1228" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1229" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1229">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1230" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1230">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1231" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1231">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1232" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1232">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1233" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1233">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1234" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1234">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1235" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1235">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1236" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1236">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1237" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1237">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1238" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1238">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1239" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1239">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1241" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1241">
+        <v>59</v>
+      </c>
+      <c r="D1241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1244" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1245" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1246" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1247" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1248" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1248">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1249">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1250">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1251">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1252">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1253">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1254">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1255">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1256">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1257">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1258">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1259">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1260" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1260">
         <v>19</v>
       </c>
     </row>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B1718E-DC00-47A1-91A4-CAE13CBEB615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708E376-CBD8-467A-8703-CF2120DEAC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="494">
   <si>
     <t>word</t>
   </si>
@@ -1499,6 +1499,24 @@
   </si>
   <si>
     <t>[b'way']</t>
+  </si>
+  <si>
+    <t>____ ____ ____ ____ ____ ____ ____ so she said why ____ you partner with people in the theatre department</t>
+  </si>
+  <si>
+    <t>also did supplemental magazines and now _____ working on doing innovative library books and online products for librarians at scholastic</t>
+  </si>
+  <si>
+    <t>stuff to new york at my own expense i could work for them and tour the schools with their company's</t>
+  </si>
+  <si>
+    <t>it gave me the confidence to write all of the puppeteer companies that were listed in the new yorker magazine</t>
+  </si>
+  <si>
+    <t>act or acts of desperation by targeting baghdad as they are to sow fear after been largely forced out of</t>
+  </si>
+  <si>
+    <t>____ ____ ____ i also want to note the bravery of the iraqi security forces who responded to this attacks</t>
   </si>
 </sst>
 </file>
@@ -1847,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1225" workbookViewId="0">
-      <selection activeCell="E1253" sqref="E1253"/>
+    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
+      <selection activeCell="G596" sqref="G596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6754,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D481">
         <v>17</v>
       </c>
@@ -6765,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D482">
         <v>18</v>
       </c>
@@ -6776,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D483">
         <v>19</v>
       </c>
@@ -6787,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C485">
         <v>23</v>
       </c>
@@ -6796,50 +6814,53 @@
       </c>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
-    </row>
-    <row r="486" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G485" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="486" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D486" s="2">
         <v>1</v>
       </c>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
     </row>
-    <row r="487" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D487" s="2">
         <v>2</v>
       </c>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
     </row>
-    <row r="488" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D488" s="2">
         <v>3</v>
       </c>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
     </row>
-    <row r="489" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D489" s="2">
         <v>4</v>
       </c>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
     </row>
-    <row r="490" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D490" s="2">
         <v>5</v>
       </c>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
     </row>
-    <row r="491" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D491" s="2">
         <v>6</v>
       </c>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
     </row>
-    <row r="492" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D492">
         <v>7</v>
       </c>
@@ -6850,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D493">
         <v>8</v>
       </c>
@@ -6861,7 +6882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D494">
         <v>9</v>
       </c>
@@ -6872,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D495">
         <v>10</v>
       </c>
@@ -6883,14 +6904,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D496" s="2">
         <v>11</v>
       </c>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
     </row>
-    <row r="497" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D497">
         <v>12</v>
       </c>
@@ -6901,7 +6922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D498">
         <v>13</v>
       </c>
@@ -6912,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D499">
         <v>14</v>
       </c>
@@ -6923,7 +6944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D500">
         <v>15</v>
       </c>
@@ -6934,7 +6955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D501">
         <v>16</v>
       </c>
@@ -6945,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D502">
         <v>17</v>
       </c>
@@ -6956,7 +6977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D503">
         <v>18</v>
       </c>
@@ -6967,7 +6988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D504">
         <v>19</v>
       </c>
@@ -6978,7 +6999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C506">
         <v>24</v>
       </c>
@@ -6991,8 +7012,11 @@
       <c r="F506">
         <v>1</v>
       </c>
-    </row>
-    <row r="507" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G506" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="507" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D507">
         <v>1</v>
       </c>
@@ -7003,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D508">
         <v>2</v>
       </c>
@@ -7014,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D509">
         <v>3</v>
       </c>
@@ -7025,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D510">
         <v>4</v>
       </c>
@@ -7036,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D511">
         <v>5</v>
       </c>
@@ -7047,14 +7071,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D512" s="2">
         <v>6</v>
       </c>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
     </row>
-    <row r="513" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D513">
         <v>7</v>
       </c>
@@ -7065,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D514">
         <v>8</v>
       </c>
@@ -7076,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D515">
         <v>9</v>
       </c>
@@ -7087,7 +7111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D516">
         <v>10</v>
       </c>
@@ -7098,7 +7122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D517">
         <v>11</v>
       </c>
@@ -7109,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D518">
         <v>12</v>
       </c>
@@ -7120,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D519">
         <v>13</v>
       </c>
@@ -7131,7 +7155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D520">
         <v>14</v>
       </c>
@@ -7142,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D521">
         <v>15</v>
       </c>
@@ -7153,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D522">
         <v>16</v>
       </c>
@@ -7164,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D523">
         <v>17</v>
       </c>
@@ -7175,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D524">
         <v>18</v>
       </c>
@@ -7186,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D525">
         <v>19</v>
       </c>
@@ -7197,7 +7221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C527" s="4">
         <v>25</v>
       </c>
@@ -7210,8 +7234,11 @@
       <c r="F527">
         <v>1</v>
       </c>
-    </row>
-    <row r="528" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G527" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="528" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D528">
         <v>1</v>
       </c>
@@ -7398,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D545">
         <v>18</v>
       </c>
@@ -7409,7 +7436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D546">
         <v>19</v>
       </c>
@@ -7420,7 +7447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C548" s="4">
         <v>26</v>
       </c>
@@ -7433,8 +7460,11 @@
       <c r="F548">
         <v>1</v>
       </c>
-    </row>
-    <row r="549" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G548" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="549" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D549">
         <v>1</v>
       </c>
@@ -7445,7 +7475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D550">
         <v>2</v>
       </c>
@@ -7456,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D551">
         <v>3</v>
       </c>
@@ -7467,7 +7497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D552">
         <v>4</v>
       </c>
@@ -7478,7 +7508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D553">
         <v>5</v>
       </c>
@@ -7489,7 +7519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D554">
         <v>6</v>
       </c>
@@ -7500,7 +7530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D555">
         <v>7</v>
       </c>
@@ -7511,7 +7541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D556">
         <v>8</v>
       </c>
@@ -7522,7 +7552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D557">
         <v>9</v>
       </c>
@@ -7533,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D558">
         <v>10</v>
       </c>
@@ -7544,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D559">
         <v>11</v>
       </c>
@@ -7555,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D560">
         <v>12</v>
       </c>
@@ -7566,7 +7596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D561">
         <v>13</v>
       </c>
@@ -7577,7 +7607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D562">
         <v>14</v>
       </c>
@@ -7588,7 +7618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D563">
         <v>15</v>
       </c>
@@ -7599,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D564">
         <v>16</v>
       </c>
@@ -7610,7 +7640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D565">
         <v>17</v>
       </c>
@@ -7621,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D566">
         <v>18</v>
       </c>
@@ -7632,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D567">
         <v>19</v>
       </c>
@@ -7643,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C569" s="4">
         <v>27</v>
       </c>
@@ -7656,8 +7686,11 @@
       <c r="F569">
         <v>1</v>
       </c>
-    </row>
-    <row r="570" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G569" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="570" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D570">
         <v>1</v>
       </c>
@@ -7668,7 +7701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D571">
         <v>2</v>
       </c>
@@ -7679,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D572">
         <v>3</v>
       </c>
@@ -7690,7 +7723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D573">
         <v>4</v>
       </c>
@@ -7701,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D574">
         <v>5</v>
       </c>
@@ -7712,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D575">
         <v>6</v>
       </c>
@@ -7723,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D576">
         <v>7</v>
       </c>
@@ -7734,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D577">
         <v>8</v>
       </c>
@@ -7745,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D578">
         <v>9</v>
       </c>
@@ -7756,7 +7789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D579">
         <v>10</v>
       </c>
@@ -7767,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D580">
         <v>11</v>
       </c>
@@ -7778,7 +7811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D581">
         <v>12</v>
       </c>
@@ -7789,7 +7822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D582">
         <v>13</v>
       </c>
@@ -7800,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D583">
         <v>14</v>
       </c>
@@ -7811,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D584">
         <v>15</v>
       </c>
@@ -7822,7 +7855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D585">
         <v>16</v>
       </c>
@@ -7833,7 +7866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D586">
         <v>17</v>
       </c>
@@ -7844,7 +7877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D587">
         <v>18</v>
       </c>
@@ -7855,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D588">
         <v>19</v>
       </c>
@@ -7866,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C590">
         <v>28</v>
       </c>
@@ -7875,15 +7908,18 @@
       </c>
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
-    </row>
-    <row r="591" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G590" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="591" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D591" s="2">
         <v>1</v>
       </c>
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
     </row>
-    <row r="592" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D592" s="2">
         <v>2</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw sentence.xlsx
+++ b/Dissertation/dataset/csv_files/raw sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708E376-CBD8-467A-8703-CF2120DEAC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C88AA-BDB2-48A4-AB68-A21A7615A2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="517">
   <si>
     <t>word</t>
   </si>
@@ -1517,6 +1517,75 @@
   </si>
   <si>
     <t>____ ____ ____ i also want to note the bravery of the iraqi security forces who responded to this attacks</t>
+  </si>
+  <si>
+    <t>them go further in their careers that is actually very beneficial to the country the bottom line of the country</t>
+  </si>
+  <si>
+    <t>are working to get the voice of those girls really heard so ____ happy that we can play a role</t>
+  </si>
+  <si>
+    <t>to listen to them to really craft a message that will get people to help them and further their ideas</t>
+  </si>
+  <si>
+    <t>are working to get the voice of those girls really heard so ______ happy that we can play a role</t>
+  </si>
+  <si>
+    <t>company's changed its name from silver and at the close of business february voluntarily de listed from the venture exchange</t>
+  </si>
+  <si>
+    <t>listings on the canadian securities exchange formerly known as the canadian national stock exchange and is trading under the symbol</t>
+  </si>
+  <si>
+    <t>on the acquisition development and marketing of software applications for mobile computing devices including smart phones tablets and wearable computers</t>
+  </si>
+  <si>
+    <t>apps and has an established and growing user base which currently generates consistent monthly cash flow from the to daily</t>
+  </si>
+  <si>
+    <t>app is available for and and can be purchased on and the apple app store for and is available at</t>
+  </si>
+  <si>
+    <t>_____ _____ _____ this latest acquisition grows our install base substantially and will greatly contribute to the _____ monthly cashflow</t>
+  </si>
+  <si>
+    <t>paul president stated continues to execute its business model of acquiring apps that will generate significant returns for the company's</t>
+  </si>
+  <si>
+    <t>website at this video is for information purposes only and it not a recommendation to buy or sell any securities</t>
+  </si>
+  <si>
+    <t>sessions you get such a breadth of science that you really can build and tap into that really expansive knowledge</t>
+  </si>
+  <si>
+    <t>as well as not staying too long in a specific area or not being too brief in a specific area</t>
+  </si>
+  <si>
+    <t>______ ______ ______ and are you making adequate eye contact with the entire crowd for an appropriate length of time</t>
+  </si>
+  <si>
+    <t>______ ______ ______ ______ so if ______ done a video tape pay attention to what ______ doing with your body</t>
+  </si>
+  <si>
+    <t>______ ______ ______ ______ ______ ______ leading questions help the client to admit to information that otherwise might be withheld</t>
+  </si>
+  <si>
+    <t>______ ______ ______ ______ ______ ______ now yes or no questions helped the interviewer to establish clarity on details discussed</t>
+  </si>
+  <si>
+    <t>______ ______ ______ ______ in this example the client was reluctant to admit that her ex stole from her leading</t>
+  </si>
+  <si>
+    <t>also help a client to articulate ideas that they cannot express those ideas or do not see them as relevant</t>
+  </si>
+  <si>
+    <t>______ ______ asking narrow questions has the benefit of letting the interviewer focus on specific topics to elicit required details</t>
+  </si>
+  <si>
+    <t>______ ______ ______ however leading questions suggest an answer and have the potential to decrease the accuracy of the answer</t>
+  </si>
+  <si>
+    <t>made by new interviewers is asking too many narrow questions and the question elicits only the information the interviewer needs</t>
   </si>
 </sst>
 </file>
@@ -1865,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="G596" sqref="G596"/>
+    <sheetView tabSelected="1" topLeftCell="B1088" workbookViewId="0">
+      <selection activeCell="G1094" sqref="G1094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8102,7 +8171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D609">
         <v>19</v>
       </c>
@@ -8113,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C611" s="4">
         <v>29</v>
       </c>
@@ -8126,8 +8195,11 @@
       <c r="F611">
         <v>1</v>
       </c>
-    </row>
-    <row r="612" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G611" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="612" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D612">
         <v>1</v>
       </c>
@@ -8138,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D613">
         <v>2</v>
       </c>
@@ -8149,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D614">
         <v>3</v>
       </c>
@@ -8160,7 +8232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D615">
         <v>4</v>
       </c>
@@ -8171,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D616">
         <v>5</v>
       </c>
@@ -8182,7 +8254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D617">
         <v>6</v>
       </c>
@@ -8193,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D618">
         <v>7</v>
       </c>
@@ -8204,7 +8276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D619">
         <v>8</v>
       </c>
@@ -8215,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D620">
         <v>9</v>
       </c>
@@ -8226,7 +8298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D621">
         <v>10</v>
       </c>
@@ -8237,7 +8309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D622">
         <v>11</v>
       </c>
@@ -8248,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D623">
         <v>12</v>
       </c>
@@ -8259,7 +8331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D624">
         <v>13</v>
       </c>
@@ -8270,7 +8342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D625">
         <v>14</v>
       </c>
@@ -8281,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D626">
         <v>15</v>
       </c>
@@ -8292,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D627">
         <v>16</v>
       </c>
@@ -8303,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D628">
         <v>17</v>
       </c>
@@ -8314,7 +8386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D629">
         <v>18</v>
       </c>
@@ -8325,7 +8397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D630">
         <v>19</v>
       </c>
@@ -8336,7 +8408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C632">
         <v>30</v>
       </c>
@@ -8349,8 +8421,11 @@
       <c r="F632">
         <v>1</v>
       </c>
-    </row>
-    <row r="633" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G632" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="633" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D633">
         <v>1</v>
       </c>
@@ -8361,7 +8436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D634">
         <v>2</v>
       </c>
@@ -8372,7 +8447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D635">
         <v>3</v>
       </c>
@@ -8383,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D636">
         <v>4</v>
       </c>
@@ -8394,7 +8469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D637">
         <v>5</v>
       </c>
@@ -8405,7 +8480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D638">
         <v>6</v>
       </c>
@@ -8416,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D639">
         <v>7</v>
       </c>
@@ -8427,7 +8502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D640">
         <v>8</v>
       </c>
@@ -8438,7 +8513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D641">
         <v>9</v>
       </c>
@@ -8449,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D642">
         <v>10</v>
       </c>
@@ -8460,7 +8535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D643">
         <v>11</v>
       </c>
@@ -8471,14 +8546,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D644" s="2">
         <v>12</v>
       </c>
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
     </row>
-    <row r="645" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D645">
         <v>13</v>
       </c>
@@ -8489,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D646">
         <v>14</v>
       </c>
@@ -8500,7 +8575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D647">
         <v>15</v>
       </c>
@@ -8511,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D648">
         <v>16</v>
       </c>
@@ -8522,7 +8597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D649">
         <v>17</v>
       </c>
@@ -8533,7 +8608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D650">
         <v>18</v>
       </c>
@@ -8544,7 +8619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D651">
         <v>19</v>
       </c>
@@ -8555,7 +8630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C653" s="4">
         <v>31</v>
       </c>
@@ -8568,8 +8643,11 @@
       <c r="F653">
         <v>1</v>
       </c>
-    </row>
-    <row r="654" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G653" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="654" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D654">
         <v>1</v>
       </c>
@@ -8580,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D655">
         <v>2</v>
       </c>
@@ -8591,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D656">
         <v>3</v>
       </c>
@@ -8778,7 +8856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C674">
         <v>32</v>
       </c>
@@ -8791,8 +8869,11 @@
       <c r="F674">
         <v>1</v>
       </c>
-    </row>
-    <row r="675" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G674" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="675" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D675">
         <v>1</v>
       </c>
@@ -8803,7 +8884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D676">
         <v>2</v>
       </c>
@@ -8814,7 +8895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D677">
         <v>3</v>
       </c>
@@ -8825,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D678">
         <v>4</v>
       </c>
@@ -8836,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D679">
         <v>5</v>
       </c>
@@ -8847,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D680">
         <v>6</v>
       </c>
@@ -8858,7 +8939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D681">
         <v>7</v>
       </c>
@@ -8869,7 +8950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D682">
         <v>8</v>
       </c>
@@ -8880,7 +8961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D683">
         <v>9</v>
       </c>
@@ -8891,7 +8972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D684">
         <v>10</v>
       </c>
@@ -8902,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D685">
         <v>11</v>
       </c>
@@ -8913,14 +8994,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D686" s="2">
         <v>12</v>
       </c>
       <c r="E686" s="2"/>
       <c r="F686" s="2"/>
     </row>
-    <row r="687" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D687">
         <v>13</v>
       </c>
@@ -8931,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D688">
         <v>14</v>
       </c>
@@ -8942,7 +9023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D689">
         <v>15</v>
       </c>
@@ -8953,7 +9034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D690">
         <v>16</v>
       </c>
@@ -8964,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D691">
         <v>17</v>
       </c>
@@ -8975,7 +9056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D692">
         <v>18</v>
       </c>
@@ -8986,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D693">
         <v>19</v>
       </c>
@@ -8997,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C695" s="4">
         <v>33</v>
       </c>
@@ -9010,8 +9091,11 @@
       <c r="F695">
         <v>1</v>
       </c>
-    </row>
-    <row r="696" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G695" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="696" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D696">
         <v>1</v>
       </c>
@@ -9022,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D697">
         <v>2</v>
       </c>
@@ -9033,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D698">
         <v>3</v>
       </c>
@@ -9044,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D699">
         <v>4</v>
       </c>
@@ -9055,7 +9139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D700">
         <v>5</v>
       </c>
@@ -9066,7 +9150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D701">
         <v>6</v>
       </c>
@@ -9077,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D702">
         <v>7</v>
       </c>
@@ -9088,7 +9172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D703">
         <v>8</v>
       </c>
@@ -9099,7 +9183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D704">
         <v>9</v>
       </c>
@@ -9110,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D705">
         <v>10</v>
       </c>
@@ -9121,7 +9205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D706">
         <v>11</v>
       </c>
@@ -9132,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D707">
         <v>12</v>
       </c>
@@ -9143,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D708">
         <v>13</v>
       </c>
@@ -9154,7 +9238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D709">
         <v>14</v>
       </c>
@@ -9165,7 +9249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D710">
         <v>15</v>
       </c>
@@ -9176,7 +9260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D711">
         <v>16</v>
       </c>
@@ -9187,7 +9271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D712">
         <v>17</v>
       </c>
@@ -9198,7 +9282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D713">
         <v>18</v>
       </c>
@@ -9209,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D714">
         <v>19</v>
       </c>
@@ -9220,7 +9304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C716" s="4">
         <v>34</v>
       </c>
@@ -9233,8 +9317,11 @@
       <c r="F716">
         <v>1</v>
       </c>
-    </row>
-    <row r="717" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G716" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="717" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D717">
         <v>1</v>
       </c>
@@ -9245,7 +9332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D718">
         <v>2</v>
       </c>
@@ -9256,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D719">
         <v>3</v>
       </c>
@@ -9267,7 +9354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D720">
         <v>4</v>
       </c>
@@ -9443,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C737" s="4">
         <v>35</v>
       </c>
@@ -9456,8 +9543,11 @@
       <c r="F737">
         <v>1</v>
       </c>
-    </row>
-    <row r="738" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G737" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="738" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D738">
         <v>1</v>
       </c>
@@ -9468,7 +9558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D739">
         <v>2</v>
       </c>
@@ -9479,7 +9569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D740">
         <v>3</v>
       </c>
@@ -9490,7 +9580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D741">
         <v>4</v>
       </c>
@@ -9501,7 +9591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D742">
         <v>5</v>
       </c>
@@ -9512,7 +9602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D743">
         <v>6</v>
       </c>
@@ -9523,7 +9613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D744">
         <v>7</v>
       </c>
@@ -9534,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D745">
         <v>8</v>
       </c>
@@ -9545,7 +9635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D746">
         <v>9</v>
       </c>
@@ -9556,7 +9646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D747">
         <v>10</v>
       </c>
@@ -9567,7 +9657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D748">
         <v>11</v>
       </c>
@@ -9578,7 +9668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D749">
         <v>12</v>
       </c>
@@ -9589,7 +9679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D750">
         <v>13</v>
       </c>
@@ -9600,7 +9690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D751">
         <v>14</v>
       </c>
@@ -9611,7 +9701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D752">
         <v>15</v>
       </c>
@@ -9622,7 +9712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D753">
         <v>16</v>
       </c>
@@ -9633,7 +9723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D754">
         <v>17</v>
       </c>
@@ -9644,7 +9734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D755">
         <v>18</v>
       </c>
@@ -9655,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D756">
         <v>19</v>
       </c>
@@ -9666,7 +9756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C758" s="4">
         <v>36</v>
       </c>
@@ -9679,8 +9769,11 @@
       <c r="F758">
         <v>1</v>
       </c>
-    </row>
-    <row r="759" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G758" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="759" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D759">
         <v>1</v>
       </c>
@@ -9691,7 +9784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D760">
         <v>2</v>
       </c>
@@ -9702,7 +9795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D761">
         <v>3</v>
       </c>
@@ -9713,7 +9806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D762">
         <v>4</v>
       </c>
@@ -9724,7 +9817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D763">
         <v>5</v>
       </c>
@@ -9735,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D764">
         <v>6</v>
       </c>
@@ -9746,7 +9839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D765">
         <v>7</v>
       </c>
@@ -9757,7 +9850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D766">
         <v>8</v>
       </c>
@@ -9768,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D767">
         <v>9</v>
       </c>
@@ -9779,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D768">
         <v>10</v>
       </c>
@@ -9790,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D769">
         <v>11</v>
       </c>
@@ -9801,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D770">
         <v>12</v>
       </c>
@@ -9812,7 +9905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D771">
         <v>13</v>
       </c>
@@ -9823,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D772">
         <v>14</v>
       </c>
@@ -9834,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D773">
         <v>15</v>
       </c>
@@ -9845,7 +9938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D774">
         <v>16</v>
       </c>
@@ -9856,7 +9949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D775">
         <v>17</v>
       </c>
@@ -9867,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D776">
         <v>18</v>
       </c>
@@ -9878,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D777">
         <v>19</v>
       </c>
@@ -9889,7 +9982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C779" s="4">
         <v>37</v>
       </c>
@@ -9902,8 +9995,11 @@
       <c r="F779">
         <v>1</v>
       </c>
-    </row>
-    <row r="780" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G779" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="780" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D780">
         <v>1</v>
       </c>
@@ -9914,7 +10010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D781">
         <v>2</v>
       </c>
@@ -9925,7 +10021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D782">
         <v>3</v>
       </c>
@@ -9936,7 +10032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D783">
         <v>4</v>
       </c>
@@ -9947,7 +10043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D784">
         <v>5</v>
       </c>
@@ -9958,7 +10054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D785">
         <v>6</v>
       </c>
@@ -9969,7 +10065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D786">
         <v>7</v>
       </c>
@@ -9980,7 +10076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D787">
         <v>8</v>
       </c>
@@ -9991,7 +10087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D788">
         <v>9</v>
       </c>
@@ -10002,7 +10098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D789">
         <v>10</v>
       </c>
@@ -10013,7 +10109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D790">
         <v>11</v>
       </c>
@@ -10024,7 +10120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D791">
         <v>12</v>
       </c>
@@ -10035,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D792">
         <v>13</v>
       </c>
@@ -10046,7 +10142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D793">
         <v>14</v>
       </c>
@@ -10057,7 +10153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D794">
         <v>15</v>
       </c>
@@ -10068,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D795">
         <v>16</v>
       </c>
@@ -10079,7 +10175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D796">
         <v>17</v>
       </c>
@@ -10090,7 +10186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D797">
         <v>18</v>
       </c>
@@ -10101,7 +10197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D798">
         <v>19</v>
       </c>
@@ -10112,7 +10208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C800" s="4">
         <v>38</v>
       </c>
@@ -10124,6 +10220,9 @@
       </c>
       <c r="F800">
         <v>1</v>
+      </c>
+      <c r="G800" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="801" spans="4:6" x14ac:dyDescent="0.25">
@@ -10302,7 +10401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D817">
         <v>17</v>
       </c>
@@ -10313,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D818">
         <v>18</v>
       </c>
@@ -10324,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D819">
         <v>19</v>
       </c>
@@ -10335,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C821">
         <v>39</v>
       </c>
@@ -10344,22 +10443,25 @@
       </c>
       <c r="E821" s="2"/>
       <c r="F821" s="2"/>
-    </row>
-    <row r="822" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G821" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="822" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D822" s="2">
         <v>1</v>
       </c>
       <c r="E822" s="2"/>
       <c r="F822" s="2"/>
     </row>
-    <row r="823" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D823" s="2">
         <v>2</v>
       </c>
       <c r="E823" s="2"/>
       <c r="F823" s="2"/>
     </row>
-    <row r="824" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D824">
         <v>3</v>
       </c>
@@ -10370,7 +10472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D825">
         <v>4</v>
       </c>
@@ -10381,7 +10483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D826">
         <v>5</v>
       </c>
@@ -10392,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D827">
         <v>6</v>
       </c>
@@ -10403,7 +10505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D828">
         <v>7</v>
       </c>
@@ -10414,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D829">
         <v>8</v>
       </c>
@@ -10425,7 +10527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D830">
         <v>9</v>
       </c>
@@ -10436,7 +10538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D831">
         <v>10</v>
       </c>
@@ -10447,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D832">
         <v>11</v>
       </c>
@@ -10458,7 +10560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D833">
         <v>12</v>
       </c>
@@ -10469,7 +10571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D834">
         <v>13</v>
       </c>
@@ -10480,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D835">
         <v>14</v>
       </c>
@@ -10491,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D836">
         <v>15</v>
       </c>
@@ -10502,7 +10604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D837">
         <v>16</v>
       </c>
@@ -10513,14 +10615,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D838" s="2">
         <v>17</v>
       </c>
       <c r="E838" s="2"/>
       <c r="F838" s="2"/>
     </row>
-    <row r="839" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D839">
         <v>18</v>
       </c>
@@ -10531,7 +10633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D840">
         <v>19</v>
       </c>
@@ -10542,7 +10644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C842" s="4">
         <v>40</v>
       </c>
@@ -10555,8 +10657,11 @@
       <c r="F842">
         <v>1</v>
       </c>
-    </row>
-    <row r="843" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G842" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="843" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D843">
         <v>1</v>
       </c>
@@ -10567,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D844">
         <v>2</v>
       </c>
@@ -10578,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D845">
         <v>3</v>
       </c>
@@ -10589,7 +10694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D846">
         <v>4</v>
       </c>
@@ -10600,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D847">
         <v>5</v>
       </c>
@@ -10611,7 +10716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D848">
         <v>6</v>
       </c>
@@ -10622,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D849">
         <v>7</v>
       </c>
@@ -10633,7 +10738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D850">
         <v>8</v>
       </c>
@@ -10644,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D851">
         <v>9</v>
       </c>
@@ -10655,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D852">
         <v>10</v>
       </c>
@@ -10666,7 +10771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D853">
         <v>11</v>
       </c>
@@ -10677,7 +10782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D854">
         <v>12</v>
       </c>
@@ -10688,7 +10793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D855">
         <v>13</v>
       </c>
@@ -10699,7 +10804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D856">
         <v>14</v>
       </c>
@@ -10710,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D857">
         <v>15</v>
       </c>
@@ -10721,7 +10826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D858">
         <v>16</v>
       </c>
@@ -10732,7 +10837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D859">
         <v>17</v>
       </c>
@@ -10743,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D860">
         <v>18</v>
       </c>
@@ -10754,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D861">
         <v>19</v>
       </c>
@@ -10765,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C863" s="4">
         <v>41</v>
       </c>
@@ -10778,8 +10883,11 @@
       <c r="F863">
         <v>1</v>
       </c>
-    </row>
-    <row r="864" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G863" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="864" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D864">
         <v>1</v>
       </c>
@@ -10966,7 +11074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D881">
         <v>18</v>
       </c>
@@ -10977,7 +11085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D882">
         <v>19</v>
       </c>
@@ -10988,7 +11096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C884" s="4">
         <v>42</v>
       </c>
@@ -11001,8 +11109,11 @@
       <c r="F884">
         <v>1</v>
       </c>
-    </row>
-    <row r="885" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G884" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="885" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D885">
         <v>1</v>
       </c>
@@ -11013,7 +11124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D886">
         <v>2</v>
       </c>
@@ -11024,7 +11135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D887">
         <v>3</v>
       </c>
@@ -11035,7 +11146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D888">
         <v>4</v>
       </c>
@@ -11046,7 +11157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D889">
         <v>5</v>
       </c>
@@ -11057,7 +11168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D890">
         <v>6</v>
       </c>
@@ -11068,7 +11179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D891">
         <v>7</v>
       </c>
@@ -11079,7 +11190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D892">
         <v>8</v>
       </c>
@@ -11090,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D893">
         <v>9</v>
       </c>
@@ -11101,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D894">
         <v>10</v>
       </c>
@@ -11112,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D895">
         <v>11</v>
       </c>
@@ -11123,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D896">
         <v>12</v>
       </c>
@@ -11134,7 +11245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D897">
         <v>13</v>
       </c>
@@ -11145,7 +11256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D898">
         <v>14</v>
       </c>
@@ -11156,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D899">
         <v>15</v>
       </c>
@@ -11167,7 +11278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D900">
         <v>16</v>
       </c>
@@ -11178,7 +11289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D901">
         <v>17</v>
       </c>
@@ -11189,7 +11300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D902">
         <v>18</v>
       </c>
@@ -11200,7 +11311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D903">
         <v>19</v>
       </c>
@@ -11211,7 +11322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C905" s="4">
         <v>43</v>
       </c>
@@ -11224,8 +11335,11 @@
       <c r="F905">
         <v>1</v>
       </c>
-    </row>
-    <row r="906" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G905" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="906" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D906">
         <v>1</v>
       </c>
@@ -11236,7 +11350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D907">
         <v>2</v>
       </c>
@@ -11247,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D908">
         <v>3</v>
       </c>
@@ -11258,7 +11372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D909">
         <v>4</v>
       </c>
@@ -11269,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D910">
         <v>5</v>
       </c>
@@ -11280,7 +11394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D911">
         <v>6</v>
       </c>
@@ -11291,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D912">
         <v>7</v>
       </c>
@@ -11302,7 +11416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D913">
         <v>8</v>
       </c>
@@ -11313,7 +11427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D914">
         <v>9</v>
       </c>
@@ -11324,7 +11438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D915">
         <v>10</v>
       </c>
@@ -11335,7 +11449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D916">
         <v>11</v>
       </c>
@@ -11346,7 +11460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D917">
         <v>12</v>
       </c>
@@ -11357,7 +11471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D918">
         <v>13</v>
       </c>
@@ -11368,7 +11482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D919">
         <v>14</v>
       </c>
@@ -11379,7 +11493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D920">
         <v>15</v>
       </c>
@@ -11390,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D921">
         <v>16</v>
       </c>
@@ -11401,7 +11515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D922">
         <v>17</v>
       </c>
@@ -11412,7 +11526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D923">
         <v>18</v>
       </c>
@@ -11423,7 +11537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D924">
         <v>19</v>
       </c>
@@ -11434,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C926">
         <v>44</v>
       </c>
@@ -11443,15 +11557,18 @@
       </c>
       <c r="E926" s="2"/>
       <c r="F926" s="2"/>
-    </row>
-    <row r="927" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G926" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="927" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D927" s="2">
         <v>1</v>
       </c>
       <c r="E927" s="2"/>
       <c r="F927" s="2"/>
     </row>
-    <row r="928" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D928" s="2">
         <v>2</v>
       </c>
@@ -11634,7 +11751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D945">
         <v>19</v>
       </c>
@@ -11645,7 +11762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C947">
         <v>45</v>
       </c>
@@ -11654,29 +11771,32 @@
       </c>
       <c r="E947" s="2"/>
       <c r="F947" s="2"/>
-    </row>
-    <row r="948" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G947" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="948" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D948" s="2">
         <v>1</v>
       </c>
       <c r="E948" s="2"/>
       <c r="F948" s="2"/>
     </row>
-    <row r="949" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D949" s="2">
         <v>2</v>
       </c>
       <c r="E949" s="2"/>
       <c r="F949" s="2"/>
     </row>
-    <row r="950" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D950" s="2">
         <v>3</v>
       </c>
       <c r="E950" s="2"/>
       <c r="F950" s="2"/>
     </row>
-    <row r="951" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D951">
         <v>4</v>
       </c>
@@ -11687,7 +11807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D952">
         <v>5</v>
       </c>
@@ -11698,14 +11818,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D953" s="2">
         <v>6</v>
       </c>
       <c r="E953" s="2"/>
       <c r="F953" s="2"/>
     </row>
-    <row r="954" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D954">
         <v>7</v>
       </c>
@@ -11716,7 +11836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D955">
         <v>8</v>
       </c>
@@ -11727,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D956">
         <v>9</v>
       </c>
@@ -11738,7 +11858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D957">
         <v>10</v>
       </c>
@@ -11749,7 +11869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D958">
         <v>11</v>
       </c>
@@ -11760,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D959">
         <v>12</v>
       </c>
@@ -11771,7 +11891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D960">
         <v>13</v>
       </c>
@@ -11782,7 +11902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D961">
         <v>14</v>
       </c>
@@ -11793,14 +11913,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D962" s="2">
         <v>15</v>
       </c>
       <c r="E962" s="2"/>
       <c r="F962" s="2"/>
     </row>
-    <row r="963" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D963">
         <v>16</v>
       </c>
@@ -11811,7 +11931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D964">
         <v>17</v>
       </c>
@@ -11822,7 +11942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D965">
         <v>18</v>
       </c>
@@ -11833,7 +11953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D966">
         <v>19</v>
       </c>
@@ -11844,7 +11964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C968">
         <v>46</v>
       </c>
@@ -11853,43 +11973,46 @@
       </c>
       <c r="E968" s="2"/>
       <c r="F968" s="2"/>
-    </row>
-    <row r="969" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G968" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="969" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D969" s="2">
         <v>1</v>
       </c>
       <c r="E969" s="2"/>
       <c r="F969" s="2"/>
     </row>
-    <row r="970" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D970" s="2">
         <v>2</v>
       </c>
       <c r="E970" s="2"/>
       <c r="F970" s="2"/>
     </row>
-    <row r="971" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D971" s="2">
         <v>3</v>
       </c>
       <c r="E971" s="2"/>
       <c r="F971" s="2"/>
     </row>
-    <row r="972" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D972" s="2">
         <v>4</v>
       </c>
       <c r="E972" s="2"/>
       <c r="F972" s="2"/>
     </row>
-    <row r="973" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D973" s="2">
         <v>5</v>
       </c>
       <c r="E973" s="2"/>
       <c r="F973" s="2"/>
     </row>
-    <row r="974" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D974">
         <v>6</v>
       </c>
@@ -11900,7 +12023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D975">
         <v>7</v>
       </c>
@@ -11911,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D976">
         <v>8</v>
       </c>
@@ -11922,7 +12045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D977">
         <v>9</v>
       </c>
@@ -11933,7 +12056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D978">
         <v>10</v>
       </c>
@@ -11944,7 +12067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D979">
         <v>11</v>
       </c>
@@ -11955,7 +12078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D980">
         <v>12</v>
       </c>
@@ -11966,7 +12089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D981">
         <v>13</v>
       </c>
@@ -11977,7 +12100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D982">
         <v>14</v>
       </c>
@@ -11988,7 +12111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D983">
         <v>15</v>
       </c>
@@ -11999,7 +12122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D984">
         <v>16</v>
       </c>
@@ -12010,7 +12133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D985">
         <v>17</v>
       </c>
@@ -12021,7 +12144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D986">
         <v>18</v>
       </c>
@@ -12032,7 +12155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D987">
         <v>19</v>
       </c>
@@ -12043,7 +12166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C989">
         <v>47</v>
       </c>
@@ -12052,22 +12175,25 @@
       </c>
       <c r="E989" s="2"/>
       <c r="F989" s="2"/>
-    </row>
-    <row r="990" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G989" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="990" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D990" s="2">
         <v>1</v>
       </c>
       <c r="E990" s="2"/>
       <c r="F990" s="2"/>
     </row>
-    <row r="991" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D991" s="2">
         <v>2</v>
       </c>
       <c r="E991" s="2"/>
       <c r="F991" s="2"/>
     </row>
-    <row r="992" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D992" s="2">
         <v>3</v>
       </c>
@@ -12242,7 +12368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1010" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1010" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C1010">
         <v>48</v>
       </c>
@@ -12251,29 +12377,32 @@
       </c>
       <c r="E1010" s="2"/>
       <c r="F1010" s="2"/>
-    </row>
-    <row r="1011" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G1010" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="1011" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1011" s="2">
         <v>1</v>
       </c>
       <c r="E1011" s="2"/>
       <c r="F1011" s="2"/>
     </row>
-    <row r="1012" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1012" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1012" s="2">
         <v>2</v>
       </c>
       <c r="E1012" s="2"/>
       <c r="F1012" s="2"/>
     </row>
-    <row r="1013" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1013" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1013" s="2">
         <v>3</v>
       </c>
       <c r="E1013" s="2"/>
       <c r="F1013" s="2"/>
     </row>
-    <row r="1014" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1014" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1014">
         <v>4</v>
       </c>
@@ -12284,7 +12413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1015" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1015" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1015">
         <v>5</v>
       </c>
@@ -12295,7 +12424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1016" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1016" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1016">
         <v>6</v>
       </c>
@@ -12306,7 +12435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1017" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1017" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1017">
         <v>7</v>
       </c>
@@ -12317,7 +12446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1018" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1018" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1018">
         <v>8</v>
       </c>
@@ -12328,7 +12457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1019" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1019" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1019">
         <v>9</v>
       </c>
@@ -12339,7 +12468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1020" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1020" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1020">
         <v>10</v>
       </c>
@@ -12350,7 +12479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1021" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1021" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1021">
         <v>11</v>
       </c>
@@ -12361,7 +12490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1022" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1022" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1022">
         <v>12</v>
       </c>
@@ -12372,7 +12501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1023" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1023" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1023">
         <v>13</v>
       </c>
@@ -12383,7 +12512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1024" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1024" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1024">
         <v>14</v>
       </c>
@@ -12394,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1025" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1025" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1025">
         <v>15</v>
       </c>
@@ -12405,7 +12534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1026" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1026" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1026">
         <v>16</v>
       </c>
@@ -12416,7 +12545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1027" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1027" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1027">
         <v>17</v>
       </c>
@@ -12427,7 +12556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1028" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1028" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1028">
         <v>18</v>
       </c>
@@ -12438,7 +12567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1029" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1029" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1029">
         <v>19</v>
       </c>
@@ -12449,7 +12578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1031" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1031" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C1031" s="4">
         <v>49</v>
       </c>
@@ -12462,8 +12591,11 @@
       <c r="F1031">
         <v>1</v>
       </c>
-    </row>
-    <row r="1032" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G1031" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="1032" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1032">
         <v>1</v>
       </c>
@@ -12474,7 +12606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1033" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1033" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1033">
         <v>2</v>
       </c>
@@ -12485,7 +12617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1034" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1034" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1034">
         <v>3</v>
       </c>
@@ -12496,7 +12628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1035" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1035" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1035">
         <v>4</v>
       </c>
@@ -12507,7 +12639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1036" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1036" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1036">
         <v>5</v>
       </c>
@@ -12518,7 +12650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1037" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1037" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1037">
         <v>6</v>
       </c>
@@ -12529,7 +12661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1038" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1038" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1038">
         <v>7</v>
       </c>
@@ -12540,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1039" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1039" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1039">
         <v>8</v>
       </c>
@@ -12551,7 +12683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1040" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1040" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1040">
         <v>9</v>
       </c>
@@ -12562,7 +12694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1041" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1041" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1041">
         <v>10</v>
       </c>
@@ -12573,7 +12705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1042" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1042" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1042">
         <v>11</v>
       </c>
@@ -12584,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1043" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1043" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1043">
         <v>12</v>
       </c>
@@ -12595,7 +12727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1044" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1044" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1044">
         <v>13</v>
       </c>
@@ -12606,7 +12738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1045" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1045" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1045">
         <v>14</v>
       </c>
@@ -12617,7 +12749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1046" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1046" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1046">
         <v>15</v>
       </c>
@@ -12628,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1047" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1047" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1047">
         <v>16</v>
       </c>
@@ -12639,7 +12771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1048" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1048">
         <v>17</v>
       </c>
@@ -12650,7 +12782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1049" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1049" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1049">
         <v>18</v>
       </c>
@@ -12661,7 +12793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1050" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1050" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1050">
         <v>19</v>
       </c>
@@ -12672,7 +12804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1052" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1052" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C1052">
         <v>50</v>
       </c>
@@ -12681,15 +12813,18 @@
       </c>
       <c r="E1052" s="2"/>
       <c r="F1052" s="2"/>
-    </row>
-    <row r="1053" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G1052" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="1053" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1053" s="2">
         <v>1</v>
       </c>
       <c r="E1053" s="2"/>
       <c r="F1053" s="2"/>
     </row>
-    <row r="1054" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1054" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1054">
         <v>2</v>
       </c>
@@ -12700,7 +12835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1055" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1055" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1055">
         <v>3</v>
       </c>
@@ -12711,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1056" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1056" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1056">
         <v>4</v>
       </c>
@@ -12887,7 +13022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1073" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1073" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C1073">
         <v>51</v>
       </c>
@@ -12896,22 +13031,25 @@
       </c>
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
-    </row>
-    <row r="1074" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G1073" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="1074" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1074" s="2">
         <v>1</v>
       </c>
       <c r="E1074" s="2"/>
       <c r="F1074" s="2"/>
     </row>
-    <row r="1075" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1075" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1075" s="2">
         <v>2</v>
       </c>
       <c r="E1075" s="2"/>
       <c r="F1075" s="2"/>
     </row>
-    <row r="1076" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1076" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1076">
         <v>3</v>
       </c>
@@ -12922,7 +13060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1077" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1077" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1077">
         <v>4</v>
       </c>
@@ -12933,7 +13071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1078" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1078" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1078">
         <v>5</v>
       </c>
@@ -12944,7 +13082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1079" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1079" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1079">
         <v>6</v>
       </c>
@@ -12955,7 +13093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1080" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1080" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1080">
         <v>7</v>
       </c>
@@ -12966,7 +13104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1081" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1081" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1081">
         <v>8</v>
       </c>
@@ -12977,7 +13115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1082" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1082" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1082">
         <v>9</v>
       </c>
@@ -12988,7 +13126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1083" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1083" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1083">
         <v>10</v>
       </c>
@@ -12999,7 +13137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1084" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1084" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1084">
         <v>11</v>
       </c>
@@ -13010,7 +13148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1085" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1085" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1085">
         <v>12</v>
       </c>
@@ -13021,7 +13159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1086" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1086" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1086">
         <v>13</v>
       </c>
@@ -13032,7 +13170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1087" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1087" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1087">
         <v>14</v>
       </c>
@@ -13043,7 +13181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1088" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1088" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1088">
         <v>15</v>
       </c>
@@ -13054,7 +13192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1089" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1089" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1089">
         <v>16</v>
       </c>
@@ -13065,7 +13203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1090" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1090" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1090">
         <v>17</v>
       </c>
@@ -13076,7 +13214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1091" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1091" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1091">
         <v>18</v>
       </c>
@@ -13087,7 +13225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1092" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1092" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1092">
         <v>19</v>
       </c>
@@ -13098,7 +13236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1094" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1094" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C1094" s="4">
         <v>52</v>
       </c>
@@ -13111,8 +13249,11 @@
       <c r="F1094">
         <v>1</v>
       </c>
-    </row>
-    <row r="1095" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G1094" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="1095" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1095">
         <v>1</v>
       </c>
@@ -13123,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1096" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1096" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1096">
         <v>2</v>
       </c>
@@ -13134,7 +13275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1097" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1097" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1097">
         <v>3</v>
       </c>
@@ -13145,7 +13286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1098" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1098" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1098">
         <v>4</v>
       </c>
@@ -13156,7 +13297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1099" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1099" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1099">
         <v>5</v>
       </c>
@@ -13167,7 +13308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1100" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1100">
         <v>6</v>
       </c>
@@ -13178,7 +13319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1101" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1101" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1101">
         <v>7</v>
       </c>
@@ -13189,7 +13330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1102" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1102" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1102">
         <v>8</v>
       </c>
@@ -13200,7 +13341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1103" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1103" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1103">
         <v>9</v>
       </c>
@@ -13211,7 +13352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1104" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1104" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1104">
         <v>10</v>
       </c>
